--- a/CPRI.xlsx
+++ b/CPRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D47E9E-EF75-43F0-934D-760EB874990F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D4D5DD-8339-411A-8A7B-33071960C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5580" windowWidth="38175" windowHeight="15240" xr2:uid="{973D8E1F-BCD0-4D20-A01B-2C85341BD8AE}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{973D8E1F-BCD0-4D20-A01B-2C85341BD8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>CPRI</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Interest Expense</t>
   </si>
   <si>
-    <t>Foreign Exhange Loss</t>
-  </si>
-  <si>
     <t>Pretax Income</t>
   </si>
   <si>
@@ -223,6 +220,42 @@
   </si>
   <si>
     <t>Close with to an arangement with Prada to sell Versace for 1,6 billion USD</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Store Growth</t>
+  </si>
+  <si>
+    <t>Versace Stores</t>
+  </si>
+  <si>
+    <t>Jimmy Choo Stores</t>
+  </si>
+  <si>
+    <t>Micheal Kors Stores</t>
+  </si>
+  <si>
+    <t>Total Stores</t>
   </si>
 </sst>
 </file>
@@ -421,7 +454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,6 +477,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E9A75-F7B8-420C-94DA-50E72863FCB7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>22.01</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -815,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2">
-        <v>117.909795</v>
+        <v>118.57394499999999</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>28</v>
@@ -830,7 +873,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I3*I2</f>
-        <v>2595.1945879500004</v>
+        <v>2045.4005512499998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>28</v>
@@ -852,8 +895,8 @@
         <v>6</v>
       </c>
       <c r="I6" s="2">
-        <f>1454+25</f>
-        <v>1479</v>
+        <f>1476+24</f>
+        <v>1500</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>28</v>
@@ -868,7 +911,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>3718.1945879500004</v>
+        <v>3379.4005512499998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -916,7 +959,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -929,13 +972,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9A6A24-F024-46A6-A828-07BAB9CA3100}">
-  <dimension ref="A1:AY501"/>
+  <dimension ref="A1:AY507"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,418 +1017,450 @@
       <c r="J2" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="L2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16">
-        <v>843</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
-        <v>754</v>
-      </c>
-      <c r="J3" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="C3" s="21">
+        <v>224</v>
+      </c>
+      <c r="D3" s="21">
+        <v>230</v>
+      </c>
+      <c r="E3" s="21">
+        <v>233</v>
+      </c>
+      <c r="F3" s="21">
+        <v>236</v>
+      </c>
+      <c r="G3" s="21">
+        <v>239</v>
+      </c>
+      <c r="H3" s="21">
+        <v>236</v>
+      </c>
+      <c r="I3" s="21">
+        <v>234</v>
+      </c>
+      <c r="J3" s="21">
+        <v>228</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16">
-        <v>376</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16">
-        <v>341</v>
-      </c>
-      <c r="J4" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="21">
+        <v>237</v>
+      </c>
+      <c r="D4" s="21">
+        <v>237</v>
+      </c>
+      <c r="E4" s="21">
+        <v>237</v>
+      </c>
+      <c r="F4" s="21">
+        <v>234</v>
+      </c>
+      <c r="G4" s="21">
+        <v>227</v>
+      </c>
+      <c r="H4" s="21">
+        <v>226</v>
+      </c>
+      <c r="I4" s="21">
+        <v>224</v>
+      </c>
+      <c r="J4" s="21">
+        <v>219</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
-        <v>208</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
-        <v>166</v>
-      </c>
-      <c r="J5" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="C5" s="21">
+        <v>810</v>
+      </c>
+      <c r="D5" s="21">
+        <v>802</v>
+      </c>
+      <c r="E5" s="21">
+        <v>800</v>
+      </c>
+      <c r="F5" s="22">
+        <v>769</v>
+      </c>
+      <c r="G5" s="21">
+        <v>764</v>
+      </c>
+      <c r="H5" s="21">
+        <v>755</v>
+      </c>
+      <c r="I5" s="21">
+        <v>747</v>
+      </c>
+      <c r="J5" s="22">
+        <v>711</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
-        <v>227</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
-        <v>193</v>
-      </c>
-      <c r="J6" s="16"/>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" ref="C6:I6" si="0">+SUM(C3:C5)</f>
+        <v>1271</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
+        <v>1269</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>1239</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
+        <v>1217</v>
+      </c>
+      <c r="I6" s="23">
+        <f>+SUM(I3:I5)</f>
+        <v>1205</v>
+      </c>
+      <c r="J6" s="23">
+        <f>+SUM(J3:J5)</f>
+        <v>1158</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="16">
-        <v>166</v>
-      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="16">
-        <v>159</v>
-      </c>
+      <c r="I7" s="16"/>
       <c r="J7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1034</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>909</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="16">
+        <f>82+49+501</f>
+        <v>632</v>
+      </c>
+      <c r="D8" s="16">
+        <f>96+38+556</f>
+        <v>690</v>
+      </c>
+      <c r="E8" s="16">
+        <v>843</v>
+      </c>
+      <c r="F8" s="16">
+        <v>647</v>
+      </c>
+      <c r="G8" s="16">
+        <f>70+52+451</f>
+        <v>573</v>
+      </c>
+      <c r="H8" s="16">
+        <f>64+492+35</f>
+        <v>591</v>
+      </c>
+      <c r="I8" s="16">
+        <v>754</v>
+      </c>
+      <c r="J8" s="16">
+        <v>561</v>
+      </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
-        <v>1427</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
-        <v>1261</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="16">
+        <f>116+81+175</f>
+        <v>372</v>
+      </c>
+      <c r="D9" s="16">
+        <f>125+57+219</f>
+        <v>401</v>
+      </c>
+      <c r="E9" s="16">
+        <v>376</v>
+      </c>
+      <c r="F9" s="16">
+        <v>352</v>
+      </c>
+      <c r="G9" s="16">
+        <f>90+77+138</f>
+        <v>305</v>
+      </c>
+      <c r="H9" s="16">
+        <f>90+71+187</f>
+        <v>348</v>
+      </c>
+      <c r="I9" s="16">
+        <v>341</v>
+      </c>
+      <c r="J9" s="16">
+        <v>302</v>
+      </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>499</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>449</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C10" s="16">
+        <f>61+53+111</f>
+        <v>225</v>
+      </c>
+      <c r="D10" s="16">
+        <f>59+37+104</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="16">
+        <v>208</v>
+      </c>
+      <c r="F10" s="16">
+        <v>224</v>
+      </c>
+      <c r="G10" s="16">
+        <f>59+44+86</f>
+        <v>189</v>
+      </c>
+      <c r="H10" s="16">
+        <f>47+34+59</f>
+        <v>140</v>
+      </c>
+      <c r="I10" s="16">
+        <v>166</v>
+      </c>
+      <c r="J10" s="16">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:H11" si="0">+C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>928</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f>+I9-I10</f>
-        <v>812</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" ref="J11" si="1">+J9-J10</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C11" s="16">
+        <v>259</v>
+      </c>
+      <c r="D11" s="16">
+        <v>280</v>
+      </c>
+      <c r="E11" s="16">
+        <v>227</v>
+      </c>
+      <c r="F11" s="16">
+        <v>264</v>
+      </c>
+      <c r="G11" s="16">
+        <v>219</v>
+      </c>
+      <c r="H11" s="16">
+        <v>201</v>
+      </c>
+      <c r="I11" s="16">
+        <v>193</v>
+      </c>
+      <c r="J11" s="16">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>749</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
-        <v>680</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C12" s="16">
+        <v>183</v>
+      </c>
+      <c r="D12" s="16">
+        <v>132</v>
+      </c>
+      <c r="E12" s="16">
+        <v>166</v>
+      </c>
+      <c r="F12" s="16">
+        <v>137</v>
+      </c>
+      <c r="G12" s="16">
+        <v>173</v>
+      </c>
+      <c r="H12" s="16">
+        <v>140</v>
+      </c>
+      <c r="I12" s="16">
+        <v>159</v>
+      </c>
+      <c r="J12" s="16">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C13" s="2">
+        <v>787</v>
+      </c>
+      <c r="D13" s="2">
+        <v>879</v>
+      </c>
       <c r="E13" s="2">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>1034</v>
+      </c>
+      <c r="F13" s="2">
+        <v>822</v>
+      </c>
+      <c r="G13" s="2">
+        <v>675</v>
+      </c>
+      <c r="H13" s="2">
+        <v>738</v>
+      </c>
       <c r="I13" s="2">
-        <v>49</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>909</v>
+      </c>
+      <c r="J13" s="2">
+        <v>694</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1429,22 +1504,34 @@
       <c r="AY13" s="2"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>675</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1229</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1291</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1427</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1223</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1067</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1079</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1261</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1035</v>
+      </c>
+      <c r="K14" s="17"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1488,20 +1575,32 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>417</v>
+      </c>
+      <c r="D15" s="2">
+        <v>459</v>
+      </c>
       <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="F15" s="2">
+        <v>456</v>
+      </c>
+      <c r="G15" s="2">
+        <v>378</v>
+      </c>
+      <c r="H15" s="2">
+        <v>385</v>
+      </c>
       <c r="I15" s="2">
-        <v>-2</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="J15" s="2">
+        <v>404</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1546,39 +1645,39 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:H16" si="2">+C11-SUM(C12:C15)</f>
-        <v>0</v>
+        <f t="shared" ref="C16:H16" si="1">+C14-C15</f>
+        <v>812</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>832</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
-        <v>122</v>
+        <f t="shared" si="1"/>
+        <v>928</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>767</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>689</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>694</v>
       </c>
       <c r="I16" s="2">
-        <f>+I11-SUM(I12:I15)</f>
-        <v>-590</v>
+        <f>+I14-I15</f>
+        <v>812</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16" si="3">+J11-SUM(J12:J15)</f>
-        <v>0</v>
+        <f t="shared" ref="J16" si="2">+J14-J15</f>
+        <v>631</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1624,20 +1723,32 @@
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>732</v>
+      </c>
+      <c r="D17" s="2">
+        <v>732</v>
+      </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>749</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1310</v>
+      </c>
+      <c r="G17" s="2">
+        <v>697</v>
+      </c>
+      <c r="H17" s="2">
+        <v>732</v>
+      </c>
       <c r="I17" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="J17" s="2">
+        <v>747</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1682,20 +1793,32 @@
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
       <c r="E18" s="2">
-        <v>-2</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2">
-        <v>23</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1740,38 +1863,30 @@
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:H19" si="4">+C16-SUM(C17:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="4"/>
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>+I16-SUM(I17:I18)</f>
-        <v>-605</v>
+        <v>675</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" ref="J19" si="5">+J16-SUM(J17:J18)</f>
         <v>0</v>
       </c>
       <c r="K19" s="2"/>
@@ -1818,20 +1933,32 @@
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
       <c r="E20" s="2">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="2">
-        <v>-59</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1876,39 +2003,39 @@
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:H21" si="6">+C19-C20</f>
-        <v>0</v>
+        <f t="shared" ref="C21:H21" si="3">+C16-SUM(C17:C20)</f>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>122</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-543</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-8</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-38</v>
       </c>
       <c r="I21" s="2">
-        <f>+I19-I20</f>
-        <v>-546</v>
+        <f>+I16-SUM(I17:I20)</f>
+        <v>-590</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ref="J21" si="7">+J19-J20</f>
-        <v>0</v>
+        <f t="shared" ref="J21" si="4">+J16-SUM(J17:J20)</f>
+        <v>-116</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1954,20 +2081,32 @@
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-6</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-10</v>
+      </c>
       <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>-8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-15</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2012,39 +2151,33 @@
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:H23" si="8">+C21-C22</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="8"/>
-        <v>105</v>
+        <v>-2</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>21-1</f>
+        <v>20</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="I23" s="2">
-        <f>+I21-I22</f>
-        <v>-547</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" ref="J23" si="9">+J21-J22</f>
-        <v>0</v>
+        <f>8-7</f>
+        <v>1</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2089,14 +2222,41 @@
       <c r="AY23" s="2"/>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:H24" si="5">+C21-SUM(C22:C23)</f>
+        <v>50</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="5"/>
+        <v>-557</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+      <c r="I24" s="2">
+        <f>+I21-SUM(I22:I23)</f>
+        <v>-605</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ref="J24" si="6">+J21-SUM(J22:J23)</f>
+        <v>-102</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2141,39 +2301,31 @@
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="18" t="e">
-        <f t="shared" ref="C25:H25" si="10">+C23/C26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="18">
-        <f t="shared" si="10"/>
-        <v>0.89900814742829471</v>
-      </c>
-      <c r="F25" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="18">
-        <f>+I23/I26</f>
-        <v>-4.6143303080704063</v>
-      </c>
-      <c r="J25" s="18" t="e">
-        <f t="shared" ref="J25" si="11">+J23/J26</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-34</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-59</v>
+      </c>
+      <c r="J25" s="2">
+        <v>542</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2219,20 +2371,40 @@
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:H26" si="7">+C24-C25</f>
+        <v>48</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
       <c r="E26" s="2">
-        <v>116.795382</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>-472</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="7"/>
+        <v>-12</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
       <c r="I26" s="2">
-        <v>118.543746</v>
-      </c>
-      <c r="J26" s="2"/>
+        <f>+I24-I25</f>
+        <v>-546</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26" si="8">+J24-J25</f>
+        <v>-644</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2276,14 +2448,33 @@
       <c r="AY26" s="2"/>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2328,27 +2519,39 @@
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="19" t="e">
-        <f t="shared" ref="G28:H34" si="12">+G3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="19">
-        <f>+I3/E3-1</f>
-        <v>-0.1055753262158956</v>
-      </c>
-      <c r="J28" s="19" t="e">
-        <f>+J3/F3-1</f>
-        <v>#DIV/0!</v>
+        <v>41</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:H28" si="9">+C26-C27</f>
+        <v>48</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="9"/>
+        <v>-472</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="9"/>
+        <v>-14</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="2">
+        <f>+I26-I27</f>
+        <v>-547</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="J28" si="10">+J26-J27</f>
+        <v>-645</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2393,29 +2596,14 @@
       <c r="AY28" s="2"/>
     </row>
     <row r="29" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="19">
-        <f t="shared" ref="I29:J34" si="13">+I4/E4-1</f>
-        <v>-9.3085106382978733E-2</v>
-      </c>
-      <c r="J29" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2460,27 +2648,39 @@
     </row>
     <row r="30" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" si="13"/>
-        <v>-0.20192307692307687</v>
-      </c>
-      <c r="J30" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" ref="C30:H30" si="11">+C28/C31</f>
+        <v>0.40874739522529058</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="11"/>
+        <v>0.77137988633803078</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="11"/>
+        <v>0.89900814742829471</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="11"/>
+        <v>-4.0288050341489452</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="11"/>
+        <v>-7.889978443564466E-2</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="11"/>
+        <v>0.20258742635060734</v>
+      </c>
+      <c r="I30" s="18">
+        <f>+I28/I31</f>
+        <v>-4.6143303080704063</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" ref="J30" si="12">+J28/J31</f>
+        <v>-5.4396435911784842</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2526,27 +2726,31 @@
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="19">
-        <f t="shared" si="13"/>
-        <v>-0.14977973568281944</v>
-      </c>
-      <c r="J31" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>117.43194099999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>116.67403</v>
+      </c>
+      <c r="E31" s="2">
+        <v>116.795382</v>
+      </c>
+      <c r="F31" s="2">
+        <v>117.156327</v>
+      </c>
+      <c r="G31" s="2">
+        <v>177.440282</v>
+      </c>
+      <c r="H31" s="2">
+        <v>118.467372</v>
+      </c>
+      <c r="I31" s="2">
+        <v>118.543746</v>
+      </c>
+      <c r="J31" s="2">
+        <v>118.57394499999999</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2591,29 +2795,14 @@
       <c r="AY31" s="2"/>
     </row>
     <row r="32" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="19">
-        <f t="shared" si="13"/>
-        <v>-4.216867469879515E-2</v>
-      </c>
-      <c r="J32" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2658,27 +2847,27 @@
     </row>
     <row r="33" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="G33" s="19">
+        <f t="shared" ref="G33:I33" si="13">+G6/C6-1</f>
+        <v>-3.2258064516129004E-2</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="13"/>
+        <v>-4.0977147360126032E-2</v>
       </c>
       <c r="I33" s="19">
         <f t="shared" si="13"/>
-        <v>-0.120889748549323</v>
-      </c>
-      <c r="J33" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>-5.1181102362204745E-2</v>
+      </c>
+      <c r="J33" s="19">
+        <f>+J6/F6-1</f>
+        <v>-6.5375302663438273E-2</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2724,27 +2913,27 @@
     </row>
     <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="G34" s="19">
+        <f t="shared" ref="G34:H40" si="14">+G8/C8-1</f>
+        <v>-9.3354430379746889E-2</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.14347826086956517</v>
       </c>
       <c r="I34" s="19">
-        <f t="shared" si="13"/>
-        <v>-0.11632796075683249</v>
-      </c>
-      <c r="J34" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <f>+I8/E8-1</f>
+        <v>-0.1055753262158956</v>
+      </c>
+      <c r="J34" s="19">
+        <f>+J8/F8-1</f>
+        <v>-0.13292117465224107</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2790,39 +2979,27 @@
     </row>
     <row r="35" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="19" t="e">
-        <f t="shared" ref="C35:H35" si="14">+C11/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="19" t="e">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="19">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="19">
+        <v>-0.18010752688172038</v>
+      </c>
+      <c r="H35" s="19">
         <f t="shared" si="14"/>
-        <v>0.65031534688156978</v>
-      </c>
-      <c r="F35" s="19" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="19" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="19" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-0.13216957605985036</v>
       </c>
       <c r="I35" s="19">
-        <f>+I11/I9</f>
-        <v>0.64393338620142748</v>
-      </c>
-      <c r="J35" s="19" t="e">
-        <f>+J11/J9</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="I35:J40" si="15">+I9/E9-1</f>
+        <v>-9.3085106382978733E-2</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="15"/>
+        <v>-0.14204545454545459</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2868,39 +3045,27 @@
     </row>
     <row r="36" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="19" t="e">
-        <f t="shared" ref="C36:H36" si="15">+C16/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="19" t="e">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="I36" s="19">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="19">
+        <v>-0.20192307692307687</v>
+      </c>
+      <c r="J36" s="19">
         <f t="shared" si="15"/>
-        <v>8.5494043447792573E-2</v>
-      </c>
-      <c r="F36" s="19" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="19" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="19" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="19">
-        <f>+I16/I9</f>
-        <v>-0.46788263283108644</v>
-      </c>
-      <c r="J36" s="19" t="e">
-        <f>+J16/J9</f>
-        <v>#DIV/0!</v>
+        <v>-0.2321428571428571</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2946,39 +3111,27 @@
     </row>
     <row r="37" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="19" t="e">
-        <f t="shared" ref="C37:H37" si="16">+C20/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="19">
-        <f t="shared" si="16"/>
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="F37" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>53</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.15444015444015446</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.28214285714285714</v>
       </c>
       <c r="I37" s="19">
-        <f>+I20/I19</f>
-        <v>9.7520661157024791E-2</v>
-      </c>
-      <c r="J37" s="19" t="e">
-        <f>+J20/J19</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="15"/>
+        <v>-0.14977973568281944</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="15"/>
+        <v>-0.21212121212121215</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3023,14 +3176,29 @@
       <c r="AY37" s="2"/>
     </row>
     <row r="38" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="G38" s="19">
+        <f t="shared" si="14"/>
+        <v>-5.4644808743169349E-2</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="14"/>
+        <v>6.0606060606060552E-2</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="15"/>
+        <v>-4.216867469879515E-2</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" si="15"/>
+        <v>-2.9197080291970767E-2</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3074,14 +3242,29 @@
       <c r="AY38" s="2"/>
     </row>
     <row r="39" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="G39" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.14231257941550191</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="14"/>
+        <v>-0.16040955631399323</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="15"/>
+        <v>-0.120889748549323</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="15"/>
+        <v>-0.15571776155717765</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3125,14 +3308,29 @@
       <c r="AY39" s="2"/>
     </row>
     <row r="40" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="20">
+        <f t="shared" si="14"/>
+        <v>-0.13181448331977219</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="14"/>
+        <v>-0.16421378776142526</v>
+      </c>
+      <c r="I40" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.11632796075683249</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.1537203597710548</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3176,14 +3374,41 @@
       <c r="AY40" s="2"/>
     </row>
     <row r="41" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="19">
+        <f t="shared" ref="C41:H41" si="16">+C16/C14</f>
+        <v>0.66069975589910501</v>
+      </c>
+      <c r="D41" s="19">
+        <f t="shared" si="16"/>
+        <v>0.64446165762974439</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="16"/>
+        <v>0.65031534688156978</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="16"/>
+        <v>0.62714636140637781</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="16"/>
+        <v>0.64573570759137766</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="16"/>
+        <v>0.64318813716404077</v>
+      </c>
+      <c r="I41" s="19">
+        <f>+I16/I14</f>
+        <v>0.64393338620142748</v>
+      </c>
+      <c r="J41" s="19">
+        <f>+J16/J14</f>
+        <v>0.60966183574879229</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3227,14 +3452,41 @@
       <c r="AY41" s="2"/>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="19">
+        <f t="shared" ref="C42:H42" si="17">+C21/C14</f>
+        <v>6.5093572009764039E-2</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" si="17"/>
+        <v>7.745933384972889E-2</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="17"/>
+        <v>8.5494043447792573E-2</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="17"/>
+        <v>-0.4439901880621423</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" si="17"/>
+        <v>-7.4976569821930648E-3</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="17"/>
+        <v>-3.5217794253938832E-2</v>
+      </c>
+      <c r="I42" s="19">
+        <f>+I21/I14</f>
+        <v>-0.46788263283108644</v>
+      </c>
+      <c r="J42" s="19">
+        <f>+J21/J14</f>
+        <v>-0.11207729468599034</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3278,14 +3530,41 @@
       <c r="AY42" s="2"/>
     </row>
     <row r="43" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="19">
+        <f t="shared" ref="C43:H43" si="18">+C25/C24</f>
+        <v>0.04</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" si="18"/>
+        <v>0.10891089108910891</v>
+      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="18"/>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="18"/>
+        <v>0.15260323159784561</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="18"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="18"/>
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="I43" s="19">
+        <f>+I25/I24</f>
+        <v>9.7520661157024791E-2</v>
+      </c>
+      <c r="J43" s="19">
+        <f>+J25/J24</f>
+        <v>-5.3137254901960782</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -26686,6 +26965,312 @@
       <c r="AX501" s="2"/>
       <c r="AY501" s="2"/>
     </row>
+    <row r="502" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="2"/>
+      <c r="F502" s="2"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
+      <c r="I502" s="2"/>
+      <c r="J502" s="2"/>
+      <c r="K502" s="2"/>
+      <c r="L502" s="2"/>
+      <c r="M502" s="2"/>
+      <c r="N502" s="2"/>
+      <c r="O502" s="2"/>
+      <c r="P502" s="2"/>
+      <c r="Q502" s="2"/>
+      <c r="R502" s="2"/>
+      <c r="S502" s="2"/>
+      <c r="T502" s="2"/>
+      <c r="U502" s="2"/>
+      <c r="V502" s="2"/>
+      <c r="W502" s="2"/>
+      <c r="X502" s="2"/>
+      <c r="Y502" s="2"/>
+      <c r="Z502" s="2"/>
+      <c r="AA502" s="2"/>
+      <c r="AB502" s="2"/>
+      <c r="AC502" s="2"/>
+      <c r="AD502" s="2"/>
+      <c r="AE502" s="2"/>
+      <c r="AF502" s="2"/>
+      <c r="AG502" s="2"/>
+      <c r="AH502" s="2"/>
+      <c r="AI502" s="2"/>
+      <c r="AJ502" s="2"/>
+      <c r="AK502" s="2"/>
+      <c r="AL502" s="2"/>
+      <c r="AM502" s="2"/>
+      <c r="AN502" s="2"/>
+      <c r="AO502" s="2"/>
+      <c r="AP502" s="2"/>
+      <c r="AQ502" s="2"/>
+      <c r="AR502" s="2"/>
+      <c r="AS502" s="2"/>
+      <c r="AT502" s="2"/>
+      <c r="AU502" s="2"/>
+      <c r="AV502" s="2"/>
+      <c r="AW502" s="2"/>
+      <c r="AX502" s="2"/>
+      <c r="AY502" s="2"/>
+    </row>
+    <row r="503" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2"/>
+      <c r="F503" s="2"/>
+      <c r="G503" s="2"/>
+      <c r="H503" s="2"/>
+      <c r="I503" s="2"/>
+      <c r="J503" s="2"/>
+      <c r="K503" s="2"/>
+      <c r="L503" s="2"/>
+      <c r="M503" s="2"/>
+      <c r="N503" s="2"/>
+      <c r="O503" s="2"/>
+      <c r="P503" s="2"/>
+      <c r="Q503" s="2"/>
+      <c r="R503" s="2"/>
+      <c r="S503" s="2"/>
+      <c r="T503" s="2"/>
+      <c r="U503" s="2"/>
+      <c r="V503" s="2"/>
+      <c r="W503" s="2"/>
+      <c r="X503" s="2"/>
+      <c r="Y503" s="2"/>
+      <c r="Z503" s="2"/>
+      <c r="AA503" s="2"/>
+      <c r="AB503" s="2"/>
+      <c r="AC503" s="2"/>
+      <c r="AD503" s="2"/>
+      <c r="AE503" s="2"/>
+      <c r="AF503" s="2"/>
+      <c r="AG503" s="2"/>
+      <c r="AH503" s="2"/>
+      <c r="AI503" s="2"/>
+      <c r="AJ503" s="2"/>
+      <c r="AK503" s="2"/>
+      <c r="AL503" s="2"/>
+      <c r="AM503" s="2"/>
+      <c r="AN503" s="2"/>
+      <c r="AO503" s="2"/>
+      <c r="AP503" s="2"/>
+      <c r="AQ503" s="2"/>
+      <c r="AR503" s="2"/>
+      <c r="AS503" s="2"/>
+      <c r="AT503" s="2"/>
+      <c r="AU503" s="2"/>
+      <c r="AV503" s="2"/>
+      <c r="AW503" s="2"/>
+      <c r="AX503" s="2"/>
+      <c r="AY503" s="2"/>
+    </row>
+    <row r="504" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+      <c r="E504" s="2"/>
+      <c r="F504" s="2"/>
+      <c r="G504" s="2"/>
+      <c r="H504" s="2"/>
+      <c r="I504" s="2"/>
+      <c r="J504" s="2"/>
+      <c r="K504" s="2"/>
+      <c r="L504" s="2"/>
+      <c r="M504" s="2"/>
+      <c r="N504" s="2"/>
+      <c r="O504" s="2"/>
+      <c r="P504" s="2"/>
+      <c r="Q504" s="2"/>
+      <c r="R504" s="2"/>
+      <c r="S504" s="2"/>
+      <c r="T504" s="2"/>
+      <c r="U504" s="2"/>
+      <c r="V504" s="2"/>
+      <c r="W504" s="2"/>
+      <c r="X504" s="2"/>
+      <c r="Y504" s="2"/>
+      <c r="Z504" s="2"/>
+      <c r="AA504" s="2"/>
+      <c r="AB504" s="2"/>
+      <c r="AC504" s="2"/>
+      <c r="AD504" s="2"/>
+      <c r="AE504" s="2"/>
+      <c r="AF504" s="2"/>
+      <c r="AG504" s="2"/>
+      <c r="AH504" s="2"/>
+      <c r="AI504" s="2"/>
+      <c r="AJ504" s="2"/>
+      <c r="AK504" s="2"/>
+      <c r="AL504" s="2"/>
+      <c r="AM504" s="2"/>
+      <c r="AN504" s="2"/>
+      <c r="AO504" s="2"/>
+      <c r="AP504" s="2"/>
+      <c r="AQ504" s="2"/>
+      <c r="AR504" s="2"/>
+      <c r="AS504" s="2"/>
+      <c r="AT504" s="2"/>
+      <c r="AU504" s="2"/>
+      <c r="AV504" s="2"/>
+      <c r="AW504" s="2"/>
+      <c r="AX504" s="2"/>
+      <c r="AY504" s="2"/>
+    </row>
+    <row r="505" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2"/>
+      <c r="K505" s="2"/>
+      <c r="L505" s="2"/>
+      <c r="M505" s="2"/>
+      <c r="N505" s="2"/>
+      <c r="O505" s="2"/>
+      <c r="P505" s="2"/>
+      <c r="Q505" s="2"/>
+      <c r="R505" s="2"/>
+      <c r="S505" s="2"/>
+      <c r="T505" s="2"/>
+      <c r="U505" s="2"/>
+      <c r="V505" s="2"/>
+      <c r="W505" s="2"/>
+      <c r="X505" s="2"/>
+      <c r="Y505" s="2"/>
+      <c r="Z505" s="2"/>
+      <c r="AA505" s="2"/>
+      <c r="AB505" s="2"/>
+      <c r="AC505" s="2"/>
+      <c r="AD505" s="2"/>
+      <c r="AE505" s="2"/>
+      <c r="AF505" s="2"/>
+      <c r="AG505" s="2"/>
+      <c r="AH505" s="2"/>
+      <c r="AI505" s="2"/>
+      <c r="AJ505" s="2"/>
+      <c r="AK505" s="2"/>
+      <c r="AL505" s="2"/>
+      <c r="AM505" s="2"/>
+      <c r="AN505" s="2"/>
+      <c r="AO505" s="2"/>
+      <c r="AP505" s="2"/>
+      <c r="AQ505" s="2"/>
+      <c r="AR505" s="2"/>
+      <c r="AS505" s="2"/>
+      <c r="AT505" s="2"/>
+      <c r="AU505" s="2"/>
+      <c r="AV505" s="2"/>
+      <c r="AW505" s="2"/>
+      <c r="AX505" s="2"/>
+      <c r="AY505" s="2"/>
+    </row>
+    <row r="506" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
+      <c r="G506" s="2"/>
+      <c r="H506" s="2"/>
+      <c r="I506" s="2"/>
+      <c r="J506" s="2"/>
+      <c r="K506" s="2"/>
+      <c r="L506" s="2"/>
+      <c r="M506" s="2"/>
+      <c r="N506" s="2"/>
+      <c r="O506" s="2"/>
+      <c r="P506" s="2"/>
+      <c r="Q506" s="2"/>
+      <c r="R506" s="2"/>
+      <c r="S506" s="2"/>
+      <c r="T506" s="2"/>
+      <c r="U506" s="2"/>
+      <c r="V506" s="2"/>
+      <c r="W506" s="2"/>
+      <c r="X506" s="2"/>
+      <c r="Y506" s="2"/>
+      <c r="Z506" s="2"/>
+      <c r="AA506" s="2"/>
+      <c r="AB506" s="2"/>
+      <c r="AC506" s="2"/>
+      <c r="AD506" s="2"/>
+      <c r="AE506" s="2"/>
+      <c r="AF506" s="2"/>
+      <c r="AG506" s="2"/>
+      <c r="AH506" s="2"/>
+      <c r="AI506" s="2"/>
+      <c r="AJ506" s="2"/>
+      <c r="AK506" s="2"/>
+      <c r="AL506" s="2"/>
+      <c r="AM506" s="2"/>
+      <c r="AN506" s="2"/>
+      <c r="AO506" s="2"/>
+      <c r="AP506" s="2"/>
+      <c r="AQ506" s="2"/>
+      <c r="AR506" s="2"/>
+      <c r="AS506" s="2"/>
+      <c r="AT506" s="2"/>
+      <c r="AU506" s="2"/>
+      <c r="AV506" s="2"/>
+      <c r="AW506" s="2"/>
+      <c r="AX506" s="2"/>
+      <c r="AY506" s="2"/>
+    </row>
+    <row r="507" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+      <c r="I507" s="2"/>
+      <c r="J507" s="2"/>
+      <c r="K507" s="2"/>
+      <c r="L507" s="2"/>
+      <c r="M507" s="2"/>
+      <c r="N507" s="2"/>
+      <c r="O507" s="2"/>
+      <c r="P507" s="2"/>
+      <c r="Q507" s="2"/>
+      <c r="R507" s="2"/>
+      <c r="S507" s="2"/>
+      <c r="T507" s="2"/>
+      <c r="U507" s="2"/>
+      <c r="V507" s="2"/>
+      <c r="W507" s="2"/>
+      <c r="X507" s="2"/>
+      <c r="Y507" s="2"/>
+      <c r="Z507" s="2"/>
+      <c r="AA507" s="2"/>
+      <c r="AB507" s="2"/>
+      <c r="AC507" s="2"/>
+      <c r="AD507" s="2"/>
+      <c r="AE507" s="2"/>
+      <c r="AF507" s="2"/>
+      <c r="AG507" s="2"/>
+      <c r="AH507" s="2"/>
+      <c r="AI507" s="2"/>
+      <c r="AJ507" s="2"/>
+      <c r="AK507" s="2"/>
+      <c r="AL507" s="2"/>
+      <c r="AM507" s="2"/>
+      <c r="AN507" s="2"/>
+      <c r="AO507" s="2"/>
+      <c r="AP507" s="2"/>
+      <c r="AQ507" s="2"/>
+      <c r="AR507" s="2"/>
+      <c r="AS507" s="2"/>
+      <c r="AT507" s="2"/>
+      <c r="AU507" s="2"/>
+      <c r="AV507" s="2"/>
+      <c r="AW507" s="2"/>
+      <c r="AX507" s="2"/>
+      <c r="AY507" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{64F87301-59A7-405B-BCC3-1163F7526217}"/>

--- a/CPRI.xlsx
+++ b/CPRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D5D978-D5A8-4273-8E4A-4DE233EE9092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D820024-CDDD-4AFA-8FD6-CB2A80445868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{973D8E1F-BCD0-4D20-A01B-2C85341BD8AE}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{973D8E1F-BCD0-4D20-A01B-2C85341BD8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A0717645-D1AF-468B-8510-1BAD8A122BB4}</author>
+  </authors>
+  <commentList>
+    <comment ref="K40" authorId="0" shapeId="0" xr:uid="{A0717645-D1AF-468B-8510-1BAD8A122BB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only -6% excluding the devestiture of Versace</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>CPRI</t>
   </si>
@@ -121,9 +139,6 @@
   </si>
   <si>
     <t>Q425</t>
-  </si>
-  <si>
-    <t>FQ325</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -257,6 +272,21 @@
   <si>
     <t>Total Stores</t>
   </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
@@ -266,13 +296,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -323,6 +359,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,40 +503,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,6 +557,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oscar Settje" id="{AFB1407E-778A-419C-957C-A69B47F6A8E2}" userId="7ff36870b9739543" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,12 +880,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K40" dT="2025-09-28T14:32:09.82" personId="{AFB1407E-778A-419C-957C-A69B47F6A8E2}" id="{A0717645-D1AF-468B-8510-1BAD8A122BB4}">
+    <text>Only -6% excluding the devestiture of Versace</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E9A75-F7B8-420C-94DA-50E72863FCB7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -860,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>17.25</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -868,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>118.57394499999999</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
+        <v>119.048057</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -883,7 +942,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I3*I2</f>
-        <v>2045.4005512499998</v>
+        <v>2341.6752811900001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -894,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>166</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -905,11 +964,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f>1476+24</f>
-        <v>1500</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>28</v>
+        <f>1650+21</f>
+        <v>1671</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -921,7 +980,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>3379.4005512499998</v>
+        <v>3883.6752811900001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -969,7 +1028,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -981,14 +1040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9A6A24-F024-46A6-A828-07BAB9CA3100}">
-  <dimension ref="A1:AY507"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9A6A24-F024-46A6-A828-07BAB9CA3100}">
+  <dimension ref="A1:BC507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -998,12 +1057,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1028,28 +1087,40 @@
       <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="18">
         <v>224</v>
@@ -1075,17 +1146,19 @@
       <c r="J3" s="18">
         <v>228</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1100,10 +1173,14 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="18">
         <v>237</v>
@@ -1129,17 +1206,20 @@
       <c r="J4" s="18">
         <v>219</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="18">
+        <f>161+56</f>
+        <v>217</v>
+      </c>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -1154,10 +1234,14 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="18">
         <v>810</v>
@@ -1183,17 +1267,20 @@
       <c r="J5" s="18">
         <v>711</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="18">
+        <f>384+311</f>
+        <v>695</v>
+      </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1208,10 +1295,14 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" ref="C6:H6" si="0">+SUM(C3:C5)</f>
@@ -1245,33 +1336,40 @@
         <f>+SUM(J3:J5)</f>
         <v>1158</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="19">
+        <f>+SUM(K3:K5)</f>
+        <v>912</v>
+      </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1280,16 +1378,20 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <f>82+49+501</f>
@@ -1319,10 +1421,16 @@
       <c r="J8" s="4">
         <v>561</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="K8" s="4">
+        <v>459</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4">
         <f>116+81+175</f>
@@ -1352,10 +1460,16 @@
       <c r="J9" s="4">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="K9" s="4">
+        <v>229</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4">
         <f>61+53+111</f>
@@ -1385,10 +1499,16 @@
       <c r="J10" s="4">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="K10" s="24">
+        <v>110</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4">
         <v>259</v>
@@ -1414,10 +1534,16 @@
       <c r="J11" s="4">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4">
         <v>183</v>
@@ -1443,10 +1569,16 @@
       <c r="J12" s="4">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="K12" s="4">
+        <v>162</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3">
         <v>787</v>
@@ -1472,7 +1604,9 @@
       <c r="J13" s="3">
         <v>694</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>635</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1513,10 +1647,14 @@
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="20">
         <v>1229</v>
@@ -1542,11 +1680,13 @@
       <c r="J14" s="20">
         <v>1035</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="K14" s="20">
+        <v>797</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1583,10 +1723,14 @@
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>417</v>
@@ -1612,7 +1756,9 @@
       <c r="J15" s="3">
         <v>404</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>295</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1653,10 +1799,14 @@
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
       <c r="AY15" s="3"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:H16" si="1">+C14-C15</f>
@@ -1687,10 +1837,13 @@
         <v>812</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16" si="2">+J14-J15</f>
+        <f t="shared" ref="J16:K16" si="2">+J14-J15</f>
         <v>631</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>502</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1731,10 +1884,14 @@
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
-    </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+    </row>
+    <row r="17" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>732</v>
@@ -1760,7 +1917,9 @@
       <c r="J17" s="3">
         <v>747</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>455</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1801,10 +1960,14 @@
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
-    </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+    </row>
+    <row r="18" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1830,7 +1993,9 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>30</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1871,10 +2036,14 @@
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
-    </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+    </row>
+    <row r="19" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1900,7 +2069,9 @@
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1941,10 +2112,14 @@
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
-    </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+    </row>
+    <row r="20" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1970,7 +2145,9 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2011,10 +2188,14 @@
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
-    </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+    </row>
+    <row r="21" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:H21" si="3">+C16-SUM(C17:C20)</f>
@@ -2045,10 +2226,13 @@
         <v>-590</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21" si="4">+J16-SUM(J17:J20)</f>
+        <f t="shared" ref="J21:K21" si="4">+J16-SUM(J17:J20)</f>
         <v>-116</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2089,10 +2273,14 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-    </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+    </row>
+    <row r="22" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
@@ -2118,7 +2306,9 @@
       <c r="J22" s="3">
         <v>-15</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>-18</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2159,10 +2349,14 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
-    </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+    </row>
+    <row r="23" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -2190,7 +2384,10 @@
         <f>8-7</f>
         <v>1</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <f>-5-1</f>
+        <v>-6</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2231,10 +2428,14 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-    </row>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+    </row>
+    <row r="24" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ref="C24:H24" si="5">+C21-SUM(C22:C23)</f>
@@ -2265,10 +2466,13 @@
         <v>-605</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24" si="6">+J21-SUM(J22:J23)</f>
+        <f t="shared" ref="J24:K24" si="6">+J21-SUM(J22:J23)</f>
         <v>-102</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2309,10 +2513,14 @@
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
-    </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+    </row>
+    <row r="25" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -2338,7 +2546,9 @@
       <c r="J25" s="3">
         <v>542</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>-16</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2379,10 +2589,14 @@
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-    </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+    </row>
+    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ref="C26:H26" si="7">+C24-C25</f>
@@ -2413,10 +2627,13 @@
         <v>-546</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26" si="8">+J24-J25</f>
+        <f t="shared" ref="J26:K26" si="8">+J24-J25</f>
         <v>-644</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2457,10 +2674,14 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
-    </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+    </row>
+    <row r="27" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -2486,7 +2707,9 @@
       <c r="J27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -2527,10 +2750,14 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+    </row>
+    <row r="28" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ref="C28:H28" si="9">+C26-C27</f>
@@ -2561,10 +2788,13 @@
         <v>-547</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28" si="10">+J26-J27</f>
+        <f t="shared" ref="J28:K28" si="10">+J26-J27</f>
         <v>-645</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2605,8 +2835,12 @@
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
-    </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+    </row>
+    <row r="29" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2656,10 +2890,14 @@
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
       <c r="AY29" s="3"/>
-    </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+    </row>
+    <row r="30" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" ref="C30:H30" si="11">+C28/C31</f>
@@ -2690,13 +2928,16 @@
         <v>-4.6143303080704063</v>
       </c>
       <c r="J30" s="21">
-        <f t="shared" ref="J30" si="12">+J28/J31</f>
+        <f t="shared" ref="J30:K30" si="12">+J28/J31</f>
         <v>-5.4396435911784842</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="21">
+        <f t="shared" si="12"/>
+        <v>0.28072060810609145</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2734,8 +2975,12 @@
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
       <c r="AY30" s="3"/>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+    </row>
+    <row r="31" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
@@ -2763,7 +3008,9 @@
       <c r="J31" s="3">
         <v>118.57394499999999</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3">
+        <v>188.79981900000001</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2804,8 +3051,12 @@
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
       <c r="AY31" s="3"/>
-    </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+    </row>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2855,10 +3106,14 @@
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
       <c r="AY32" s="3"/>
-    </row>
-    <row r="33" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+    </row>
+    <row r="33" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2880,10 +3135,13 @@
         <f>+J6/F6-1</f>
         <v>-6.5375302663438273E-2</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="22">
+        <f>+K6/G6-1</f>
+        <v>-0.25853658536585367</v>
+      </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2921,10 +3179,14 @@
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
       <c r="AY33" s="3"/>
-    </row>
-    <row r="34" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+    </row>
+    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2946,10 +3208,13 @@
         <f>+J8/F8-1</f>
         <v>-0.13292117465224107</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="K34" s="22">
+        <f>+K8/G8-1</f>
+        <v>-0.19895287958115182</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2987,10 +3252,14 @@
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
       <c r="AY34" s="3"/>
-    </row>
-    <row r="35" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+    </row>
+    <row r="35" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3005,17 +3274,20 @@
         <v>-0.13216957605985036</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" ref="I35:J40" si="15">+I9/E9-1</f>
+        <f t="shared" ref="I35:K40" si="15">+I9/E9-1</f>
         <v>-9.3085106382978733E-2</v>
       </c>
       <c r="J35" s="22">
         <f t="shared" si="15"/>
         <v>-0.14204545454545459</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="K35" s="22">
+        <f t="shared" si="15"/>
+        <v>-0.24918032786885247</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -3053,10 +3325,14 @@
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
       <c r="AY35" s="3"/>
-    </row>
-    <row r="36" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+    </row>
+    <row r="36" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3078,10 +3354,13 @@
         <f t="shared" si="15"/>
         <v>-0.2321428571428571</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="K36" s="22">
+        <f t="shared" si="15"/>
+        <v>-0.41798941798941802</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -3119,10 +3398,14 @@
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
-    </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+    </row>
+    <row r="37" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3144,10 +3427,13 @@
         <f t="shared" si="15"/>
         <v>-0.21212121212121215</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="K37" s="22">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -3185,10 +3471,14 @@
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
       <c r="AY37" s="3"/>
-    </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+    </row>
+    <row r="38" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3210,10 +3500,13 @@
         <f t="shared" si="15"/>
         <v>-2.9197080291970767E-2</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="K38" s="22">
+        <f t="shared" si="15"/>
+        <v>-6.3583815028901758E-2</v>
+      </c>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3251,10 +3544,14 @@
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
       <c r="AY38" s="3"/>
-    </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+    </row>
+    <row r="39" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3276,10 +3573,13 @@
         <f t="shared" si="15"/>
         <v>-0.15571776155717765</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="K39" s="22">
+        <f t="shared" si="15"/>
+        <v>-5.9259259259259234E-2</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -3317,10 +3617,14 @@
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
-    </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+    </row>
+    <row r="40" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -3342,10 +3646,13 @@
         <f t="shared" si="15"/>
         <v>-0.1537203597710548</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="K40" s="23">
+        <f t="shared" si="15"/>
+        <v>-0.25304592314901597</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -3383,10 +3690,14 @@
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
-    </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+    </row>
+    <row r="41" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="22">
         <f t="shared" ref="C41:H41" si="16">+C16/C14</f>
@@ -3420,10 +3731,13 @@
         <f>+J16/J14</f>
         <v>0.60966183574879229</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="K41" s="22">
+        <f>+K16/K14</f>
+        <v>0.62986198243412794</v>
+      </c>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -3461,10 +3775,14 @@
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
-    </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+    </row>
+    <row r="42" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="22">
         <f t="shared" ref="C42:H42" si="17">+C21/C14</f>
@@ -3498,10 +3816,13 @@
         <f>+J21/J14</f>
         <v>-0.11207729468599034</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="K42" s="22">
+        <f>+K21/K14</f>
+        <v>2.0075282308657464E-2</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3539,10 +3860,14 @@
       <c r="AW42" s="3"/>
       <c r="AX42" s="3"/>
       <c r="AY42" s="3"/>
-    </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+    </row>
+    <row r="43" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="22">
         <f t="shared" ref="C43:H43" si="18">+C25/C24</f>
@@ -3576,10 +3901,13 @@
         <f>+J25/J24</f>
         <v>-5.3137254901960782</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="K43" s="22">
+        <f>+K25/K24</f>
+        <v>-0.4</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3617,8 +3945,12 @@
       <c r="AW43" s="3"/>
       <c r="AX43" s="3"/>
       <c r="AY43" s="3"/>
-    </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+    </row>
+    <row r="44" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3668,8 +4000,12 @@
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
       <c r="AY44" s="3"/>
-    </row>
-    <row r="45" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+    </row>
+    <row r="45" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3719,8 +4055,12 @@
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
       <c r="AY45" s="3"/>
-    </row>
-    <row r="46" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+    </row>
+    <row r="46" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3729,7 +4069,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -3770,8 +4110,12 @@
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
       <c r="AY46" s="3"/>
-    </row>
-    <row r="47" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+    </row>
+    <row r="47" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3821,8 +4165,12 @@
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
       <c r="AY47" s="3"/>
-    </row>
-    <row r="48" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+    </row>
+    <row r="48" spans="2:55" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3872,8 +4220,12 @@
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
-    </row>
-    <row r="49" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+    </row>
+    <row r="49" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3923,8 +4275,12 @@
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
-    </row>
-    <row r="50" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+    </row>
+    <row r="50" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3974,8 +4330,12 @@
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
       <c r="AY50" s="3"/>
-    </row>
-    <row r="51" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+    </row>
+    <row r="51" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4025,8 +4385,12 @@
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
       <c r="AY51" s="3"/>
-    </row>
-    <row r="52" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+    </row>
+    <row r="52" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4076,8 +4440,12 @@
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
       <c r="AY52" s="3"/>
-    </row>
-    <row r="53" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+    </row>
+    <row r="53" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4127,8 +4495,12 @@
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
       <c r="AY53" s="3"/>
-    </row>
-    <row r="54" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+    </row>
+    <row r="54" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4178,8 +4550,12 @@
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
       <c r="AY54" s="3"/>
-    </row>
-    <row r="55" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+    </row>
+    <row r="55" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4229,8 +4605,12 @@
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
       <c r="AY55" s="3"/>
-    </row>
-    <row r="56" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+      <c r="BC55" s="3"/>
+    </row>
+    <row r="56" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4280,8 +4660,12 @@
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
       <c r="AY56" s="3"/>
-    </row>
-    <row r="57" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+      <c r="BC56" s="3"/>
+    </row>
+    <row r="57" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4331,8 +4715,12 @@
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
       <c r="AY57" s="3"/>
-    </row>
-    <row r="58" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="3"/>
+    </row>
+    <row r="58" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4382,8 +4770,12 @@
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
       <c r="AY58" s="3"/>
-    </row>
-    <row r="59" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+      <c r="BC58" s="3"/>
+    </row>
+    <row r="59" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4433,8 +4825,12 @@
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
       <c r="AY59" s="3"/>
-    </row>
-    <row r="60" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+    </row>
+    <row r="60" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4484,8 +4880,12 @@
       <c r="AW60" s="3"/>
       <c r="AX60" s="3"/>
       <c r="AY60" s="3"/>
-    </row>
-    <row r="61" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ60" s="3"/>
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
+      <c r="BC60" s="3"/>
+    </row>
+    <row r="61" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4535,8 +4935,12 @@
       <c r="AW61" s="3"/>
       <c r="AX61" s="3"/>
       <c r="AY61" s="3"/>
-    </row>
-    <row r="62" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ61" s="3"/>
+      <c r="BA61" s="3"/>
+      <c r="BB61" s="3"/>
+      <c r="BC61" s="3"/>
+    </row>
+    <row r="62" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4586,8 +4990,12 @@
       <c r="AW62" s="3"/>
       <c r="AX62" s="3"/>
       <c r="AY62" s="3"/>
-    </row>
-    <row r="63" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ62" s="3"/>
+      <c r="BA62" s="3"/>
+      <c r="BB62" s="3"/>
+      <c r="BC62" s="3"/>
+    </row>
+    <row r="63" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4637,8 +5045,12 @@
       <c r="AW63" s="3"/>
       <c r="AX63" s="3"/>
       <c r="AY63" s="3"/>
-    </row>
-    <row r="64" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BC63" s="3"/>
+    </row>
+    <row r="64" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4688,8 +5100,12 @@
       <c r="AW64" s="3"/>
       <c r="AX64" s="3"/>
       <c r="AY64" s="3"/>
-    </row>
-    <row r="65" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+    </row>
+    <row r="65" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4739,8 +5155,12 @@
       <c r="AW65" s="3"/>
       <c r="AX65" s="3"/>
       <c r="AY65" s="3"/>
-    </row>
-    <row r="66" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ65" s="3"/>
+      <c r="BA65" s="3"/>
+      <c r="BB65" s="3"/>
+      <c r="BC65" s="3"/>
+    </row>
+    <row r="66" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4790,8 +5210,12 @@
       <c r="AW66" s="3"/>
       <c r="AX66" s="3"/>
       <c r="AY66" s="3"/>
-    </row>
-    <row r="67" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ66" s="3"/>
+      <c r="BA66" s="3"/>
+      <c r="BB66" s="3"/>
+      <c r="BC66" s="3"/>
+    </row>
+    <row r="67" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4841,8 +5265,12 @@
       <c r="AW67" s="3"/>
       <c r="AX67" s="3"/>
       <c r="AY67" s="3"/>
-    </row>
-    <row r="68" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ67" s="3"/>
+      <c r="BA67" s="3"/>
+      <c r="BB67" s="3"/>
+      <c r="BC67" s="3"/>
+    </row>
+    <row r="68" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4892,8 +5320,12 @@
       <c r="AW68" s="3"/>
       <c r="AX68" s="3"/>
       <c r="AY68" s="3"/>
-    </row>
-    <row r="69" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ68" s="3"/>
+      <c r="BA68" s="3"/>
+      <c r="BB68" s="3"/>
+      <c r="BC68" s="3"/>
+    </row>
+    <row r="69" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4943,8 +5375,12 @@
       <c r="AW69" s="3"/>
       <c r="AX69" s="3"/>
       <c r="AY69" s="3"/>
-    </row>
-    <row r="70" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ69" s="3"/>
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
+      <c r="BC69" s="3"/>
+    </row>
+    <row r="70" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4994,8 +5430,12 @@
       <c r="AW70" s="3"/>
       <c r="AX70" s="3"/>
       <c r="AY70" s="3"/>
-    </row>
-    <row r="71" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BC70" s="3"/>
+    </row>
+    <row r="71" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5045,8 +5485,12 @@
       <c r="AW71" s="3"/>
       <c r="AX71" s="3"/>
       <c r="AY71" s="3"/>
-    </row>
-    <row r="72" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ71" s="3"/>
+      <c r="BA71" s="3"/>
+      <c r="BB71" s="3"/>
+      <c r="BC71" s="3"/>
+    </row>
+    <row r="72" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5096,8 +5540,12 @@
       <c r="AW72" s="3"/>
       <c r="AX72" s="3"/>
       <c r="AY72" s="3"/>
-    </row>
-    <row r="73" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ72" s="3"/>
+      <c r="BA72" s="3"/>
+      <c r="BB72" s="3"/>
+      <c r="BC72" s="3"/>
+    </row>
+    <row r="73" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5147,8 +5595,12 @@
       <c r="AW73" s="3"/>
       <c r="AX73" s="3"/>
       <c r="AY73" s="3"/>
-    </row>
-    <row r="74" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ73" s="3"/>
+      <c r="BA73" s="3"/>
+      <c r="BB73" s="3"/>
+      <c r="BC73" s="3"/>
+    </row>
+    <row r="74" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5198,8 +5650,12 @@
       <c r="AW74" s="3"/>
       <c r="AX74" s="3"/>
       <c r="AY74" s="3"/>
-    </row>
-    <row r="75" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ74" s="3"/>
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
+      <c r="BC74" s="3"/>
+    </row>
+    <row r="75" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5249,8 +5705,12 @@
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
       <c r="AY75" s="3"/>
-    </row>
-    <row r="76" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ75" s="3"/>
+      <c r="BA75" s="3"/>
+      <c r="BB75" s="3"/>
+      <c r="BC75" s="3"/>
+    </row>
+    <row r="76" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5300,8 +5760,12 @@
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
       <c r="AY76" s="3"/>
-    </row>
-    <row r="77" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ76" s="3"/>
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
+      <c r="BC76" s="3"/>
+    </row>
+    <row r="77" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5351,8 +5815,12 @@
       <c r="AW77" s="3"/>
       <c r="AX77" s="3"/>
       <c r="AY77" s="3"/>
-    </row>
-    <row r="78" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ77" s="3"/>
+      <c r="BA77" s="3"/>
+      <c r="BB77" s="3"/>
+      <c r="BC77" s="3"/>
+    </row>
+    <row r="78" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5402,8 +5870,12 @@
       <c r="AW78" s="3"/>
       <c r="AX78" s="3"/>
       <c r="AY78" s="3"/>
-    </row>
-    <row r="79" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ78" s="3"/>
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
+      <c r="BC78" s="3"/>
+    </row>
+    <row r="79" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5453,8 +5925,12 @@
       <c r="AW79" s="3"/>
       <c r="AX79" s="3"/>
       <c r="AY79" s="3"/>
-    </row>
-    <row r="80" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ79" s="3"/>
+      <c r="BA79" s="3"/>
+      <c r="BB79" s="3"/>
+      <c r="BC79" s="3"/>
+    </row>
+    <row r="80" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5504,8 +5980,12 @@
       <c r="AW80" s="3"/>
       <c r="AX80" s="3"/>
       <c r="AY80" s="3"/>
-    </row>
-    <row r="81" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ80" s="3"/>
+      <c r="BA80" s="3"/>
+      <c r="BB80" s="3"/>
+      <c r="BC80" s="3"/>
+    </row>
+    <row r="81" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5555,8 +6035,12 @@
       <c r="AW81" s="3"/>
       <c r="AX81" s="3"/>
       <c r="AY81" s="3"/>
-    </row>
-    <row r="82" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+    </row>
+    <row r="82" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5606,8 +6090,12 @@
       <c r="AW82" s="3"/>
       <c r="AX82" s="3"/>
       <c r="AY82" s="3"/>
-    </row>
-    <row r="83" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+    </row>
+    <row r="83" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5657,8 +6145,12 @@
       <c r="AW83" s="3"/>
       <c r="AX83" s="3"/>
       <c r="AY83" s="3"/>
-    </row>
-    <row r="84" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+    </row>
+    <row r="84" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5708,8 +6200,12 @@
       <c r="AW84" s="3"/>
       <c r="AX84" s="3"/>
       <c r="AY84" s="3"/>
-    </row>
-    <row r="85" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ84" s="3"/>
+      <c r="BA84" s="3"/>
+      <c r="BB84" s="3"/>
+      <c r="BC84" s="3"/>
+    </row>
+    <row r="85" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5759,8 +6255,12 @@
       <c r="AW85" s="3"/>
       <c r="AX85" s="3"/>
       <c r="AY85" s="3"/>
-    </row>
-    <row r="86" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ85" s="3"/>
+      <c r="BA85" s="3"/>
+      <c r="BB85" s="3"/>
+      <c r="BC85" s="3"/>
+    </row>
+    <row r="86" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5810,8 +6310,12 @@
       <c r="AW86" s="3"/>
       <c r="AX86" s="3"/>
       <c r="AY86" s="3"/>
-    </row>
-    <row r="87" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+    </row>
+    <row r="87" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5861,8 +6365,12 @@
       <c r="AW87" s="3"/>
       <c r="AX87" s="3"/>
       <c r="AY87" s="3"/>
-    </row>
-    <row r="88" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ87" s="3"/>
+      <c r="BA87" s="3"/>
+      <c r="BB87" s="3"/>
+      <c r="BC87" s="3"/>
+    </row>
+    <row r="88" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5912,8 +6420,12 @@
       <c r="AW88" s="3"/>
       <c r="AX88" s="3"/>
       <c r="AY88" s="3"/>
-    </row>
-    <row r="89" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ88" s="3"/>
+      <c r="BA88" s="3"/>
+      <c r="BB88" s="3"/>
+      <c r="BC88" s="3"/>
+    </row>
+    <row r="89" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5963,8 +6475,12 @@
       <c r="AW89" s="3"/>
       <c r="AX89" s="3"/>
       <c r="AY89" s="3"/>
-    </row>
-    <row r="90" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ89" s="3"/>
+      <c r="BA89" s="3"/>
+      <c r="BB89" s="3"/>
+      <c r="BC89" s="3"/>
+    </row>
+    <row r="90" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6014,8 +6530,12 @@
       <c r="AW90" s="3"/>
       <c r="AX90" s="3"/>
       <c r="AY90" s="3"/>
-    </row>
-    <row r="91" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ90" s="3"/>
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
+      <c r="BC90" s="3"/>
+    </row>
+    <row r="91" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6065,8 +6585,12 @@
       <c r="AW91" s="3"/>
       <c r="AX91" s="3"/>
       <c r="AY91" s="3"/>
-    </row>
-    <row r="92" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+    </row>
+    <row r="92" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6116,8 +6640,12 @@
       <c r="AW92" s="3"/>
       <c r="AX92" s="3"/>
       <c r="AY92" s="3"/>
-    </row>
-    <row r="93" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+    </row>
+    <row r="93" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6167,8 +6695,12 @@
       <c r="AW93" s="3"/>
       <c r="AX93" s="3"/>
       <c r="AY93" s="3"/>
-    </row>
-    <row r="94" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ93" s="3"/>
+      <c r="BA93" s="3"/>
+      <c r="BB93" s="3"/>
+      <c r="BC93" s="3"/>
+    </row>
+    <row r="94" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6218,8 +6750,12 @@
       <c r="AW94" s="3"/>
       <c r="AX94" s="3"/>
       <c r="AY94" s="3"/>
-    </row>
-    <row r="95" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ94" s="3"/>
+      <c r="BA94" s="3"/>
+      <c r="BB94" s="3"/>
+      <c r="BC94" s="3"/>
+    </row>
+    <row r="95" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6269,8 +6805,12 @@
       <c r="AW95" s="3"/>
       <c r="AX95" s="3"/>
       <c r="AY95" s="3"/>
-    </row>
-    <row r="96" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ95" s="3"/>
+      <c r="BA95" s="3"/>
+      <c r="BB95" s="3"/>
+      <c r="BC95" s="3"/>
+    </row>
+    <row r="96" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6320,8 +6860,12 @@
       <c r="AW96" s="3"/>
       <c r="AX96" s="3"/>
       <c r="AY96" s="3"/>
-    </row>
-    <row r="97" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+    </row>
+    <row r="97" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6371,8 +6915,12 @@
       <c r="AW97" s="3"/>
       <c r="AX97" s="3"/>
       <c r="AY97" s="3"/>
-    </row>
-    <row r="98" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ97" s="3"/>
+      <c r="BA97" s="3"/>
+      <c r="BB97" s="3"/>
+      <c r="BC97" s="3"/>
+    </row>
+    <row r="98" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6422,8 +6970,12 @@
       <c r="AW98" s="3"/>
       <c r="AX98" s="3"/>
       <c r="AY98" s="3"/>
-    </row>
-    <row r="99" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ98" s="3"/>
+      <c r="BA98" s="3"/>
+      <c r="BB98" s="3"/>
+      <c r="BC98" s="3"/>
+    </row>
+    <row r="99" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6473,8 +7025,12 @@
       <c r="AW99" s="3"/>
       <c r="AX99" s="3"/>
       <c r="AY99" s="3"/>
-    </row>
-    <row r="100" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ99" s="3"/>
+      <c r="BA99" s="3"/>
+      <c r="BB99" s="3"/>
+      <c r="BC99" s="3"/>
+    </row>
+    <row r="100" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6524,8 +7080,12 @@
       <c r="AW100" s="3"/>
       <c r="AX100" s="3"/>
       <c r="AY100" s="3"/>
-    </row>
-    <row r="101" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ100" s="3"/>
+      <c r="BA100" s="3"/>
+      <c r="BB100" s="3"/>
+      <c r="BC100" s="3"/>
+    </row>
+    <row r="101" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6575,8 +7135,12 @@
       <c r="AW101" s="3"/>
       <c r="AX101" s="3"/>
       <c r="AY101" s="3"/>
-    </row>
-    <row r="102" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ101" s="3"/>
+      <c r="BA101" s="3"/>
+      <c r="BB101" s="3"/>
+      <c r="BC101" s="3"/>
+    </row>
+    <row r="102" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6626,8 +7190,12 @@
       <c r="AW102" s="3"/>
       <c r="AX102" s="3"/>
       <c r="AY102" s="3"/>
-    </row>
-    <row r="103" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ102" s="3"/>
+      <c r="BA102" s="3"/>
+      <c r="BB102" s="3"/>
+      <c r="BC102" s="3"/>
+    </row>
+    <row r="103" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6677,8 +7245,12 @@
       <c r="AW103" s="3"/>
       <c r="AX103" s="3"/>
       <c r="AY103" s="3"/>
-    </row>
-    <row r="104" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ103" s="3"/>
+      <c r="BA103" s="3"/>
+      <c r="BB103" s="3"/>
+      <c r="BC103" s="3"/>
+    </row>
+    <row r="104" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6728,8 +7300,12 @@
       <c r="AW104" s="3"/>
       <c r="AX104" s="3"/>
       <c r="AY104" s="3"/>
-    </row>
-    <row r="105" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ104" s="3"/>
+      <c r="BA104" s="3"/>
+      <c r="BB104" s="3"/>
+      <c r="BC104" s="3"/>
+    </row>
+    <row r="105" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -6779,8 +7355,12 @@
       <c r="AW105" s="3"/>
       <c r="AX105" s="3"/>
       <c r="AY105" s="3"/>
-    </row>
-    <row r="106" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ105" s="3"/>
+      <c r="BA105" s="3"/>
+      <c r="BB105" s="3"/>
+      <c r="BC105" s="3"/>
+    </row>
+    <row r="106" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6830,8 +7410,12 @@
       <c r="AW106" s="3"/>
       <c r="AX106" s="3"/>
       <c r="AY106" s="3"/>
-    </row>
-    <row r="107" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ106" s="3"/>
+      <c r="BA106" s="3"/>
+      <c r="BB106" s="3"/>
+      <c r="BC106" s="3"/>
+    </row>
+    <row r="107" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -6881,8 +7465,12 @@
       <c r="AW107" s="3"/>
       <c r="AX107" s="3"/>
       <c r="AY107" s="3"/>
-    </row>
-    <row r="108" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ107" s="3"/>
+      <c r="BA107" s="3"/>
+      <c r="BB107" s="3"/>
+      <c r="BC107" s="3"/>
+    </row>
+    <row r="108" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -6932,8 +7520,12 @@
       <c r="AW108" s="3"/>
       <c r="AX108" s="3"/>
       <c r="AY108" s="3"/>
-    </row>
-    <row r="109" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ108" s="3"/>
+      <c r="BA108" s="3"/>
+      <c r="BB108" s="3"/>
+      <c r="BC108" s="3"/>
+    </row>
+    <row r="109" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -6983,8 +7575,12 @@
       <c r="AW109" s="3"/>
       <c r="AX109" s="3"/>
       <c r="AY109" s="3"/>
-    </row>
-    <row r="110" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ109" s="3"/>
+      <c r="BA109" s="3"/>
+      <c r="BB109" s="3"/>
+      <c r="BC109" s="3"/>
+    </row>
+    <row r="110" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7034,8 +7630,12 @@
       <c r="AW110" s="3"/>
       <c r="AX110" s="3"/>
       <c r="AY110" s="3"/>
-    </row>
-    <row r="111" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ110" s="3"/>
+      <c r="BA110" s="3"/>
+      <c r="BB110" s="3"/>
+      <c r="BC110" s="3"/>
+    </row>
+    <row r="111" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7085,8 +7685,12 @@
       <c r="AW111" s="3"/>
       <c r="AX111" s="3"/>
       <c r="AY111" s="3"/>
-    </row>
-    <row r="112" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ111" s="3"/>
+      <c r="BA111" s="3"/>
+      <c r="BB111" s="3"/>
+      <c r="BC111" s="3"/>
+    </row>
+    <row r="112" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7136,8 +7740,12 @@
       <c r="AW112" s="3"/>
       <c r="AX112" s="3"/>
       <c r="AY112" s="3"/>
-    </row>
-    <row r="113" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ112" s="3"/>
+      <c r="BA112" s="3"/>
+      <c r="BB112" s="3"/>
+      <c r="BC112" s="3"/>
+    </row>
+    <row r="113" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7187,8 +7795,12 @@
       <c r="AW113" s="3"/>
       <c r="AX113" s="3"/>
       <c r="AY113" s="3"/>
-    </row>
-    <row r="114" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ113" s="3"/>
+      <c r="BA113" s="3"/>
+      <c r="BB113" s="3"/>
+      <c r="BC113" s="3"/>
+    </row>
+    <row r="114" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7238,8 +7850,12 @@
       <c r="AW114" s="3"/>
       <c r="AX114" s="3"/>
       <c r="AY114" s="3"/>
-    </row>
-    <row r="115" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ114" s="3"/>
+      <c r="BA114" s="3"/>
+      <c r="BB114" s="3"/>
+      <c r="BC114" s="3"/>
+    </row>
+    <row r="115" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7289,8 +7905,12 @@
       <c r="AW115" s="3"/>
       <c r="AX115" s="3"/>
       <c r="AY115" s="3"/>
-    </row>
-    <row r="116" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ115" s="3"/>
+      <c r="BA115" s="3"/>
+      <c r="BB115" s="3"/>
+      <c r="BC115" s="3"/>
+    </row>
+    <row r="116" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7340,8 +7960,12 @@
       <c r="AW116" s="3"/>
       <c r="AX116" s="3"/>
       <c r="AY116" s="3"/>
-    </row>
-    <row r="117" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ116" s="3"/>
+      <c r="BA116" s="3"/>
+      <c r="BB116" s="3"/>
+      <c r="BC116" s="3"/>
+    </row>
+    <row r="117" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7391,8 +8015,12 @@
       <c r="AW117" s="3"/>
       <c r="AX117" s="3"/>
       <c r="AY117" s="3"/>
-    </row>
-    <row r="118" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ117" s="3"/>
+      <c r="BA117" s="3"/>
+      <c r="BB117" s="3"/>
+      <c r="BC117" s="3"/>
+    </row>
+    <row r="118" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7442,8 +8070,12 @@
       <c r="AW118" s="3"/>
       <c r="AX118" s="3"/>
       <c r="AY118" s="3"/>
-    </row>
-    <row r="119" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ118" s="3"/>
+      <c r="BA118" s="3"/>
+      <c r="BB118" s="3"/>
+      <c r="BC118" s="3"/>
+    </row>
+    <row r="119" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7493,8 +8125,12 @@
       <c r="AW119" s="3"/>
       <c r="AX119" s="3"/>
       <c r="AY119" s="3"/>
-    </row>
-    <row r="120" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ119" s="3"/>
+      <c r="BA119" s="3"/>
+      <c r="BB119" s="3"/>
+      <c r="BC119" s="3"/>
+    </row>
+    <row r="120" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7544,8 +8180,12 @@
       <c r="AW120" s="3"/>
       <c r="AX120" s="3"/>
       <c r="AY120" s="3"/>
-    </row>
-    <row r="121" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ120" s="3"/>
+      <c r="BA120" s="3"/>
+      <c r="BB120" s="3"/>
+      <c r="BC120" s="3"/>
+    </row>
+    <row r="121" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7595,8 +8235,12 @@
       <c r="AW121" s="3"/>
       <c r="AX121" s="3"/>
       <c r="AY121" s="3"/>
-    </row>
-    <row r="122" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ121" s="3"/>
+      <c r="BA121" s="3"/>
+      <c r="BB121" s="3"/>
+      <c r="BC121" s="3"/>
+    </row>
+    <row r="122" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -7646,8 +8290,12 @@
       <c r="AW122" s="3"/>
       <c r="AX122" s="3"/>
       <c r="AY122" s="3"/>
-    </row>
-    <row r="123" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ122" s="3"/>
+      <c r="BA122" s="3"/>
+      <c r="BB122" s="3"/>
+      <c r="BC122" s="3"/>
+    </row>
+    <row r="123" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -7697,8 +8345,12 @@
       <c r="AW123" s="3"/>
       <c r="AX123" s="3"/>
       <c r="AY123" s="3"/>
-    </row>
-    <row r="124" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ123" s="3"/>
+      <c r="BA123" s="3"/>
+      <c r="BB123" s="3"/>
+      <c r="BC123" s="3"/>
+    </row>
+    <row r="124" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -7748,8 +8400,12 @@
       <c r="AW124" s="3"/>
       <c r="AX124" s="3"/>
       <c r="AY124" s="3"/>
-    </row>
-    <row r="125" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ124" s="3"/>
+      <c r="BA124" s="3"/>
+      <c r="BB124" s="3"/>
+      <c r="BC124" s="3"/>
+    </row>
+    <row r="125" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -7799,8 +8455,12 @@
       <c r="AW125" s="3"/>
       <c r="AX125" s="3"/>
       <c r="AY125" s="3"/>
-    </row>
-    <row r="126" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ125" s="3"/>
+      <c r="BA125" s="3"/>
+      <c r="BB125" s="3"/>
+      <c r="BC125" s="3"/>
+    </row>
+    <row r="126" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -7850,8 +8510,12 @@
       <c r="AW126" s="3"/>
       <c r="AX126" s="3"/>
       <c r="AY126" s="3"/>
-    </row>
-    <row r="127" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ126" s="3"/>
+      <c r="BA126" s="3"/>
+      <c r="BB126" s="3"/>
+      <c r="BC126" s="3"/>
+    </row>
+    <row r="127" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -7901,8 +8565,12 @@
       <c r="AW127" s="3"/>
       <c r="AX127" s="3"/>
       <c r="AY127" s="3"/>
-    </row>
-    <row r="128" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ127" s="3"/>
+      <c r="BA127" s="3"/>
+      <c r="BB127" s="3"/>
+      <c r="BC127" s="3"/>
+    </row>
+    <row r="128" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -7952,8 +8620,12 @@
       <c r="AW128" s="3"/>
       <c r="AX128" s="3"/>
       <c r="AY128" s="3"/>
-    </row>
-    <row r="129" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ128" s="3"/>
+      <c r="BA128" s="3"/>
+      <c r="BB128" s="3"/>
+      <c r="BC128" s="3"/>
+    </row>
+    <row r="129" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8003,8 +8675,12 @@
       <c r="AW129" s="3"/>
       <c r="AX129" s="3"/>
       <c r="AY129" s="3"/>
-    </row>
-    <row r="130" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ129" s="3"/>
+      <c r="BA129" s="3"/>
+      <c r="BB129" s="3"/>
+      <c r="BC129" s="3"/>
+    </row>
+    <row r="130" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8054,8 +8730,12 @@
       <c r="AW130" s="3"/>
       <c r="AX130" s="3"/>
       <c r="AY130" s="3"/>
-    </row>
-    <row r="131" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ130" s="3"/>
+      <c r="BA130" s="3"/>
+      <c r="BB130" s="3"/>
+      <c r="BC130" s="3"/>
+    </row>
+    <row r="131" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8105,8 +8785,12 @@
       <c r="AW131" s="3"/>
       <c r="AX131" s="3"/>
       <c r="AY131" s="3"/>
-    </row>
-    <row r="132" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ131" s="3"/>
+      <c r="BA131" s="3"/>
+      <c r="BB131" s="3"/>
+      <c r="BC131" s="3"/>
+    </row>
+    <row r="132" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8156,8 +8840,12 @@
       <c r="AW132" s="3"/>
       <c r="AX132" s="3"/>
       <c r="AY132" s="3"/>
-    </row>
-    <row r="133" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ132" s="3"/>
+      <c r="BA132" s="3"/>
+      <c r="BB132" s="3"/>
+      <c r="BC132" s="3"/>
+    </row>
+    <row r="133" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8207,8 +8895,12 @@
       <c r="AW133" s="3"/>
       <c r="AX133" s="3"/>
       <c r="AY133" s="3"/>
-    </row>
-    <row r="134" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ133" s="3"/>
+      <c r="BA133" s="3"/>
+      <c r="BB133" s="3"/>
+      <c r="BC133" s="3"/>
+    </row>
+    <row r="134" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8258,8 +8950,12 @@
       <c r="AW134" s="3"/>
       <c r="AX134" s="3"/>
       <c r="AY134" s="3"/>
-    </row>
-    <row r="135" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ134" s="3"/>
+      <c r="BA134" s="3"/>
+      <c r="BB134" s="3"/>
+      <c r="BC134" s="3"/>
+    </row>
+    <row r="135" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -8309,8 +9005,12 @@
       <c r="AW135" s="3"/>
       <c r="AX135" s="3"/>
       <c r="AY135" s="3"/>
-    </row>
-    <row r="136" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ135" s="3"/>
+      <c r="BA135" s="3"/>
+      <c r="BB135" s="3"/>
+      <c r="BC135" s="3"/>
+    </row>
+    <row r="136" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -8360,8 +9060,12 @@
       <c r="AW136" s="3"/>
       <c r="AX136" s="3"/>
       <c r="AY136" s="3"/>
-    </row>
-    <row r="137" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ136" s="3"/>
+      <c r="BA136" s="3"/>
+      <c r="BB136" s="3"/>
+      <c r="BC136" s="3"/>
+    </row>
+    <row r="137" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -8411,8 +9115,12 @@
       <c r="AW137" s="3"/>
       <c r="AX137" s="3"/>
       <c r="AY137" s="3"/>
-    </row>
-    <row r="138" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ137" s="3"/>
+      <c r="BA137" s="3"/>
+      <c r="BB137" s="3"/>
+      <c r="BC137" s="3"/>
+    </row>
+    <row r="138" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8462,8 +9170,12 @@
       <c r="AW138" s="3"/>
       <c r="AX138" s="3"/>
       <c r="AY138" s="3"/>
-    </row>
-    <row r="139" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ138" s="3"/>
+      <c r="BA138" s="3"/>
+      <c r="BB138" s="3"/>
+      <c r="BC138" s="3"/>
+    </row>
+    <row r="139" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -8513,8 +9225,12 @@
       <c r="AW139" s="3"/>
       <c r="AX139" s="3"/>
       <c r="AY139" s="3"/>
-    </row>
-    <row r="140" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ139" s="3"/>
+      <c r="BA139" s="3"/>
+      <c r="BB139" s="3"/>
+      <c r="BC139" s="3"/>
+    </row>
+    <row r="140" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -8564,8 +9280,12 @@
       <c r="AW140" s="3"/>
       <c r="AX140" s="3"/>
       <c r="AY140" s="3"/>
-    </row>
-    <row r="141" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ140" s="3"/>
+      <c r="BA140" s="3"/>
+      <c r="BB140" s="3"/>
+      <c r="BC140" s="3"/>
+    </row>
+    <row r="141" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8615,8 +9335,12 @@
       <c r="AW141" s="3"/>
       <c r="AX141" s="3"/>
       <c r="AY141" s="3"/>
-    </row>
-    <row r="142" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ141" s="3"/>
+      <c r="BA141" s="3"/>
+      <c r="BB141" s="3"/>
+      <c r="BC141" s="3"/>
+    </row>
+    <row r="142" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -8666,8 +9390,12 @@
       <c r="AW142" s="3"/>
       <c r="AX142" s="3"/>
       <c r="AY142" s="3"/>
-    </row>
-    <row r="143" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ142" s="3"/>
+      <c r="BA142" s="3"/>
+      <c r="BB142" s="3"/>
+      <c r="BC142" s="3"/>
+    </row>
+    <row r="143" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -8717,8 +9445,12 @@
       <c r="AW143" s="3"/>
       <c r="AX143" s="3"/>
       <c r="AY143" s="3"/>
-    </row>
-    <row r="144" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ143" s="3"/>
+      <c r="BA143" s="3"/>
+      <c r="BB143" s="3"/>
+      <c r="BC143" s="3"/>
+    </row>
+    <row r="144" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -8768,8 +9500,12 @@
       <c r="AW144" s="3"/>
       <c r="AX144" s="3"/>
       <c r="AY144" s="3"/>
-    </row>
-    <row r="145" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ144" s="3"/>
+      <c r="BA144" s="3"/>
+      <c r="BB144" s="3"/>
+      <c r="BC144" s="3"/>
+    </row>
+    <row r="145" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -8819,8 +9555,12 @@
       <c r="AW145" s="3"/>
       <c r="AX145" s="3"/>
       <c r="AY145" s="3"/>
-    </row>
-    <row r="146" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ145" s="3"/>
+      <c r="BA145" s="3"/>
+      <c r="BB145" s="3"/>
+      <c r="BC145" s="3"/>
+    </row>
+    <row r="146" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -8870,8 +9610,12 @@
       <c r="AW146" s="3"/>
       <c r="AX146" s="3"/>
       <c r="AY146" s="3"/>
-    </row>
-    <row r="147" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ146" s="3"/>
+      <c r="BA146" s="3"/>
+      <c r="BB146" s="3"/>
+      <c r="BC146" s="3"/>
+    </row>
+    <row r="147" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -8921,8 +9665,12 @@
       <c r="AW147" s="3"/>
       <c r="AX147" s="3"/>
       <c r="AY147" s="3"/>
-    </row>
-    <row r="148" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ147" s="3"/>
+      <c r="BA147" s="3"/>
+      <c r="BB147" s="3"/>
+      <c r="BC147" s="3"/>
+    </row>
+    <row r="148" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -8972,8 +9720,12 @@
       <c r="AW148" s="3"/>
       <c r="AX148" s="3"/>
       <c r="AY148" s="3"/>
-    </row>
-    <row r="149" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ148" s="3"/>
+      <c r="BA148" s="3"/>
+      <c r="BB148" s="3"/>
+      <c r="BC148" s="3"/>
+    </row>
+    <row r="149" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9023,8 +9775,12 @@
       <c r="AW149" s="3"/>
       <c r="AX149" s="3"/>
       <c r="AY149" s="3"/>
-    </row>
-    <row r="150" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ149" s="3"/>
+      <c r="BA149" s="3"/>
+      <c r="BB149" s="3"/>
+      <c r="BC149" s="3"/>
+    </row>
+    <row r="150" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9074,8 +9830,12 @@
       <c r="AW150" s="3"/>
       <c r="AX150" s="3"/>
       <c r="AY150" s="3"/>
-    </row>
-    <row r="151" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ150" s="3"/>
+      <c r="BA150" s="3"/>
+      <c r="BB150" s="3"/>
+      <c r="BC150" s="3"/>
+    </row>
+    <row r="151" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -9125,8 +9885,12 @@
       <c r="AW151" s="3"/>
       <c r="AX151" s="3"/>
       <c r="AY151" s="3"/>
-    </row>
-    <row r="152" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ151" s="3"/>
+      <c r="BA151" s="3"/>
+      <c r="BB151" s="3"/>
+      <c r="BC151" s="3"/>
+    </row>
+    <row r="152" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -9176,8 +9940,12 @@
       <c r="AW152" s="3"/>
       <c r="AX152" s="3"/>
       <c r="AY152" s="3"/>
-    </row>
-    <row r="153" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ152" s="3"/>
+      <c r="BA152" s="3"/>
+      <c r="BB152" s="3"/>
+      <c r="BC152" s="3"/>
+    </row>
+    <row r="153" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -9227,8 +9995,12 @@
       <c r="AW153" s="3"/>
       <c r="AX153" s="3"/>
       <c r="AY153" s="3"/>
-    </row>
-    <row r="154" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ153" s="3"/>
+      <c r="BA153" s="3"/>
+      <c r="BB153" s="3"/>
+      <c r="BC153" s="3"/>
+    </row>
+    <row r="154" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9278,8 +10050,12 @@
       <c r="AW154" s="3"/>
       <c r="AX154" s="3"/>
       <c r="AY154" s="3"/>
-    </row>
-    <row r="155" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ154" s="3"/>
+      <c r="BA154" s="3"/>
+      <c r="BB154" s="3"/>
+      <c r="BC154" s="3"/>
+    </row>
+    <row r="155" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -9329,8 +10105,12 @@
       <c r="AW155" s="3"/>
       <c r="AX155" s="3"/>
       <c r="AY155" s="3"/>
-    </row>
-    <row r="156" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ155" s="3"/>
+      <c r="BA155" s="3"/>
+      <c r="BB155" s="3"/>
+      <c r="BC155" s="3"/>
+    </row>
+    <row r="156" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -9380,8 +10160,12 @@
       <c r="AW156" s="3"/>
       <c r="AX156" s="3"/>
       <c r="AY156" s="3"/>
-    </row>
-    <row r="157" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ156" s="3"/>
+      <c r="BA156" s="3"/>
+      <c r="BB156" s="3"/>
+      <c r="BC156" s="3"/>
+    </row>
+    <row r="157" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -9431,8 +10215,12 @@
       <c r="AW157" s="3"/>
       <c r="AX157" s="3"/>
       <c r="AY157" s="3"/>
-    </row>
-    <row r="158" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ157" s="3"/>
+      <c r="BA157" s="3"/>
+      <c r="BB157" s="3"/>
+      <c r="BC157" s="3"/>
+    </row>
+    <row r="158" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -9482,8 +10270,12 @@
       <c r="AW158" s="3"/>
       <c r="AX158" s="3"/>
       <c r="AY158" s="3"/>
-    </row>
-    <row r="159" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ158" s="3"/>
+      <c r="BA158" s="3"/>
+      <c r="BB158" s="3"/>
+      <c r="BC158" s="3"/>
+    </row>
+    <row r="159" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -9533,8 +10325,12 @@
       <c r="AW159" s="3"/>
       <c r="AX159" s="3"/>
       <c r="AY159" s="3"/>
-    </row>
-    <row r="160" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ159" s="3"/>
+      <c r="BA159" s="3"/>
+      <c r="BB159" s="3"/>
+      <c r="BC159" s="3"/>
+    </row>
+    <row r="160" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -9584,8 +10380,12 @@
       <c r="AW160" s="3"/>
       <c r="AX160" s="3"/>
       <c r="AY160" s="3"/>
-    </row>
-    <row r="161" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ160" s="3"/>
+      <c r="BA160" s="3"/>
+      <c r="BB160" s="3"/>
+      <c r="BC160" s="3"/>
+    </row>
+    <row r="161" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -9635,8 +10435,12 @@
       <c r="AW161" s="3"/>
       <c r="AX161" s="3"/>
       <c r="AY161" s="3"/>
-    </row>
-    <row r="162" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ161" s="3"/>
+      <c r="BA161" s="3"/>
+      <c r="BB161" s="3"/>
+      <c r="BC161" s="3"/>
+    </row>
+    <row r="162" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -9686,8 +10490,12 @@
       <c r="AW162" s="3"/>
       <c r="AX162" s="3"/>
       <c r="AY162" s="3"/>
-    </row>
-    <row r="163" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ162" s="3"/>
+      <c r="BA162" s="3"/>
+      <c r="BB162" s="3"/>
+      <c r="BC162" s="3"/>
+    </row>
+    <row r="163" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -9737,8 +10545,12 @@
       <c r="AW163" s="3"/>
       <c r="AX163" s="3"/>
       <c r="AY163" s="3"/>
-    </row>
-    <row r="164" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ163" s="3"/>
+      <c r="BA163" s="3"/>
+      <c r="BB163" s="3"/>
+      <c r="BC163" s="3"/>
+    </row>
+    <row r="164" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -9788,8 +10600,12 @@
       <c r="AW164" s="3"/>
       <c r="AX164" s="3"/>
       <c r="AY164" s="3"/>
-    </row>
-    <row r="165" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ164" s="3"/>
+      <c r="BA164" s="3"/>
+      <c r="BB164" s="3"/>
+      <c r="BC164" s="3"/>
+    </row>
+    <row r="165" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -9839,8 +10655,12 @@
       <c r="AW165" s="3"/>
       <c r="AX165" s="3"/>
       <c r="AY165" s="3"/>
-    </row>
-    <row r="166" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ165" s="3"/>
+      <c r="BA165" s="3"/>
+      <c r="BB165" s="3"/>
+      <c r="BC165" s="3"/>
+    </row>
+    <row r="166" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -9890,8 +10710,12 @@
       <c r="AW166" s="3"/>
       <c r="AX166" s="3"/>
       <c r="AY166" s="3"/>
-    </row>
-    <row r="167" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ166" s="3"/>
+      <c r="BA166" s="3"/>
+      <c r="BB166" s="3"/>
+      <c r="BC166" s="3"/>
+    </row>
+    <row r="167" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -9941,8 +10765,12 @@
       <c r="AW167" s="3"/>
       <c r="AX167" s="3"/>
       <c r="AY167" s="3"/>
-    </row>
-    <row r="168" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ167" s="3"/>
+      <c r="BA167" s="3"/>
+      <c r="BB167" s="3"/>
+      <c r="BC167" s="3"/>
+    </row>
+    <row r="168" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -9992,8 +10820,12 @@
       <c r="AW168" s="3"/>
       <c r="AX168" s="3"/>
       <c r="AY168" s="3"/>
-    </row>
-    <row r="169" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ168" s="3"/>
+      <c r="BA168" s="3"/>
+      <c r="BB168" s="3"/>
+      <c r="BC168" s="3"/>
+    </row>
+    <row r="169" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -10043,8 +10875,12 @@
       <c r="AW169" s="3"/>
       <c r="AX169" s="3"/>
       <c r="AY169" s="3"/>
-    </row>
-    <row r="170" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ169" s="3"/>
+      <c r="BA169" s="3"/>
+      <c r="BB169" s="3"/>
+      <c r="BC169" s="3"/>
+    </row>
+    <row r="170" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -10094,8 +10930,12 @@
       <c r="AW170" s="3"/>
       <c r="AX170" s="3"/>
       <c r="AY170" s="3"/>
-    </row>
-    <row r="171" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ170" s="3"/>
+      <c r="BA170" s="3"/>
+      <c r="BB170" s="3"/>
+      <c r="BC170" s="3"/>
+    </row>
+    <row r="171" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -10145,8 +10985,12 @@
       <c r="AW171" s="3"/>
       <c r="AX171" s="3"/>
       <c r="AY171" s="3"/>
-    </row>
-    <row r="172" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ171" s="3"/>
+      <c r="BA171" s="3"/>
+      <c r="BB171" s="3"/>
+      <c r="BC171" s="3"/>
+    </row>
+    <row r="172" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -10196,8 +11040,12 @@
       <c r="AW172" s="3"/>
       <c r="AX172" s="3"/>
       <c r="AY172" s="3"/>
-    </row>
-    <row r="173" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ172" s="3"/>
+      <c r="BA172" s="3"/>
+      <c r="BB172" s="3"/>
+      <c r="BC172" s="3"/>
+    </row>
+    <row r="173" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -10247,8 +11095,12 @@
       <c r="AW173" s="3"/>
       <c r="AX173" s="3"/>
       <c r="AY173" s="3"/>
-    </row>
-    <row r="174" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ173" s="3"/>
+      <c r="BA173" s="3"/>
+      <c r="BB173" s="3"/>
+      <c r="BC173" s="3"/>
+    </row>
+    <row r="174" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -10298,8 +11150,12 @@
       <c r="AW174" s="3"/>
       <c r="AX174" s="3"/>
       <c r="AY174" s="3"/>
-    </row>
-    <row r="175" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ174" s="3"/>
+      <c r="BA174" s="3"/>
+      <c r="BB174" s="3"/>
+      <c r="BC174" s="3"/>
+    </row>
+    <row r="175" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -10349,8 +11205,12 @@
       <c r="AW175" s="3"/>
       <c r="AX175" s="3"/>
       <c r="AY175" s="3"/>
-    </row>
-    <row r="176" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ175" s="3"/>
+      <c r="BA175" s="3"/>
+      <c r="BB175" s="3"/>
+      <c r="BC175" s="3"/>
+    </row>
+    <row r="176" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -10400,8 +11260,12 @@
       <c r="AW176" s="3"/>
       <c r="AX176" s="3"/>
       <c r="AY176" s="3"/>
-    </row>
-    <row r="177" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ176" s="3"/>
+      <c r="BA176" s="3"/>
+      <c r="BB176" s="3"/>
+      <c r="BC176" s="3"/>
+    </row>
+    <row r="177" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -10451,8 +11315,12 @@
       <c r="AW177" s="3"/>
       <c r="AX177" s="3"/>
       <c r="AY177" s="3"/>
-    </row>
-    <row r="178" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ177" s="3"/>
+      <c r="BA177" s="3"/>
+      <c r="BB177" s="3"/>
+      <c r="BC177" s="3"/>
+    </row>
+    <row r="178" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -10502,8 +11370,12 @@
       <c r="AW178" s="3"/>
       <c r="AX178" s="3"/>
       <c r="AY178" s="3"/>
-    </row>
-    <row r="179" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ178" s="3"/>
+      <c r="BA178" s="3"/>
+      <c r="BB178" s="3"/>
+      <c r="BC178" s="3"/>
+    </row>
+    <row r="179" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -10553,8 +11425,12 @@
       <c r="AW179" s="3"/>
       <c r="AX179" s="3"/>
       <c r="AY179" s="3"/>
-    </row>
-    <row r="180" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ179" s="3"/>
+      <c r="BA179" s="3"/>
+      <c r="BB179" s="3"/>
+      <c r="BC179" s="3"/>
+    </row>
+    <row r="180" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -10604,8 +11480,12 @@
       <c r="AW180" s="3"/>
       <c r="AX180" s="3"/>
       <c r="AY180" s="3"/>
-    </row>
-    <row r="181" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ180" s="3"/>
+      <c r="BA180" s="3"/>
+      <c r="BB180" s="3"/>
+      <c r="BC180" s="3"/>
+    </row>
+    <row r="181" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -10655,8 +11535,12 @@
       <c r="AW181" s="3"/>
       <c r="AX181" s="3"/>
       <c r="AY181" s="3"/>
-    </row>
-    <row r="182" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ181" s="3"/>
+      <c r="BA181" s="3"/>
+      <c r="BB181" s="3"/>
+      <c r="BC181" s="3"/>
+    </row>
+    <row r="182" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -10706,8 +11590,12 @@
       <c r="AW182" s="3"/>
       <c r="AX182" s="3"/>
       <c r="AY182" s="3"/>
-    </row>
-    <row r="183" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ182" s="3"/>
+      <c r="BA182" s="3"/>
+      <c r="BB182" s="3"/>
+      <c r="BC182" s="3"/>
+    </row>
+    <row r="183" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -10757,8 +11645,12 @@
       <c r="AW183" s="3"/>
       <c r="AX183" s="3"/>
       <c r="AY183" s="3"/>
-    </row>
-    <row r="184" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ183" s="3"/>
+      <c r="BA183" s="3"/>
+      <c r="BB183" s="3"/>
+      <c r="BC183" s="3"/>
+    </row>
+    <row r="184" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -10808,8 +11700,12 @@
       <c r="AW184" s="3"/>
       <c r="AX184" s="3"/>
       <c r="AY184" s="3"/>
-    </row>
-    <row r="185" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ184" s="3"/>
+      <c r="BA184" s="3"/>
+      <c r="BB184" s="3"/>
+      <c r="BC184" s="3"/>
+    </row>
+    <row r="185" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -10859,8 +11755,12 @@
       <c r="AW185" s="3"/>
       <c r="AX185" s="3"/>
       <c r="AY185" s="3"/>
-    </row>
-    <row r="186" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ185" s="3"/>
+      <c r="BA185" s="3"/>
+      <c r="BB185" s="3"/>
+      <c r="BC185" s="3"/>
+    </row>
+    <row r="186" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -10910,8 +11810,12 @@
       <c r="AW186" s="3"/>
       <c r="AX186" s="3"/>
       <c r="AY186" s="3"/>
-    </row>
-    <row r="187" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ186" s="3"/>
+      <c r="BA186" s="3"/>
+      <c r="BB186" s="3"/>
+      <c r="BC186" s="3"/>
+    </row>
+    <row r="187" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -10961,8 +11865,12 @@
       <c r="AW187" s="3"/>
       <c r="AX187" s="3"/>
       <c r="AY187" s="3"/>
-    </row>
-    <row r="188" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ187" s="3"/>
+      <c r="BA187" s="3"/>
+      <c r="BB187" s="3"/>
+      <c r="BC187" s="3"/>
+    </row>
+    <row r="188" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -11012,8 +11920,12 @@
       <c r="AW188" s="3"/>
       <c r="AX188" s="3"/>
       <c r="AY188" s="3"/>
-    </row>
-    <row r="189" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ188" s="3"/>
+      <c r="BA188" s="3"/>
+      <c r="BB188" s="3"/>
+      <c r="BC188" s="3"/>
+    </row>
+    <row r="189" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -11063,8 +11975,12 @@
       <c r="AW189" s="3"/>
       <c r="AX189" s="3"/>
       <c r="AY189" s="3"/>
-    </row>
-    <row r="190" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ189" s="3"/>
+      <c r="BA189" s="3"/>
+      <c r="BB189" s="3"/>
+      <c r="BC189" s="3"/>
+    </row>
+    <row r="190" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -11114,8 +12030,12 @@
       <c r="AW190" s="3"/>
       <c r="AX190" s="3"/>
       <c r="AY190" s="3"/>
-    </row>
-    <row r="191" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ190" s="3"/>
+      <c r="BA190" s="3"/>
+      <c r="BB190" s="3"/>
+      <c r="BC190" s="3"/>
+    </row>
+    <row r="191" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -11165,8 +12085,12 @@
       <c r="AW191" s="3"/>
       <c r="AX191" s="3"/>
       <c r="AY191" s="3"/>
-    </row>
-    <row r="192" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ191" s="3"/>
+      <c r="BA191" s="3"/>
+      <c r="BB191" s="3"/>
+      <c r="BC191" s="3"/>
+    </row>
+    <row r="192" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -11216,8 +12140,12 @@
       <c r="AW192" s="3"/>
       <c r="AX192" s="3"/>
       <c r="AY192" s="3"/>
-    </row>
-    <row r="193" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ192" s="3"/>
+      <c r="BA192" s="3"/>
+      <c r="BB192" s="3"/>
+      <c r="BC192" s="3"/>
+    </row>
+    <row r="193" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -11267,8 +12195,12 @@
       <c r="AW193" s="3"/>
       <c r="AX193" s="3"/>
       <c r="AY193" s="3"/>
-    </row>
-    <row r="194" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ193" s="3"/>
+      <c r="BA193" s="3"/>
+      <c r="BB193" s="3"/>
+      <c r="BC193" s="3"/>
+    </row>
+    <row r="194" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -11318,8 +12250,12 @@
       <c r="AW194" s="3"/>
       <c r="AX194" s="3"/>
       <c r="AY194" s="3"/>
-    </row>
-    <row r="195" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ194" s="3"/>
+      <c r="BA194" s="3"/>
+      <c r="BB194" s="3"/>
+      <c r="BC194" s="3"/>
+    </row>
+    <row r="195" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -11369,8 +12305,12 @@
       <c r="AW195" s="3"/>
       <c r="AX195" s="3"/>
       <c r="AY195" s="3"/>
-    </row>
-    <row r="196" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ195" s="3"/>
+      <c r="BA195" s="3"/>
+      <c r="BB195" s="3"/>
+      <c r="BC195" s="3"/>
+    </row>
+    <row r="196" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -11420,8 +12360,12 @@
       <c r="AW196" s="3"/>
       <c r="AX196" s="3"/>
       <c r="AY196" s="3"/>
-    </row>
-    <row r="197" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ196" s="3"/>
+      <c r="BA196" s="3"/>
+      <c r="BB196" s="3"/>
+      <c r="BC196" s="3"/>
+    </row>
+    <row r="197" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -11471,8 +12415,12 @@
       <c r="AW197" s="3"/>
       <c r="AX197" s="3"/>
       <c r="AY197" s="3"/>
-    </row>
-    <row r="198" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ197" s="3"/>
+      <c r="BA197" s="3"/>
+      <c r="BB197" s="3"/>
+      <c r="BC197" s="3"/>
+    </row>
+    <row r="198" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -11522,8 +12470,12 @@
       <c r="AW198" s="3"/>
       <c r="AX198" s="3"/>
       <c r="AY198" s="3"/>
-    </row>
-    <row r="199" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ198" s="3"/>
+      <c r="BA198" s="3"/>
+      <c r="BB198" s="3"/>
+      <c r="BC198" s="3"/>
+    </row>
+    <row r="199" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -11573,8 +12525,12 @@
       <c r="AW199" s="3"/>
       <c r="AX199" s="3"/>
       <c r="AY199" s="3"/>
-    </row>
-    <row r="200" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ199" s="3"/>
+      <c r="BA199" s="3"/>
+      <c r="BB199" s="3"/>
+      <c r="BC199" s="3"/>
+    </row>
+    <row r="200" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -11624,8 +12580,12 @@
       <c r="AW200" s="3"/>
       <c r="AX200" s="3"/>
       <c r="AY200" s="3"/>
-    </row>
-    <row r="201" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ200" s="3"/>
+      <c r="BA200" s="3"/>
+      <c r="BB200" s="3"/>
+      <c r="BC200" s="3"/>
+    </row>
+    <row r="201" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -11675,8 +12635,12 @@
       <c r="AW201" s="3"/>
       <c r="AX201" s="3"/>
       <c r="AY201" s="3"/>
-    </row>
-    <row r="202" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ201" s="3"/>
+      <c r="BA201" s="3"/>
+      <c r="BB201" s="3"/>
+      <c r="BC201" s="3"/>
+    </row>
+    <row r="202" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -11726,8 +12690,12 @@
       <c r="AW202" s="3"/>
       <c r="AX202" s="3"/>
       <c r="AY202" s="3"/>
-    </row>
-    <row r="203" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ202" s="3"/>
+      <c r="BA202" s="3"/>
+      <c r="BB202" s="3"/>
+      <c r="BC202" s="3"/>
+    </row>
+    <row r="203" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -11777,8 +12745,12 @@
       <c r="AW203" s="3"/>
       <c r="AX203" s="3"/>
       <c r="AY203" s="3"/>
-    </row>
-    <row r="204" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ203" s="3"/>
+      <c r="BA203" s="3"/>
+      <c r="BB203" s="3"/>
+      <c r="BC203" s="3"/>
+    </row>
+    <row r="204" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -11828,8 +12800,12 @@
       <c r="AW204" s="3"/>
       <c r="AX204" s="3"/>
       <c r="AY204" s="3"/>
-    </row>
-    <row r="205" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ204" s="3"/>
+      <c r="BA204" s="3"/>
+      <c r="BB204" s="3"/>
+      <c r="BC204" s="3"/>
+    </row>
+    <row r="205" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -11879,8 +12855,12 @@
       <c r="AW205" s="3"/>
       <c r="AX205" s="3"/>
       <c r="AY205" s="3"/>
-    </row>
-    <row r="206" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ205" s="3"/>
+      <c r="BA205" s="3"/>
+      <c r="BB205" s="3"/>
+      <c r="BC205" s="3"/>
+    </row>
+    <row r="206" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -11930,8 +12910,12 @@
       <c r="AW206" s="3"/>
       <c r="AX206" s="3"/>
       <c r="AY206" s="3"/>
-    </row>
-    <row r="207" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ206" s="3"/>
+      <c r="BA206" s="3"/>
+      <c r="BB206" s="3"/>
+      <c r="BC206" s="3"/>
+    </row>
+    <row r="207" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -11981,8 +12965,12 @@
       <c r="AW207" s="3"/>
       <c r="AX207" s="3"/>
       <c r="AY207" s="3"/>
-    </row>
-    <row r="208" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ207" s="3"/>
+      <c r="BA207" s="3"/>
+      <c r="BB207" s="3"/>
+      <c r="BC207" s="3"/>
+    </row>
+    <row r="208" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -12032,8 +13020,12 @@
       <c r="AW208" s="3"/>
       <c r="AX208" s="3"/>
       <c r="AY208" s="3"/>
-    </row>
-    <row r="209" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ208" s="3"/>
+      <c r="BA208" s="3"/>
+      <c r="BB208" s="3"/>
+      <c r="BC208" s="3"/>
+    </row>
+    <row r="209" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -12083,8 +13075,12 @@
       <c r="AW209" s="3"/>
       <c r="AX209" s="3"/>
       <c r="AY209" s="3"/>
-    </row>
-    <row r="210" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ209" s="3"/>
+      <c r="BA209" s="3"/>
+      <c r="BB209" s="3"/>
+      <c r="BC209" s="3"/>
+    </row>
+    <row r="210" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -12134,8 +13130,12 @@
       <c r="AW210" s="3"/>
       <c r="AX210" s="3"/>
       <c r="AY210" s="3"/>
-    </row>
-    <row r="211" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ210" s="3"/>
+      <c r="BA210" s="3"/>
+      <c r="BB210" s="3"/>
+      <c r="BC210" s="3"/>
+    </row>
+    <row r="211" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -12185,8 +13185,12 @@
       <c r="AW211" s="3"/>
       <c r="AX211" s="3"/>
       <c r="AY211" s="3"/>
-    </row>
-    <row r="212" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ211" s="3"/>
+      <c r="BA211" s="3"/>
+      <c r="BB211" s="3"/>
+      <c r="BC211" s="3"/>
+    </row>
+    <row r="212" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -12236,8 +13240,12 @@
       <c r="AW212" s="3"/>
       <c r="AX212" s="3"/>
       <c r="AY212" s="3"/>
-    </row>
-    <row r="213" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ212" s="3"/>
+      <c r="BA212" s="3"/>
+      <c r="BB212" s="3"/>
+      <c r="BC212" s="3"/>
+    </row>
+    <row r="213" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -12287,8 +13295,12 @@
       <c r="AW213" s="3"/>
       <c r="AX213" s="3"/>
       <c r="AY213" s="3"/>
-    </row>
-    <row r="214" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ213" s="3"/>
+      <c r="BA213" s="3"/>
+      <c r="BB213" s="3"/>
+      <c r="BC213" s="3"/>
+    </row>
+    <row r="214" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -12338,8 +13350,12 @@
       <c r="AW214" s="3"/>
       <c r="AX214" s="3"/>
       <c r="AY214" s="3"/>
-    </row>
-    <row r="215" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ214" s="3"/>
+      <c r="BA214" s="3"/>
+      <c r="BB214" s="3"/>
+      <c r="BC214" s="3"/>
+    </row>
+    <row r="215" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -12389,8 +13405,12 @@
       <c r="AW215" s="3"/>
       <c r="AX215" s="3"/>
       <c r="AY215" s="3"/>
-    </row>
-    <row r="216" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ215" s="3"/>
+      <c r="BA215" s="3"/>
+      <c r="BB215" s="3"/>
+      <c r="BC215" s="3"/>
+    </row>
+    <row r="216" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -12440,8 +13460,12 @@
       <c r="AW216" s="3"/>
       <c r="AX216" s="3"/>
       <c r="AY216" s="3"/>
-    </row>
-    <row r="217" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ216" s="3"/>
+      <c r="BA216" s="3"/>
+      <c r="BB216" s="3"/>
+      <c r="BC216" s="3"/>
+    </row>
+    <row r="217" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -12491,8 +13515,12 @@
       <c r="AW217" s="3"/>
       <c r="AX217" s="3"/>
       <c r="AY217" s="3"/>
-    </row>
-    <row r="218" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ217" s="3"/>
+      <c r="BA217" s="3"/>
+      <c r="BB217" s="3"/>
+      <c r="BC217" s="3"/>
+    </row>
+    <row r="218" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12542,8 +13570,12 @@
       <c r="AW218" s="3"/>
       <c r="AX218" s="3"/>
       <c r="AY218" s="3"/>
-    </row>
-    <row r="219" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ218" s="3"/>
+      <c r="BA218" s="3"/>
+      <c r="BB218" s="3"/>
+      <c r="BC218" s="3"/>
+    </row>
+    <row r="219" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -12593,8 +13625,12 @@
       <c r="AW219" s="3"/>
       <c r="AX219" s="3"/>
       <c r="AY219" s="3"/>
-    </row>
-    <row r="220" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ219" s="3"/>
+      <c r="BA219" s="3"/>
+      <c r="BB219" s="3"/>
+      <c r="BC219" s="3"/>
+    </row>
+    <row r="220" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -12644,8 +13680,12 @@
       <c r="AW220" s="3"/>
       <c r="AX220" s="3"/>
       <c r="AY220" s="3"/>
-    </row>
-    <row r="221" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ220" s="3"/>
+      <c r="BA220" s="3"/>
+      <c r="BB220" s="3"/>
+      <c r="BC220" s="3"/>
+    </row>
+    <row r="221" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -12695,8 +13735,12 @@
       <c r="AW221" s="3"/>
       <c r="AX221" s="3"/>
       <c r="AY221" s="3"/>
-    </row>
-    <row r="222" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ221" s="3"/>
+      <c r="BA221" s="3"/>
+      <c r="BB221" s="3"/>
+      <c r="BC221" s="3"/>
+    </row>
+    <row r="222" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -12746,8 +13790,12 @@
       <c r="AW222" s="3"/>
       <c r="AX222" s="3"/>
       <c r="AY222" s="3"/>
-    </row>
-    <row r="223" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ222" s="3"/>
+      <c r="BA222" s="3"/>
+      <c r="BB222" s="3"/>
+      <c r="BC222" s="3"/>
+    </row>
+    <row r="223" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -12797,8 +13845,12 @@
       <c r="AW223" s="3"/>
       <c r="AX223" s="3"/>
       <c r="AY223" s="3"/>
-    </row>
-    <row r="224" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ223" s="3"/>
+      <c r="BA223" s="3"/>
+      <c r="BB223" s="3"/>
+      <c r="BC223" s="3"/>
+    </row>
+    <row r="224" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -12848,8 +13900,12 @@
       <c r="AW224" s="3"/>
       <c r="AX224" s="3"/>
       <c r="AY224" s="3"/>
-    </row>
-    <row r="225" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ224" s="3"/>
+      <c r="BA224" s="3"/>
+      <c r="BB224" s="3"/>
+      <c r="BC224" s="3"/>
+    </row>
+    <row r="225" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -12899,8 +13955,12 @@
       <c r="AW225" s="3"/>
       <c r="AX225" s="3"/>
       <c r="AY225" s="3"/>
-    </row>
-    <row r="226" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ225" s="3"/>
+      <c r="BA225" s="3"/>
+      <c r="BB225" s="3"/>
+      <c r="BC225" s="3"/>
+    </row>
+    <row r="226" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -12950,8 +14010,12 @@
       <c r="AW226" s="3"/>
       <c r="AX226" s="3"/>
       <c r="AY226" s="3"/>
-    </row>
-    <row r="227" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ226" s="3"/>
+      <c r="BA226" s="3"/>
+      <c r="BB226" s="3"/>
+      <c r="BC226" s="3"/>
+    </row>
+    <row r="227" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -13001,8 +14065,12 @@
       <c r="AW227" s="3"/>
       <c r="AX227" s="3"/>
       <c r="AY227" s="3"/>
-    </row>
-    <row r="228" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ227" s="3"/>
+      <c r="BA227" s="3"/>
+      <c r="BB227" s="3"/>
+      <c r="BC227" s="3"/>
+    </row>
+    <row r="228" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -13052,8 +14120,12 @@
       <c r="AW228" s="3"/>
       <c r="AX228" s="3"/>
       <c r="AY228" s="3"/>
-    </row>
-    <row r="229" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ228" s="3"/>
+      <c r="BA228" s="3"/>
+      <c r="BB228" s="3"/>
+      <c r="BC228" s="3"/>
+    </row>
+    <row r="229" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -13103,8 +14175,12 @@
       <c r="AW229" s="3"/>
       <c r="AX229" s="3"/>
       <c r="AY229" s="3"/>
-    </row>
-    <row r="230" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ229" s="3"/>
+      <c r="BA229" s="3"/>
+      <c r="BB229" s="3"/>
+      <c r="BC229" s="3"/>
+    </row>
+    <row r="230" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -13154,8 +14230,12 @@
       <c r="AW230" s="3"/>
       <c r="AX230" s="3"/>
       <c r="AY230" s="3"/>
-    </row>
-    <row r="231" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ230" s="3"/>
+      <c r="BA230" s="3"/>
+      <c r="BB230" s="3"/>
+      <c r="BC230" s="3"/>
+    </row>
+    <row r="231" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -13205,8 +14285,12 @@
       <c r="AW231" s="3"/>
       <c r="AX231" s="3"/>
       <c r="AY231" s="3"/>
-    </row>
-    <row r="232" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ231" s="3"/>
+      <c r="BA231" s="3"/>
+      <c r="BB231" s="3"/>
+      <c r="BC231" s="3"/>
+    </row>
+    <row r="232" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -13256,8 +14340,12 @@
       <c r="AW232" s="3"/>
       <c r="AX232" s="3"/>
       <c r="AY232" s="3"/>
-    </row>
-    <row r="233" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ232" s="3"/>
+      <c r="BA232" s="3"/>
+      <c r="BB232" s="3"/>
+      <c r="BC232" s="3"/>
+    </row>
+    <row r="233" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -13307,8 +14395,12 @@
       <c r="AW233" s="3"/>
       <c r="AX233" s="3"/>
       <c r="AY233" s="3"/>
-    </row>
-    <row r="234" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ233" s="3"/>
+      <c r="BA233" s="3"/>
+      <c r="BB233" s="3"/>
+      <c r="BC233" s="3"/>
+    </row>
+    <row r="234" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -13358,8 +14450,12 @@
       <c r="AW234" s="3"/>
       <c r="AX234" s="3"/>
       <c r="AY234" s="3"/>
-    </row>
-    <row r="235" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ234" s="3"/>
+      <c r="BA234" s="3"/>
+      <c r="BB234" s="3"/>
+      <c r="BC234" s="3"/>
+    </row>
+    <row r="235" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -13409,8 +14505,12 @@
       <c r="AW235" s="3"/>
       <c r="AX235" s="3"/>
       <c r="AY235" s="3"/>
-    </row>
-    <row r="236" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ235" s="3"/>
+      <c r="BA235" s="3"/>
+      <c r="BB235" s="3"/>
+      <c r="BC235" s="3"/>
+    </row>
+    <row r="236" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -13460,8 +14560,12 @@
       <c r="AW236" s="3"/>
       <c r="AX236" s="3"/>
       <c r="AY236" s="3"/>
-    </row>
-    <row r="237" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ236" s="3"/>
+      <c r="BA236" s="3"/>
+      <c r="BB236" s="3"/>
+      <c r="BC236" s="3"/>
+    </row>
+    <row r="237" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -13511,8 +14615,12 @@
       <c r="AW237" s="3"/>
       <c r="AX237" s="3"/>
       <c r="AY237" s="3"/>
-    </row>
-    <row r="238" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ237" s="3"/>
+      <c r="BA237" s="3"/>
+      <c r="BB237" s="3"/>
+      <c r="BC237" s="3"/>
+    </row>
+    <row r="238" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -13562,8 +14670,12 @@
       <c r="AW238" s="3"/>
       <c r="AX238" s="3"/>
       <c r="AY238" s="3"/>
-    </row>
-    <row r="239" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ238" s="3"/>
+      <c r="BA238" s="3"/>
+      <c r="BB238" s="3"/>
+      <c r="BC238" s="3"/>
+    </row>
+    <row r="239" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -13613,8 +14725,12 @@
       <c r="AW239" s="3"/>
       <c r="AX239" s="3"/>
       <c r="AY239" s="3"/>
-    </row>
-    <row r="240" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ239" s="3"/>
+      <c r="BA239" s="3"/>
+      <c r="BB239" s="3"/>
+      <c r="BC239" s="3"/>
+    </row>
+    <row r="240" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -13664,8 +14780,12 @@
       <c r="AW240" s="3"/>
       <c r="AX240" s="3"/>
       <c r="AY240" s="3"/>
-    </row>
-    <row r="241" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ240" s="3"/>
+      <c r="BA240" s="3"/>
+      <c r="BB240" s="3"/>
+      <c r="BC240" s="3"/>
+    </row>
+    <row r="241" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -13715,8 +14835,12 @@
       <c r="AW241" s="3"/>
       <c r="AX241" s="3"/>
       <c r="AY241" s="3"/>
-    </row>
-    <row r="242" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ241" s="3"/>
+      <c r="BA241" s="3"/>
+      <c r="BB241" s="3"/>
+      <c r="BC241" s="3"/>
+    </row>
+    <row r="242" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -13766,8 +14890,12 @@
       <c r="AW242" s="3"/>
       <c r="AX242" s="3"/>
       <c r="AY242" s="3"/>
-    </row>
-    <row r="243" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ242" s="3"/>
+      <c r="BA242" s="3"/>
+      <c r="BB242" s="3"/>
+      <c r="BC242" s="3"/>
+    </row>
+    <row r="243" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -13817,8 +14945,12 @@
       <c r="AW243" s="3"/>
       <c r="AX243" s="3"/>
       <c r="AY243" s="3"/>
-    </row>
-    <row r="244" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ243" s="3"/>
+      <c r="BA243" s="3"/>
+      <c r="BB243" s="3"/>
+      <c r="BC243" s="3"/>
+    </row>
+    <row r="244" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -13868,8 +15000,12 @@
       <c r="AW244" s="3"/>
       <c r="AX244" s="3"/>
       <c r="AY244" s="3"/>
-    </row>
-    <row r="245" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ244" s="3"/>
+      <c r="BA244" s="3"/>
+      <c r="BB244" s="3"/>
+      <c r="BC244" s="3"/>
+    </row>
+    <row r="245" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -13919,8 +15055,12 @@
       <c r="AW245" s="3"/>
       <c r="AX245" s="3"/>
       <c r="AY245" s="3"/>
-    </row>
-    <row r="246" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ245" s="3"/>
+      <c r="BA245" s="3"/>
+      <c r="BB245" s="3"/>
+      <c r="BC245" s="3"/>
+    </row>
+    <row r="246" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -13970,8 +15110,12 @@
       <c r="AW246" s="3"/>
       <c r="AX246" s="3"/>
       <c r="AY246" s="3"/>
-    </row>
-    <row r="247" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ246" s="3"/>
+      <c r="BA246" s="3"/>
+      <c r="BB246" s="3"/>
+      <c r="BC246" s="3"/>
+    </row>
+    <row r="247" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -14021,8 +15165,12 @@
       <c r="AW247" s="3"/>
       <c r="AX247" s="3"/>
       <c r="AY247" s="3"/>
-    </row>
-    <row r="248" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ247" s="3"/>
+      <c r="BA247" s="3"/>
+      <c r="BB247" s="3"/>
+      <c r="BC247" s="3"/>
+    </row>
+    <row r="248" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -14072,8 +15220,12 @@
       <c r="AW248" s="3"/>
       <c r="AX248" s="3"/>
       <c r="AY248" s="3"/>
-    </row>
-    <row r="249" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ248" s="3"/>
+      <c r="BA248" s="3"/>
+      <c r="BB248" s="3"/>
+      <c r="BC248" s="3"/>
+    </row>
+    <row r="249" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -14123,8 +15275,12 @@
       <c r="AW249" s="3"/>
       <c r="AX249" s="3"/>
       <c r="AY249" s="3"/>
-    </row>
-    <row r="250" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ249" s="3"/>
+      <c r="BA249" s="3"/>
+      <c r="BB249" s="3"/>
+      <c r="BC249" s="3"/>
+    </row>
+    <row r="250" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -14174,8 +15330,12 @@
       <c r="AW250" s="3"/>
       <c r="AX250" s="3"/>
       <c r="AY250" s="3"/>
-    </row>
-    <row r="251" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ250" s="3"/>
+      <c r="BA250" s="3"/>
+      <c r="BB250" s="3"/>
+      <c r="BC250" s="3"/>
+    </row>
+    <row r="251" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -14225,8 +15385,12 @@
       <c r="AW251" s="3"/>
       <c r="AX251" s="3"/>
       <c r="AY251" s="3"/>
-    </row>
-    <row r="252" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ251" s="3"/>
+      <c r="BA251" s="3"/>
+      <c r="BB251" s="3"/>
+      <c r="BC251" s="3"/>
+    </row>
+    <row r="252" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -14276,8 +15440,12 @@
       <c r="AW252" s="3"/>
       <c r="AX252" s="3"/>
       <c r="AY252" s="3"/>
-    </row>
-    <row r="253" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ252" s="3"/>
+      <c r="BA252" s="3"/>
+      <c r="BB252" s="3"/>
+      <c r="BC252" s="3"/>
+    </row>
+    <row r="253" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -14327,8 +15495,12 @@
       <c r="AW253" s="3"/>
       <c r="AX253" s="3"/>
       <c r="AY253" s="3"/>
-    </row>
-    <row r="254" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ253" s="3"/>
+      <c r="BA253" s="3"/>
+      <c r="BB253" s="3"/>
+      <c r="BC253" s="3"/>
+    </row>
+    <row r="254" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -14378,8 +15550,12 @@
       <c r="AW254" s="3"/>
       <c r="AX254" s="3"/>
       <c r="AY254" s="3"/>
-    </row>
-    <row r="255" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ254" s="3"/>
+      <c r="BA254" s="3"/>
+      <c r="BB254" s="3"/>
+      <c r="BC254" s="3"/>
+    </row>
+    <row r="255" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -14429,8 +15605,12 @@
       <c r="AW255" s="3"/>
       <c r="AX255" s="3"/>
       <c r="AY255" s="3"/>
-    </row>
-    <row r="256" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ255" s="3"/>
+      <c r="BA255" s="3"/>
+      <c r="BB255" s="3"/>
+      <c r="BC255" s="3"/>
+    </row>
+    <row r="256" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -14480,8 +15660,12 @@
       <c r="AW256" s="3"/>
       <c r="AX256" s="3"/>
       <c r="AY256" s="3"/>
-    </row>
-    <row r="257" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ256" s="3"/>
+      <c r="BA256" s="3"/>
+      <c r="BB256" s="3"/>
+      <c r="BC256" s="3"/>
+    </row>
+    <row r="257" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -14531,8 +15715,12 @@
       <c r="AW257" s="3"/>
       <c r="AX257" s="3"/>
       <c r="AY257" s="3"/>
-    </row>
-    <row r="258" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ257" s="3"/>
+      <c r="BA257" s="3"/>
+      <c r="BB257" s="3"/>
+      <c r="BC257" s="3"/>
+    </row>
+    <row r="258" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -14582,8 +15770,12 @@
       <c r="AW258" s="3"/>
       <c r="AX258" s="3"/>
       <c r="AY258" s="3"/>
-    </row>
-    <row r="259" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ258" s="3"/>
+      <c r="BA258" s="3"/>
+      <c r="BB258" s="3"/>
+      <c r="BC258" s="3"/>
+    </row>
+    <row r="259" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -14633,8 +15825,12 @@
       <c r="AW259" s="3"/>
       <c r="AX259" s="3"/>
       <c r="AY259" s="3"/>
-    </row>
-    <row r="260" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ259" s="3"/>
+      <c r="BA259" s="3"/>
+      <c r="BB259" s="3"/>
+      <c r="BC259" s="3"/>
+    </row>
+    <row r="260" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -14684,8 +15880,12 @@
       <c r="AW260" s="3"/>
       <c r="AX260" s="3"/>
       <c r="AY260" s="3"/>
-    </row>
-    <row r="261" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ260" s="3"/>
+      <c r="BA260" s="3"/>
+      <c r="BB260" s="3"/>
+      <c r="BC260" s="3"/>
+    </row>
+    <row r="261" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -14735,8 +15935,12 @@
       <c r="AW261" s="3"/>
       <c r="AX261" s="3"/>
       <c r="AY261" s="3"/>
-    </row>
-    <row r="262" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ261" s="3"/>
+      <c r="BA261" s="3"/>
+      <c r="BB261" s="3"/>
+      <c r="BC261" s="3"/>
+    </row>
+    <row r="262" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -14786,8 +15990,12 @@
       <c r="AW262" s="3"/>
       <c r="AX262" s="3"/>
       <c r="AY262" s="3"/>
-    </row>
-    <row r="263" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ262" s="3"/>
+      <c r="BA262" s="3"/>
+      <c r="BB262" s="3"/>
+      <c r="BC262" s="3"/>
+    </row>
+    <row r="263" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -14837,8 +16045,12 @@
       <c r="AW263" s="3"/>
       <c r="AX263" s="3"/>
       <c r="AY263" s="3"/>
-    </row>
-    <row r="264" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ263" s="3"/>
+      <c r="BA263" s="3"/>
+      <c r="BB263" s="3"/>
+      <c r="BC263" s="3"/>
+    </row>
+    <row r="264" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -14888,8 +16100,12 @@
       <c r="AW264" s="3"/>
       <c r="AX264" s="3"/>
       <c r="AY264" s="3"/>
-    </row>
-    <row r="265" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ264" s="3"/>
+      <c r="BA264" s="3"/>
+      <c r="BB264" s="3"/>
+      <c r="BC264" s="3"/>
+    </row>
+    <row r="265" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -14939,8 +16155,12 @@
       <c r="AW265" s="3"/>
       <c r="AX265" s="3"/>
       <c r="AY265" s="3"/>
-    </row>
-    <row r="266" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ265" s="3"/>
+      <c r="BA265" s="3"/>
+      <c r="BB265" s="3"/>
+      <c r="BC265" s="3"/>
+    </row>
+    <row r="266" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -14990,8 +16210,12 @@
       <c r="AW266" s="3"/>
       <c r="AX266" s="3"/>
       <c r="AY266" s="3"/>
-    </row>
-    <row r="267" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ266" s="3"/>
+      <c r="BA266" s="3"/>
+      <c r="BB266" s="3"/>
+      <c r="BC266" s="3"/>
+    </row>
+    <row r="267" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -15041,8 +16265,12 @@
       <c r="AW267" s="3"/>
       <c r="AX267" s="3"/>
       <c r="AY267" s="3"/>
-    </row>
-    <row r="268" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ267" s="3"/>
+      <c r="BA267" s="3"/>
+      <c r="BB267" s="3"/>
+      <c r="BC267" s="3"/>
+    </row>
+    <row r="268" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -15092,8 +16320,12 @@
       <c r="AW268" s="3"/>
       <c r="AX268" s="3"/>
       <c r="AY268" s="3"/>
-    </row>
-    <row r="269" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ268" s="3"/>
+      <c r="BA268" s="3"/>
+      <c r="BB268" s="3"/>
+      <c r="BC268" s="3"/>
+    </row>
+    <row r="269" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -15143,8 +16375,12 @@
       <c r="AW269" s="3"/>
       <c r="AX269" s="3"/>
       <c r="AY269" s="3"/>
-    </row>
-    <row r="270" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ269" s="3"/>
+      <c r="BA269" s="3"/>
+      <c r="BB269" s="3"/>
+      <c r="BC269" s="3"/>
+    </row>
+    <row r="270" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -15194,8 +16430,12 @@
       <c r="AW270" s="3"/>
       <c r="AX270" s="3"/>
       <c r="AY270" s="3"/>
-    </row>
-    <row r="271" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ270" s="3"/>
+      <c r="BA270" s="3"/>
+      <c r="BB270" s="3"/>
+      <c r="BC270" s="3"/>
+    </row>
+    <row r="271" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -15245,8 +16485,12 @@
       <c r="AW271" s="3"/>
       <c r="AX271" s="3"/>
       <c r="AY271" s="3"/>
-    </row>
-    <row r="272" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ271" s="3"/>
+      <c r="BA271" s="3"/>
+      <c r="BB271" s="3"/>
+      <c r="BC271" s="3"/>
+    </row>
+    <row r="272" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -15296,8 +16540,12 @@
       <c r="AW272" s="3"/>
       <c r="AX272" s="3"/>
       <c r="AY272" s="3"/>
-    </row>
-    <row r="273" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ272" s="3"/>
+      <c r="BA272" s="3"/>
+      <c r="BB272" s="3"/>
+      <c r="BC272" s="3"/>
+    </row>
+    <row r="273" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -15347,8 +16595,12 @@
       <c r="AW273" s="3"/>
       <c r="AX273" s="3"/>
       <c r="AY273" s="3"/>
-    </row>
-    <row r="274" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ273" s="3"/>
+      <c r="BA273" s="3"/>
+      <c r="BB273" s="3"/>
+      <c r="BC273" s="3"/>
+    </row>
+    <row r="274" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -15398,8 +16650,12 @@
       <c r="AW274" s="3"/>
       <c r="AX274" s="3"/>
       <c r="AY274" s="3"/>
-    </row>
-    <row r="275" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ274" s="3"/>
+      <c r="BA274" s="3"/>
+      <c r="BB274" s="3"/>
+      <c r="BC274" s="3"/>
+    </row>
+    <row r="275" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -15449,8 +16705,12 @@
       <c r="AW275" s="3"/>
       <c r="AX275" s="3"/>
       <c r="AY275" s="3"/>
-    </row>
-    <row r="276" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ275" s="3"/>
+      <c r="BA275" s="3"/>
+      <c r="BB275" s="3"/>
+      <c r="BC275" s="3"/>
+    </row>
+    <row r="276" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -15500,8 +16760,12 @@
       <c r="AW276" s="3"/>
       <c r="AX276" s="3"/>
       <c r="AY276" s="3"/>
-    </row>
-    <row r="277" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ276" s="3"/>
+      <c r="BA276" s="3"/>
+      <c r="BB276" s="3"/>
+      <c r="BC276" s="3"/>
+    </row>
+    <row r="277" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -15551,8 +16815,12 @@
       <c r="AW277" s="3"/>
       <c r="AX277" s="3"/>
       <c r="AY277" s="3"/>
-    </row>
-    <row r="278" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ277" s="3"/>
+      <c r="BA277" s="3"/>
+      <c r="BB277" s="3"/>
+      <c r="BC277" s="3"/>
+    </row>
+    <row r="278" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -15602,8 +16870,12 @@
       <c r="AW278" s="3"/>
       <c r="AX278" s="3"/>
       <c r="AY278" s="3"/>
-    </row>
-    <row r="279" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ278" s="3"/>
+      <c r="BA278" s="3"/>
+      <c r="BB278" s="3"/>
+      <c r="BC278" s="3"/>
+    </row>
+    <row r="279" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -15653,8 +16925,12 @@
       <c r="AW279" s="3"/>
       <c r="AX279" s="3"/>
       <c r="AY279" s="3"/>
-    </row>
-    <row r="280" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ279" s="3"/>
+      <c r="BA279" s="3"/>
+      <c r="BB279" s="3"/>
+      <c r="BC279" s="3"/>
+    </row>
+    <row r="280" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -15704,8 +16980,12 @@
       <c r="AW280" s="3"/>
       <c r="AX280" s="3"/>
       <c r="AY280" s="3"/>
-    </row>
-    <row r="281" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ280" s="3"/>
+      <c r="BA280" s="3"/>
+      <c r="BB280" s="3"/>
+      <c r="BC280" s="3"/>
+    </row>
+    <row r="281" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -15755,8 +17035,12 @@
       <c r="AW281" s="3"/>
       <c r="AX281" s="3"/>
       <c r="AY281" s="3"/>
-    </row>
-    <row r="282" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ281" s="3"/>
+      <c r="BA281" s="3"/>
+      <c r="BB281" s="3"/>
+      <c r="BC281" s="3"/>
+    </row>
+    <row r="282" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -15806,8 +17090,12 @@
       <c r="AW282" s="3"/>
       <c r="AX282" s="3"/>
       <c r="AY282" s="3"/>
-    </row>
-    <row r="283" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ282" s="3"/>
+      <c r="BA282" s="3"/>
+      <c r="BB282" s="3"/>
+      <c r="BC282" s="3"/>
+    </row>
+    <row r="283" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -15857,8 +17145,12 @@
       <c r="AW283" s="3"/>
       <c r="AX283" s="3"/>
       <c r="AY283" s="3"/>
-    </row>
-    <row r="284" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ283" s="3"/>
+      <c r="BA283" s="3"/>
+      <c r="BB283" s="3"/>
+      <c r="BC283" s="3"/>
+    </row>
+    <row r="284" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -15908,8 +17200,12 @@
       <c r="AW284" s="3"/>
       <c r="AX284" s="3"/>
       <c r="AY284" s="3"/>
-    </row>
-    <row r="285" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ284" s="3"/>
+      <c r="BA284" s="3"/>
+      <c r="BB284" s="3"/>
+      <c r="BC284" s="3"/>
+    </row>
+    <row r="285" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -15959,8 +17255,12 @@
       <c r="AW285" s="3"/>
       <c r="AX285" s="3"/>
       <c r="AY285" s="3"/>
-    </row>
-    <row r="286" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ285" s="3"/>
+      <c r="BA285" s="3"/>
+      <c r="BB285" s="3"/>
+      <c r="BC285" s="3"/>
+    </row>
+    <row r="286" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -16010,8 +17310,12 @@
       <c r="AW286" s="3"/>
       <c r="AX286" s="3"/>
       <c r="AY286" s="3"/>
-    </row>
-    <row r="287" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ286" s="3"/>
+      <c r="BA286" s="3"/>
+      <c r="BB286" s="3"/>
+      <c r="BC286" s="3"/>
+    </row>
+    <row r="287" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -16061,8 +17365,12 @@
       <c r="AW287" s="3"/>
       <c r="AX287" s="3"/>
       <c r="AY287" s="3"/>
-    </row>
-    <row r="288" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ287" s="3"/>
+      <c r="BA287" s="3"/>
+      <c r="BB287" s="3"/>
+      <c r="BC287" s="3"/>
+    </row>
+    <row r="288" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -16112,8 +17420,12 @@
       <c r="AW288" s="3"/>
       <c r="AX288" s="3"/>
       <c r="AY288" s="3"/>
-    </row>
-    <row r="289" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ288" s="3"/>
+      <c r="BA288" s="3"/>
+      <c r="BB288" s="3"/>
+      <c r="BC288" s="3"/>
+    </row>
+    <row r="289" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -16163,8 +17475,12 @@
       <c r="AW289" s="3"/>
       <c r="AX289" s="3"/>
       <c r="AY289" s="3"/>
-    </row>
-    <row r="290" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ289" s="3"/>
+      <c r="BA289" s="3"/>
+      <c r="BB289" s="3"/>
+      <c r="BC289" s="3"/>
+    </row>
+    <row r="290" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -16214,8 +17530,12 @@
       <c r="AW290" s="3"/>
       <c r="AX290" s="3"/>
       <c r="AY290" s="3"/>
-    </row>
-    <row r="291" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ290" s="3"/>
+      <c r="BA290" s="3"/>
+      <c r="BB290" s="3"/>
+      <c r="BC290" s="3"/>
+    </row>
+    <row r="291" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -16265,8 +17585,12 @@
       <c r="AW291" s="3"/>
       <c r="AX291" s="3"/>
       <c r="AY291" s="3"/>
-    </row>
-    <row r="292" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ291" s="3"/>
+      <c r="BA291" s="3"/>
+      <c r="BB291" s="3"/>
+      <c r="BC291" s="3"/>
+    </row>
+    <row r="292" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -16316,8 +17640,12 @@
       <c r="AW292" s="3"/>
       <c r="AX292" s="3"/>
       <c r="AY292" s="3"/>
-    </row>
-    <row r="293" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ292" s="3"/>
+      <c r="BA292" s="3"/>
+      <c r="BB292" s="3"/>
+      <c r="BC292" s="3"/>
+    </row>
+    <row r="293" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -16367,8 +17695,12 @@
       <c r="AW293" s="3"/>
       <c r="AX293" s="3"/>
       <c r="AY293" s="3"/>
-    </row>
-    <row r="294" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ293" s="3"/>
+      <c r="BA293" s="3"/>
+      <c r="BB293" s="3"/>
+      <c r="BC293" s="3"/>
+    </row>
+    <row r="294" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -16418,8 +17750,12 @@
       <c r="AW294" s="3"/>
       <c r="AX294" s="3"/>
       <c r="AY294" s="3"/>
-    </row>
-    <row r="295" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ294" s="3"/>
+      <c r="BA294" s="3"/>
+      <c r="BB294" s="3"/>
+      <c r="BC294" s="3"/>
+    </row>
+    <row r="295" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -16469,8 +17805,12 @@
       <c r="AW295" s="3"/>
       <c r="AX295" s="3"/>
       <c r="AY295" s="3"/>
-    </row>
-    <row r="296" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ295" s="3"/>
+      <c r="BA295" s="3"/>
+      <c r="BB295" s="3"/>
+      <c r="BC295" s="3"/>
+    </row>
+    <row r="296" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -16520,8 +17860,12 @@
       <c r="AW296" s="3"/>
       <c r="AX296" s="3"/>
       <c r="AY296" s="3"/>
-    </row>
-    <row r="297" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ296" s="3"/>
+      <c r="BA296" s="3"/>
+      <c r="BB296" s="3"/>
+      <c r="BC296" s="3"/>
+    </row>
+    <row r="297" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -16571,8 +17915,12 @@
       <c r="AW297" s="3"/>
       <c r="AX297" s="3"/>
       <c r="AY297" s="3"/>
-    </row>
-    <row r="298" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ297" s="3"/>
+      <c r="BA297" s="3"/>
+      <c r="BB297" s="3"/>
+      <c r="BC297" s="3"/>
+    </row>
+    <row r="298" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -16622,8 +17970,12 @@
       <c r="AW298" s="3"/>
       <c r="AX298" s="3"/>
       <c r="AY298" s="3"/>
-    </row>
-    <row r="299" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ298" s="3"/>
+      <c r="BA298" s="3"/>
+      <c r="BB298" s="3"/>
+      <c r="BC298" s="3"/>
+    </row>
+    <row r="299" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -16673,8 +18025,12 @@
       <c r="AW299" s="3"/>
       <c r="AX299" s="3"/>
       <c r="AY299" s="3"/>
-    </row>
-    <row r="300" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ299" s="3"/>
+      <c r="BA299" s="3"/>
+      <c r="BB299" s="3"/>
+      <c r="BC299" s="3"/>
+    </row>
+    <row r="300" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -16724,8 +18080,12 @@
       <c r="AW300" s="3"/>
       <c r="AX300" s="3"/>
       <c r="AY300" s="3"/>
-    </row>
-    <row r="301" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ300" s="3"/>
+      <c r="BA300" s="3"/>
+      <c r="BB300" s="3"/>
+      <c r="BC300" s="3"/>
+    </row>
+    <row r="301" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -16775,8 +18135,12 @@
       <c r="AW301" s="3"/>
       <c r="AX301" s="3"/>
       <c r="AY301" s="3"/>
-    </row>
-    <row r="302" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ301" s="3"/>
+      <c r="BA301" s="3"/>
+      <c r="BB301" s="3"/>
+      <c r="BC301" s="3"/>
+    </row>
+    <row r="302" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -16826,8 +18190,12 @@
       <c r="AW302" s="3"/>
       <c r="AX302" s="3"/>
       <c r="AY302" s="3"/>
-    </row>
-    <row r="303" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ302" s="3"/>
+      <c r="BA302" s="3"/>
+      <c r="BB302" s="3"/>
+      <c r="BC302" s="3"/>
+    </row>
+    <row r="303" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -16877,8 +18245,12 @@
       <c r="AW303" s="3"/>
       <c r="AX303" s="3"/>
       <c r="AY303" s="3"/>
-    </row>
-    <row r="304" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ303" s="3"/>
+      <c r="BA303" s="3"/>
+      <c r="BB303" s="3"/>
+      <c r="BC303" s="3"/>
+    </row>
+    <row r="304" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -16928,8 +18300,12 @@
       <c r="AW304" s="3"/>
       <c r="AX304" s="3"/>
       <c r="AY304" s="3"/>
-    </row>
-    <row r="305" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ304" s="3"/>
+      <c r="BA304" s="3"/>
+      <c r="BB304" s="3"/>
+      <c r="BC304" s="3"/>
+    </row>
+    <row r="305" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -16979,8 +18355,12 @@
       <c r="AW305" s="3"/>
       <c r="AX305" s="3"/>
       <c r="AY305" s="3"/>
-    </row>
-    <row r="306" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ305" s="3"/>
+      <c r="BA305" s="3"/>
+      <c r="BB305" s="3"/>
+      <c r="BC305" s="3"/>
+    </row>
+    <row r="306" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -17030,8 +18410,12 @@
       <c r="AW306" s="3"/>
       <c r="AX306" s="3"/>
       <c r="AY306" s="3"/>
-    </row>
-    <row r="307" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ306" s="3"/>
+      <c r="BA306" s="3"/>
+      <c r="BB306" s="3"/>
+      <c r="BC306" s="3"/>
+    </row>
+    <row r="307" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -17081,8 +18465,12 @@
       <c r="AW307" s="3"/>
       <c r="AX307" s="3"/>
       <c r="AY307" s="3"/>
-    </row>
-    <row r="308" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ307" s="3"/>
+      <c r="BA307" s="3"/>
+      <c r="BB307" s="3"/>
+      <c r="BC307" s="3"/>
+    </row>
+    <row r="308" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -17132,8 +18520,12 @@
       <c r="AW308" s="3"/>
       <c r="AX308" s="3"/>
       <c r="AY308" s="3"/>
-    </row>
-    <row r="309" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ308" s="3"/>
+      <c r="BA308" s="3"/>
+      <c r="BB308" s="3"/>
+      <c r="BC308" s="3"/>
+    </row>
+    <row r="309" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -17183,8 +18575,12 @@
       <c r="AW309" s="3"/>
       <c r="AX309" s="3"/>
       <c r="AY309" s="3"/>
-    </row>
-    <row r="310" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ309" s="3"/>
+      <c r="BA309" s="3"/>
+      <c r="BB309" s="3"/>
+      <c r="BC309" s="3"/>
+    </row>
+    <row r="310" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -17234,8 +18630,12 @@
       <c r="AW310" s="3"/>
       <c r="AX310" s="3"/>
       <c r="AY310" s="3"/>
-    </row>
-    <row r="311" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ310" s="3"/>
+      <c r="BA310" s="3"/>
+      <c r="BB310" s="3"/>
+      <c r="BC310" s="3"/>
+    </row>
+    <row r="311" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -17285,8 +18685,12 @@
       <c r="AW311" s="3"/>
       <c r="AX311" s="3"/>
       <c r="AY311" s="3"/>
-    </row>
-    <row r="312" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ311" s="3"/>
+      <c r="BA311" s="3"/>
+      <c r="BB311" s="3"/>
+      <c r="BC311" s="3"/>
+    </row>
+    <row r="312" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -17336,8 +18740,12 @@
       <c r="AW312" s="3"/>
       <c r="AX312" s="3"/>
       <c r="AY312" s="3"/>
-    </row>
-    <row r="313" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ312" s="3"/>
+      <c r="BA312" s="3"/>
+      <c r="BB312" s="3"/>
+      <c r="BC312" s="3"/>
+    </row>
+    <row r="313" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -17387,8 +18795,12 @@
       <c r="AW313" s="3"/>
       <c r="AX313" s="3"/>
       <c r="AY313" s="3"/>
-    </row>
-    <row r="314" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ313" s="3"/>
+      <c r="BA313" s="3"/>
+      <c r="BB313" s="3"/>
+      <c r="BC313" s="3"/>
+    </row>
+    <row r="314" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -17438,8 +18850,12 @@
       <c r="AW314" s="3"/>
       <c r="AX314" s="3"/>
       <c r="AY314" s="3"/>
-    </row>
-    <row r="315" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ314" s="3"/>
+      <c r="BA314" s="3"/>
+      <c r="BB314" s="3"/>
+      <c r="BC314" s="3"/>
+    </row>
+    <row r="315" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -17489,8 +18905,12 @@
       <c r="AW315" s="3"/>
       <c r="AX315" s="3"/>
       <c r="AY315" s="3"/>
-    </row>
-    <row r="316" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ315" s="3"/>
+      <c r="BA315" s="3"/>
+      <c r="BB315" s="3"/>
+      <c r="BC315" s="3"/>
+    </row>
+    <row r="316" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -17540,8 +18960,12 @@
       <c r="AW316" s="3"/>
       <c r="AX316" s="3"/>
       <c r="AY316" s="3"/>
-    </row>
-    <row r="317" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ316" s="3"/>
+      <c r="BA316" s="3"/>
+      <c r="BB316" s="3"/>
+      <c r="BC316" s="3"/>
+    </row>
+    <row r="317" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -17591,8 +19015,12 @@
       <c r="AW317" s="3"/>
       <c r="AX317" s="3"/>
       <c r="AY317" s="3"/>
-    </row>
-    <row r="318" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ317" s="3"/>
+      <c r="BA317" s="3"/>
+      <c r="BB317" s="3"/>
+      <c r="BC317" s="3"/>
+    </row>
+    <row r="318" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -17642,8 +19070,12 @@
       <c r="AW318" s="3"/>
       <c r="AX318" s="3"/>
       <c r="AY318" s="3"/>
-    </row>
-    <row r="319" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ318" s="3"/>
+      <c r="BA318" s="3"/>
+      <c r="BB318" s="3"/>
+      <c r="BC318" s="3"/>
+    </row>
+    <row r="319" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -17693,8 +19125,12 @@
       <c r="AW319" s="3"/>
       <c r="AX319" s="3"/>
       <c r="AY319" s="3"/>
-    </row>
-    <row r="320" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ319" s="3"/>
+      <c r="BA319" s="3"/>
+      <c r="BB319" s="3"/>
+      <c r="BC319" s="3"/>
+    </row>
+    <row r="320" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -17744,8 +19180,12 @@
       <c r="AW320" s="3"/>
       <c r="AX320" s="3"/>
       <c r="AY320" s="3"/>
-    </row>
-    <row r="321" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ320" s="3"/>
+      <c r="BA320" s="3"/>
+      <c r="BB320" s="3"/>
+      <c r="BC320" s="3"/>
+    </row>
+    <row r="321" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -17795,8 +19235,12 @@
       <c r="AW321" s="3"/>
       <c r="AX321" s="3"/>
       <c r="AY321" s="3"/>
-    </row>
-    <row r="322" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ321" s="3"/>
+      <c r="BA321" s="3"/>
+      <c r="BB321" s="3"/>
+      <c r="BC321" s="3"/>
+    </row>
+    <row r="322" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -17846,8 +19290,12 @@
       <c r="AW322" s="3"/>
       <c r="AX322" s="3"/>
       <c r="AY322" s="3"/>
-    </row>
-    <row r="323" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ322" s="3"/>
+      <c r="BA322" s="3"/>
+      <c r="BB322" s="3"/>
+      <c r="BC322" s="3"/>
+    </row>
+    <row r="323" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -17897,8 +19345,12 @@
       <c r="AW323" s="3"/>
       <c r="AX323" s="3"/>
       <c r="AY323" s="3"/>
-    </row>
-    <row r="324" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ323" s="3"/>
+      <c r="BA323" s="3"/>
+      <c r="BB323" s="3"/>
+      <c r="BC323" s="3"/>
+    </row>
+    <row r="324" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -17948,8 +19400,12 @@
       <c r="AW324" s="3"/>
       <c r="AX324" s="3"/>
       <c r="AY324" s="3"/>
-    </row>
-    <row r="325" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ324" s="3"/>
+      <c r="BA324" s="3"/>
+      <c r="BB324" s="3"/>
+      <c r="BC324" s="3"/>
+    </row>
+    <row r="325" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -17999,8 +19455,12 @@
       <c r="AW325" s="3"/>
       <c r="AX325" s="3"/>
       <c r="AY325" s="3"/>
-    </row>
-    <row r="326" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ325" s="3"/>
+      <c r="BA325" s="3"/>
+      <c r="BB325" s="3"/>
+      <c r="BC325" s="3"/>
+    </row>
+    <row r="326" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -18050,8 +19510,12 @@
       <c r="AW326" s="3"/>
       <c r="AX326" s="3"/>
       <c r="AY326" s="3"/>
-    </row>
-    <row r="327" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ326" s="3"/>
+      <c r="BA326" s="3"/>
+      <c r="BB326" s="3"/>
+      <c r="BC326" s="3"/>
+    </row>
+    <row r="327" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -18101,8 +19565,12 @@
       <c r="AW327" s="3"/>
       <c r="AX327" s="3"/>
       <c r="AY327" s="3"/>
-    </row>
-    <row r="328" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ327" s="3"/>
+      <c r="BA327" s="3"/>
+      <c r="BB327" s="3"/>
+      <c r="BC327" s="3"/>
+    </row>
+    <row r="328" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -18152,8 +19620,12 @@
       <c r="AW328" s="3"/>
       <c r="AX328" s="3"/>
       <c r="AY328" s="3"/>
-    </row>
-    <row r="329" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ328" s="3"/>
+      <c r="BA328" s="3"/>
+      <c r="BB328" s="3"/>
+      <c r="BC328" s="3"/>
+    </row>
+    <row r="329" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -18203,8 +19675,12 @@
       <c r="AW329" s="3"/>
       <c r="AX329" s="3"/>
       <c r="AY329" s="3"/>
-    </row>
-    <row r="330" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ329" s="3"/>
+      <c r="BA329" s="3"/>
+      <c r="BB329" s="3"/>
+      <c r="BC329" s="3"/>
+    </row>
+    <row r="330" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -18254,8 +19730,12 @@
       <c r="AW330" s="3"/>
       <c r="AX330" s="3"/>
       <c r="AY330" s="3"/>
-    </row>
-    <row r="331" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ330" s="3"/>
+      <c r="BA330" s="3"/>
+      <c r="BB330" s="3"/>
+      <c r="BC330" s="3"/>
+    </row>
+    <row r="331" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -18305,8 +19785,12 @@
       <c r="AW331" s="3"/>
       <c r="AX331" s="3"/>
       <c r="AY331" s="3"/>
-    </row>
-    <row r="332" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ331" s="3"/>
+      <c r="BA331" s="3"/>
+      <c r="BB331" s="3"/>
+      <c r="BC331" s="3"/>
+    </row>
+    <row r="332" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -18356,8 +19840,12 @@
       <c r="AW332" s="3"/>
       <c r="AX332" s="3"/>
       <c r="AY332" s="3"/>
-    </row>
-    <row r="333" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ332" s="3"/>
+      <c r="BA332" s="3"/>
+      <c r="BB332" s="3"/>
+      <c r="BC332" s="3"/>
+    </row>
+    <row r="333" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -18407,8 +19895,12 @@
       <c r="AW333" s="3"/>
       <c r="AX333" s="3"/>
       <c r="AY333" s="3"/>
-    </row>
-    <row r="334" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ333" s="3"/>
+      <c r="BA333" s="3"/>
+      <c r="BB333" s="3"/>
+      <c r="BC333" s="3"/>
+    </row>
+    <row r="334" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -18458,8 +19950,12 @@
       <c r="AW334" s="3"/>
       <c r="AX334" s="3"/>
       <c r="AY334" s="3"/>
-    </row>
-    <row r="335" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ334" s="3"/>
+      <c r="BA334" s="3"/>
+      <c r="BB334" s="3"/>
+      <c r="BC334" s="3"/>
+    </row>
+    <row r="335" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -18509,8 +20005,12 @@
       <c r="AW335" s="3"/>
       <c r="AX335" s="3"/>
       <c r="AY335" s="3"/>
-    </row>
-    <row r="336" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ335" s="3"/>
+      <c r="BA335" s="3"/>
+      <c r="BB335" s="3"/>
+      <c r="BC335" s="3"/>
+    </row>
+    <row r="336" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -18560,8 +20060,12 @@
       <c r="AW336" s="3"/>
       <c r="AX336" s="3"/>
       <c r="AY336" s="3"/>
-    </row>
-    <row r="337" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ336" s="3"/>
+      <c r="BA336" s="3"/>
+      <c r="BB336" s="3"/>
+      <c r="BC336" s="3"/>
+    </row>
+    <row r="337" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -18611,8 +20115,12 @@
       <c r="AW337" s="3"/>
       <c r="AX337" s="3"/>
       <c r="AY337" s="3"/>
-    </row>
-    <row r="338" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ337" s="3"/>
+      <c r="BA337" s="3"/>
+      <c r="BB337" s="3"/>
+      <c r="BC337" s="3"/>
+    </row>
+    <row r="338" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -18662,8 +20170,12 @@
       <c r="AW338" s="3"/>
       <c r="AX338" s="3"/>
       <c r="AY338" s="3"/>
-    </row>
-    <row r="339" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ338" s="3"/>
+      <c r="BA338" s="3"/>
+      <c r="BB338" s="3"/>
+      <c r="BC338" s="3"/>
+    </row>
+    <row r="339" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -18713,8 +20225,12 @@
       <c r="AW339" s="3"/>
       <c r="AX339" s="3"/>
       <c r="AY339" s="3"/>
-    </row>
-    <row r="340" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ339" s="3"/>
+      <c r="BA339" s="3"/>
+      <c r="BB339" s="3"/>
+      <c r="BC339" s="3"/>
+    </row>
+    <row r="340" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -18764,8 +20280,12 @@
       <c r="AW340" s="3"/>
       <c r="AX340" s="3"/>
       <c r="AY340" s="3"/>
-    </row>
-    <row r="341" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ340" s="3"/>
+      <c r="BA340" s="3"/>
+      <c r="BB340" s="3"/>
+      <c r="BC340" s="3"/>
+    </row>
+    <row r="341" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -18815,8 +20335,12 @@
       <c r="AW341" s="3"/>
       <c r="AX341" s="3"/>
       <c r="AY341" s="3"/>
-    </row>
-    <row r="342" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ341" s="3"/>
+      <c r="BA341" s="3"/>
+      <c r="BB341" s="3"/>
+      <c r="BC341" s="3"/>
+    </row>
+    <row r="342" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -18866,8 +20390,12 @@
       <c r="AW342" s="3"/>
       <c r="AX342" s="3"/>
       <c r="AY342" s="3"/>
-    </row>
-    <row r="343" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ342" s="3"/>
+      <c r="BA342" s="3"/>
+      <c r="BB342" s="3"/>
+      <c r="BC342" s="3"/>
+    </row>
+    <row r="343" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -18917,8 +20445,12 @@
       <c r="AW343" s="3"/>
       <c r="AX343" s="3"/>
       <c r="AY343" s="3"/>
-    </row>
-    <row r="344" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ343" s="3"/>
+      <c r="BA343" s="3"/>
+      <c r="BB343" s="3"/>
+      <c r="BC343" s="3"/>
+    </row>
+    <row r="344" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -18968,8 +20500,12 @@
       <c r="AW344" s="3"/>
       <c r="AX344" s="3"/>
       <c r="AY344" s="3"/>
-    </row>
-    <row r="345" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ344" s="3"/>
+      <c r="BA344" s="3"/>
+      <c r="BB344" s="3"/>
+      <c r="BC344" s="3"/>
+    </row>
+    <row r="345" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -19019,8 +20555,12 @@
       <c r="AW345" s="3"/>
       <c r="AX345" s="3"/>
       <c r="AY345" s="3"/>
-    </row>
-    <row r="346" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ345" s="3"/>
+      <c r="BA345" s="3"/>
+      <c r="BB345" s="3"/>
+      <c r="BC345" s="3"/>
+    </row>
+    <row r="346" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -19070,8 +20610,12 @@
       <c r="AW346" s="3"/>
       <c r="AX346" s="3"/>
       <c r="AY346" s="3"/>
-    </row>
-    <row r="347" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ346" s="3"/>
+      <c r="BA346" s="3"/>
+      <c r="BB346" s="3"/>
+      <c r="BC346" s="3"/>
+    </row>
+    <row r="347" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -19121,8 +20665,12 @@
       <c r="AW347" s="3"/>
       <c r="AX347" s="3"/>
       <c r="AY347" s="3"/>
-    </row>
-    <row r="348" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ347" s="3"/>
+      <c r="BA347" s="3"/>
+      <c r="BB347" s="3"/>
+      <c r="BC347" s="3"/>
+    </row>
+    <row r="348" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -19172,8 +20720,12 @@
       <c r="AW348" s="3"/>
       <c r="AX348" s="3"/>
       <c r="AY348" s="3"/>
-    </row>
-    <row r="349" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ348" s="3"/>
+      <c r="BA348" s="3"/>
+      <c r="BB348" s="3"/>
+      <c r="BC348" s="3"/>
+    </row>
+    <row r="349" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -19223,8 +20775,12 @@
       <c r="AW349" s="3"/>
       <c r="AX349" s="3"/>
       <c r="AY349" s="3"/>
-    </row>
-    <row r="350" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ349" s="3"/>
+      <c r="BA349" s="3"/>
+      <c r="BB349" s="3"/>
+      <c r="BC349" s="3"/>
+    </row>
+    <row r="350" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -19274,8 +20830,12 @@
       <c r="AW350" s="3"/>
       <c r="AX350" s="3"/>
       <c r="AY350" s="3"/>
-    </row>
-    <row r="351" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ350" s="3"/>
+      <c r="BA350" s="3"/>
+      <c r="BB350" s="3"/>
+      <c r="BC350" s="3"/>
+    </row>
+    <row r="351" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -19325,8 +20885,12 @@
       <c r="AW351" s="3"/>
       <c r="AX351" s="3"/>
       <c r="AY351" s="3"/>
-    </row>
-    <row r="352" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ351" s="3"/>
+      <c r="BA351" s="3"/>
+      <c r="BB351" s="3"/>
+      <c r="BC351" s="3"/>
+    </row>
+    <row r="352" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -19376,8 +20940,12 @@
       <c r="AW352" s="3"/>
       <c r="AX352" s="3"/>
       <c r="AY352" s="3"/>
-    </row>
-    <row r="353" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ352" s="3"/>
+      <c r="BA352" s="3"/>
+      <c r="BB352" s="3"/>
+      <c r="BC352" s="3"/>
+    </row>
+    <row r="353" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -19427,8 +20995,12 @@
       <c r="AW353" s="3"/>
       <c r="AX353" s="3"/>
       <c r="AY353" s="3"/>
-    </row>
-    <row r="354" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ353" s="3"/>
+      <c r="BA353" s="3"/>
+      <c r="BB353" s="3"/>
+      <c r="BC353" s="3"/>
+    </row>
+    <row r="354" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -19478,8 +21050,12 @@
       <c r="AW354" s="3"/>
       <c r="AX354" s="3"/>
       <c r="AY354" s="3"/>
-    </row>
-    <row r="355" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ354" s="3"/>
+      <c r="BA354" s="3"/>
+      <c r="BB354" s="3"/>
+      <c r="BC354" s="3"/>
+    </row>
+    <row r="355" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -19529,8 +21105,12 @@
       <c r="AW355" s="3"/>
       <c r="AX355" s="3"/>
       <c r="AY355" s="3"/>
-    </row>
-    <row r="356" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ355" s="3"/>
+      <c r="BA355" s="3"/>
+      <c r="BB355" s="3"/>
+      <c r="BC355" s="3"/>
+    </row>
+    <row r="356" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -19580,8 +21160,12 @@
       <c r="AW356" s="3"/>
       <c r="AX356" s="3"/>
       <c r="AY356" s="3"/>
-    </row>
-    <row r="357" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ356" s="3"/>
+      <c r="BA356" s="3"/>
+      <c r="BB356" s="3"/>
+      <c r="BC356" s="3"/>
+    </row>
+    <row r="357" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -19631,8 +21215,12 @@
       <c r="AW357" s="3"/>
       <c r="AX357" s="3"/>
       <c r="AY357" s="3"/>
-    </row>
-    <row r="358" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ357" s="3"/>
+      <c r="BA357" s="3"/>
+      <c r="BB357" s="3"/>
+      <c r="BC357" s="3"/>
+    </row>
+    <row r="358" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -19682,8 +21270,12 @@
       <c r="AW358" s="3"/>
       <c r="AX358" s="3"/>
       <c r="AY358" s="3"/>
-    </row>
-    <row r="359" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ358" s="3"/>
+      <c r="BA358" s="3"/>
+      <c r="BB358" s="3"/>
+      <c r="BC358" s="3"/>
+    </row>
+    <row r="359" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -19733,8 +21325,12 @@
       <c r="AW359" s="3"/>
       <c r="AX359" s="3"/>
       <c r="AY359" s="3"/>
-    </row>
-    <row r="360" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ359" s="3"/>
+      <c r="BA359" s="3"/>
+      <c r="BB359" s="3"/>
+      <c r="BC359" s="3"/>
+    </row>
+    <row r="360" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -19784,8 +21380,12 @@
       <c r="AW360" s="3"/>
       <c r="AX360" s="3"/>
       <c r="AY360" s="3"/>
-    </row>
-    <row r="361" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ360" s="3"/>
+      <c r="BA360" s="3"/>
+      <c r="BB360" s="3"/>
+      <c r="BC360" s="3"/>
+    </row>
+    <row r="361" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -19835,8 +21435,12 @@
       <c r="AW361" s="3"/>
       <c r="AX361" s="3"/>
       <c r="AY361" s="3"/>
-    </row>
-    <row r="362" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ361" s="3"/>
+      <c r="BA361" s="3"/>
+      <c r="BB361" s="3"/>
+      <c r="BC361" s="3"/>
+    </row>
+    <row r="362" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -19886,8 +21490,12 @@
       <c r="AW362" s="3"/>
       <c r="AX362" s="3"/>
       <c r="AY362" s="3"/>
-    </row>
-    <row r="363" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ362" s="3"/>
+      <c r="BA362" s="3"/>
+      <c r="BB362" s="3"/>
+      <c r="BC362" s="3"/>
+    </row>
+    <row r="363" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -19937,8 +21545,12 @@
       <c r="AW363" s="3"/>
       <c r="AX363" s="3"/>
       <c r="AY363" s="3"/>
-    </row>
-    <row r="364" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ363" s="3"/>
+      <c r="BA363" s="3"/>
+      <c r="BB363" s="3"/>
+      <c r="BC363" s="3"/>
+    </row>
+    <row r="364" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -19988,8 +21600,12 @@
       <c r="AW364" s="3"/>
       <c r="AX364" s="3"/>
       <c r="AY364" s="3"/>
-    </row>
-    <row r="365" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ364" s="3"/>
+      <c r="BA364" s="3"/>
+      <c r="BB364" s="3"/>
+      <c r="BC364" s="3"/>
+    </row>
+    <row r="365" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -20039,8 +21655,12 @@
       <c r="AW365" s="3"/>
       <c r="AX365" s="3"/>
       <c r="AY365" s="3"/>
-    </row>
-    <row r="366" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ365" s="3"/>
+      <c r="BA365" s="3"/>
+      <c r="BB365" s="3"/>
+      <c r="BC365" s="3"/>
+    </row>
+    <row r="366" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -20090,8 +21710,12 @@
       <c r="AW366" s="3"/>
       <c r="AX366" s="3"/>
       <c r="AY366" s="3"/>
-    </row>
-    <row r="367" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ366" s="3"/>
+      <c r="BA366" s="3"/>
+      <c r="BB366" s="3"/>
+      <c r="BC366" s="3"/>
+    </row>
+    <row r="367" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -20141,8 +21765,12 @@
       <c r="AW367" s="3"/>
       <c r="AX367" s="3"/>
       <c r="AY367" s="3"/>
-    </row>
-    <row r="368" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ367" s="3"/>
+      <c r="BA367" s="3"/>
+      <c r="BB367" s="3"/>
+      <c r="BC367" s="3"/>
+    </row>
+    <row r="368" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -20192,8 +21820,12 @@
       <c r="AW368" s="3"/>
       <c r="AX368" s="3"/>
       <c r="AY368" s="3"/>
-    </row>
-    <row r="369" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ368" s="3"/>
+      <c r="BA368" s="3"/>
+      <c r="BB368" s="3"/>
+      <c r="BC368" s="3"/>
+    </row>
+    <row r="369" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -20243,8 +21875,12 @@
       <c r="AW369" s="3"/>
       <c r="AX369" s="3"/>
       <c r="AY369" s="3"/>
-    </row>
-    <row r="370" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ369" s="3"/>
+      <c r="BA369" s="3"/>
+      <c r="BB369" s="3"/>
+      <c r="BC369" s="3"/>
+    </row>
+    <row r="370" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -20294,8 +21930,12 @@
       <c r="AW370" s="3"/>
       <c r="AX370" s="3"/>
       <c r="AY370" s="3"/>
-    </row>
-    <row r="371" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ370" s="3"/>
+      <c r="BA370" s="3"/>
+      <c r="BB370" s="3"/>
+      <c r="BC370" s="3"/>
+    </row>
+    <row r="371" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -20345,8 +21985,12 @@
       <c r="AW371" s="3"/>
       <c r="AX371" s="3"/>
       <c r="AY371" s="3"/>
-    </row>
-    <row r="372" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ371" s="3"/>
+      <c r="BA371" s="3"/>
+      <c r="BB371" s="3"/>
+      <c r="BC371" s="3"/>
+    </row>
+    <row r="372" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -20396,8 +22040,12 @@
       <c r="AW372" s="3"/>
       <c r="AX372" s="3"/>
       <c r="AY372" s="3"/>
-    </row>
-    <row r="373" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ372" s="3"/>
+      <c r="BA372" s="3"/>
+      <c r="BB372" s="3"/>
+      <c r="BC372" s="3"/>
+    </row>
+    <row r="373" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -20447,8 +22095,12 @@
       <c r="AW373" s="3"/>
       <c r="AX373" s="3"/>
       <c r="AY373" s="3"/>
-    </row>
-    <row r="374" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ373" s="3"/>
+      <c r="BA373" s="3"/>
+      <c r="BB373" s="3"/>
+      <c r="BC373" s="3"/>
+    </row>
+    <row r="374" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -20498,8 +22150,12 @@
       <c r="AW374" s="3"/>
       <c r="AX374" s="3"/>
       <c r="AY374" s="3"/>
-    </row>
-    <row r="375" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ374" s="3"/>
+      <c r="BA374" s="3"/>
+      <c r="BB374" s="3"/>
+      <c r="BC374" s="3"/>
+    </row>
+    <row r="375" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -20549,8 +22205,12 @@
       <c r="AW375" s="3"/>
       <c r="AX375" s="3"/>
       <c r="AY375" s="3"/>
-    </row>
-    <row r="376" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ375" s="3"/>
+      <c r="BA375" s="3"/>
+      <c r="BB375" s="3"/>
+      <c r="BC375" s="3"/>
+    </row>
+    <row r="376" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -20600,8 +22260,12 @@
       <c r="AW376" s="3"/>
       <c r="AX376" s="3"/>
       <c r="AY376" s="3"/>
-    </row>
-    <row r="377" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ376" s="3"/>
+      <c r="BA376" s="3"/>
+      <c r="BB376" s="3"/>
+      <c r="BC376" s="3"/>
+    </row>
+    <row r="377" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -20651,8 +22315,12 @@
       <c r="AW377" s="3"/>
       <c r="AX377" s="3"/>
       <c r="AY377" s="3"/>
-    </row>
-    <row r="378" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ377" s="3"/>
+      <c r="BA377" s="3"/>
+      <c r="BB377" s="3"/>
+      <c r="BC377" s="3"/>
+    </row>
+    <row r="378" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -20702,8 +22370,12 @@
       <c r="AW378" s="3"/>
       <c r="AX378" s="3"/>
       <c r="AY378" s="3"/>
-    </row>
-    <row r="379" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ378" s="3"/>
+      <c r="BA378" s="3"/>
+      <c r="BB378" s="3"/>
+      <c r="BC378" s="3"/>
+    </row>
+    <row r="379" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -20753,8 +22425,12 @@
       <c r="AW379" s="3"/>
       <c r="AX379" s="3"/>
       <c r="AY379" s="3"/>
-    </row>
-    <row r="380" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ379" s="3"/>
+      <c r="BA379" s="3"/>
+      <c r="BB379" s="3"/>
+      <c r="BC379" s="3"/>
+    </row>
+    <row r="380" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -20804,8 +22480,12 @@
       <c r="AW380" s="3"/>
       <c r="AX380" s="3"/>
       <c r="AY380" s="3"/>
-    </row>
-    <row r="381" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ380" s="3"/>
+      <c r="BA380" s="3"/>
+      <c r="BB380" s="3"/>
+      <c r="BC380" s="3"/>
+    </row>
+    <row r="381" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -20855,8 +22535,12 @@
       <c r="AW381" s="3"/>
       <c r="AX381" s="3"/>
       <c r="AY381" s="3"/>
-    </row>
-    <row r="382" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ381" s="3"/>
+      <c r="BA381" s="3"/>
+      <c r="BB381" s="3"/>
+      <c r="BC381" s="3"/>
+    </row>
+    <row r="382" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -20906,8 +22590,12 @@
       <c r="AW382" s="3"/>
       <c r="AX382" s="3"/>
       <c r="AY382" s="3"/>
-    </row>
-    <row r="383" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ382" s="3"/>
+      <c r="BA382" s="3"/>
+      <c r="BB382" s="3"/>
+      <c r="BC382" s="3"/>
+    </row>
+    <row r="383" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -20957,8 +22645,12 @@
       <c r="AW383" s="3"/>
       <c r="AX383" s="3"/>
       <c r="AY383" s="3"/>
-    </row>
-    <row r="384" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ383" s="3"/>
+      <c r="BA383" s="3"/>
+      <c r="BB383" s="3"/>
+      <c r="BC383" s="3"/>
+    </row>
+    <row r="384" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -21008,8 +22700,12 @@
       <c r="AW384" s="3"/>
       <c r="AX384" s="3"/>
       <c r="AY384" s="3"/>
-    </row>
-    <row r="385" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ384" s="3"/>
+      <c r="BA384" s="3"/>
+      <c r="BB384" s="3"/>
+      <c r="BC384" s="3"/>
+    </row>
+    <row r="385" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -21059,8 +22755,12 @@
       <c r="AW385" s="3"/>
       <c r="AX385" s="3"/>
       <c r="AY385" s="3"/>
-    </row>
-    <row r="386" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ385" s="3"/>
+      <c r="BA385" s="3"/>
+      <c r="BB385" s="3"/>
+      <c r="BC385" s="3"/>
+    </row>
+    <row r="386" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -21110,8 +22810,12 @@
       <c r="AW386" s="3"/>
       <c r="AX386" s="3"/>
       <c r="AY386" s="3"/>
-    </row>
-    <row r="387" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ386" s="3"/>
+      <c r="BA386" s="3"/>
+      <c r="BB386" s="3"/>
+      <c r="BC386" s="3"/>
+    </row>
+    <row r="387" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -21161,8 +22865,12 @@
       <c r="AW387" s="3"/>
       <c r="AX387" s="3"/>
       <c r="AY387" s="3"/>
-    </row>
-    <row r="388" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ387" s="3"/>
+      <c r="BA387" s="3"/>
+      <c r="BB387" s="3"/>
+      <c r="BC387" s="3"/>
+    </row>
+    <row r="388" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -21212,8 +22920,12 @@
       <c r="AW388" s="3"/>
       <c r="AX388" s="3"/>
       <c r="AY388" s="3"/>
-    </row>
-    <row r="389" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ388" s="3"/>
+      <c r="BA388" s="3"/>
+      <c r="BB388" s="3"/>
+      <c r="BC388" s="3"/>
+    </row>
+    <row r="389" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -21263,8 +22975,12 @@
       <c r="AW389" s="3"/>
       <c r="AX389" s="3"/>
       <c r="AY389" s="3"/>
-    </row>
-    <row r="390" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ389" s="3"/>
+      <c r="BA389" s="3"/>
+      <c r="BB389" s="3"/>
+      <c r="BC389" s="3"/>
+    </row>
+    <row r="390" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -21314,8 +23030,12 @@
       <c r="AW390" s="3"/>
       <c r="AX390" s="3"/>
       <c r="AY390" s="3"/>
-    </row>
-    <row r="391" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ390" s="3"/>
+      <c r="BA390" s="3"/>
+      <c r="BB390" s="3"/>
+      <c r="BC390" s="3"/>
+    </row>
+    <row r="391" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -21365,8 +23085,12 @@
       <c r="AW391" s="3"/>
       <c r="AX391" s="3"/>
       <c r="AY391" s="3"/>
-    </row>
-    <row r="392" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ391" s="3"/>
+      <c r="BA391" s="3"/>
+      <c r="BB391" s="3"/>
+      <c r="BC391" s="3"/>
+    </row>
+    <row r="392" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -21416,8 +23140,12 @@
       <c r="AW392" s="3"/>
       <c r="AX392" s="3"/>
       <c r="AY392" s="3"/>
-    </row>
-    <row r="393" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ392" s="3"/>
+      <c r="BA392" s="3"/>
+      <c r="BB392" s="3"/>
+      <c r="BC392" s="3"/>
+    </row>
+    <row r="393" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -21467,8 +23195,12 @@
       <c r="AW393" s="3"/>
       <c r="AX393" s="3"/>
       <c r="AY393" s="3"/>
-    </row>
-    <row r="394" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ393" s="3"/>
+      <c r="BA393" s="3"/>
+      <c r="BB393" s="3"/>
+      <c r="BC393" s="3"/>
+    </row>
+    <row r="394" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -21518,8 +23250,12 @@
       <c r="AW394" s="3"/>
       <c r="AX394" s="3"/>
       <c r="AY394" s="3"/>
-    </row>
-    <row r="395" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ394" s="3"/>
+      <c r="BA394" s="3"/>
+      <c r="BB394" s="3"/>
+      <c r="BC394" s="3"/>
+    </row>
+    <row r="395" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -21569,8 +23305,12 @@
       <c r="AW395" s="3"/>
       <c r="AX395" s="3"/>
       <c r="AY395" s="3"/>
-    </row>
-    <row r="396" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ395" s="3"/>
+      <c r="BA395" s="3"/>
+      <c r="BB395" s="3"/>
+      <c r="BC395" s="3"/>
+    </row>
+    <row r="396" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -21620,8 +23360,12 @@
       <c r="AW396" s="3"/>
       <c r="AX396" s="3"/>
       <c r="AY396" s="3"/>
-    </row>
-    <row r="397" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ396" s="3"/>
+      <c r="BA396" s="3"/>
+      <c r="BB396" s="3"/>
+      <c r="BC396" s="3"/>
+    </row>
+    <row r="397" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -21671,8 +23415,12 @@
       <c r="AW397" s="3"/>
       <c r="AX397" s="3"/>
       <c r="AY397" s="3"/>
-    </row>
-    <row r="398" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ397" s="3"/>
+      <c r="BA397" s="3"/>
+      <c r="BB397" s="3"/>
+      <c r="BC397" s="3"/>
+    </row>
+    <row r="398" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -21722,8 +23470,12 @@
       <c r="AW398" s="3"/>
       <c r="AX398" s="3"/>
       <c r="AY398" s="3"/>
-    </row>
-    <row r="399" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ398" s="3"/>
+      <c r="BA398" s="3"/>
+      <c r="BB398" s="3"/>
+      <c r="BC398" s="3"/>
+    </row>
+    <row r="399" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -21773,8 +23525,12 @@
       <c r="AW399" s="3"/>
       <c r="AX399" s="3"/>
       <c r="AY399" s="3"/>
-    </row>
-    <row r="400" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ399" s="3"/>
+      <c r="BA399" s="3"/>
+      <c r="BB399" s="3"/>
+      <c r="BC399" s="3"/>
+    </row>
+    <row r="400" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -21824,8 +23580,12 @@
       <c r="AW400" s="3"/>
       <c r="AX400" s="3"/>
       <c r="AY400" s="3"/>
-    </row>
-    <row r="401" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ400" s="3"/>
+      <c r="BA400" s="3"/>
+      <c r="BB400" s="3"/>
+      <c r="BC400" s="3"/>
+    </row>
+    <row r="401" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -21875,8 +23635,12 @@
       <c r="AW401" s="3"/>
       <c r="AX401" s="3"/>
       <c r="AY401" s="3"/>
-    </row>
-    <row r="402" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ401" s="3"/>
+      <c r="BA401" s="3"/>
+      <c r="BB401" s="3"/>
+      <c r="BC401" s="3"/>
+    </row>
+    <row r="402" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -21926,8 +23690,12 @@
       <c r="AW402" s="3"/>
       <c r="AX402" s="3"/>
       <c r="AY402" s="3"/>
-    </row>
-    <row r="403" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ402" s="3"/>
+      <c r="BA402" s="3"/>
+      <c r="BB402" s="3"/>
+      <c r="BC402" s="3"/>
+    </row>
+    <row r="403" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -21977,8 +23745,12 @@
       <c r="AW403" s="3"/>
       <c r="AX403" s="3"/>
       <c r="AY403" s="3"/>
-    </row>
-    <row r="404" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ403" s="3"/>
+      <c r="BA403" s="3"/>
+      <c r="BB403" s="3"/>
+      <c r="BC403" s="3"/>
+    </row>
+    <row r="404" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -22028,8 +23800,12 @@
       <c r="AW404" s="3"/>
       <c r="AX404" s="3"/>
       <c r="AY404" s="3"/>
-    </row>
-    <row r="405" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ404" s="3"/>
+      <c r="BA404" s="3"/>
+      <c r="BB404" s="3"/>
+      <c r="BC404" s="3"/>
+    </row>
+    <row r="405" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -22079,8 +23855,12 @@
       <c r="AW405" s="3"/>
       <c r="AX405" s="3"/>
       <c r="AY405" s="3"/>
-    </row>
-    <row r="406" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ405" s="3"/>
+      <c r="BA405" s="3"/>
+      <c r="BB405" s="3"/>
+      <c r="BC405" s="3"/>
+    </row>
+    <row r="406" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -22130,8 +23910,12 @@
       <c r="AW406" s="3"/>
       <c r="AX406" s="3"/>
       <c r="AY406" s="3"/>
-    </row>
-    <row r="407" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ406" s="3"/>
+      <c r="BA406" s="3"/>
+      <c r="BB406" s="3"/>
+      <c r="BC406" s="3"/>
+    </row>
+    <row r="407" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -22181,8 +23965,12 @@
       <c r="AW407" s="3"/>
       <c r="AX407" s="3"/>
       <c r="AY407" s="3"/>
-    </row>
-    <row r="408" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ407" s="3"/>
+      <c r="BA407" s="3"/>
+      <c r="BB407" s="3"/>
+      <c r="BC407" s="3"/>
+    </row>
+    <row r="408" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -22232,8 +24020,12 @@
       <c r="AW408" s="3"/>
       <c r="AX408" s="3"/>
       <c r="AY408" s="3"/>
-    </row>
-    <row r="409" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ408" s="3"/>
+      <c r="BA408" s="3"/>
+      <c r="BB408" s="3"/>
+      <c r="BC408" s="3"/>
+    </row>
+    <row r="409" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -22283,8 +24075,12 @@
       <c r="AW409" s="3"/>
       <c r="AX409" s="3"/>
       <c r="AY409" s="3"/>
-    </row>
-    <row r="410" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ409" s="3"/>
+      <c r="BA409" s="3"/>
+      <c r="BB409" s="3"/>
+      <c r="BC409" s="3"/>
+    </row>
+    <row r="410" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -22334,8 +24130,12 @@
       <c r="AW410" s="3"/>
       <c r="AX410" s="3"/>
       <c r="AY410" s="3"/>
-    </row>
-    <row r="411" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ410" s="3"/>
+      <c r="BA410" s="3"/>
+      <c r="BB410" s="3"/>
+      <c r="BC410" s="3"/>
+    </row>
+    <row r="411" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -22385,8 +24185,12 @@
       <c r="AW411" s="3"/>
       <c r="AX411" s="3"/>
       <c r="AY411" s="3"/>
-    </row>
-    <row r="412" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ411" s="3"/>
+      <c r="BA411" s="3"/>
+      <c r="BB411" s="3"/>
+      <c r="BC411" s="3"/>
+    </row>
+    <row r="412" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -22436,8 +24240,12 @@
       <c r="AW412" s="3"/>
       <c r="AX412" s="3"/>
       <c r="AY412" s="3"/>
-    </row>
-    <row r="413" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ412" s="3"/>
+      <c r="BA412" s="3"/>
+      <c r="BB412" s="3"/>
+      <c r="BC412" s="3"/>
+    </row>
+    <row r="413" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -22487,8 +24295,12 @@
       <c r="AW413" s="3"/>
       <c r="AX413" s="3"/>
       <c r="AY413" s="3"/>
-    </row>
-    <row r="414" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ413" s="3"/>
+      <c r="BA413" s="3"/>
+      <c r="BB413" s="3"/>
+      <c r="BC413" s="3"/>
+    </row>
+    <row r="414" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -22538,8 +24350,12 @@
       <c r="AW414" s="3"/>
       <c r="AX414" s="3"/>
       <c r="AY414" s="3"/>
-    </row>
-    <row r="415" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ414" s="3"/>
+      <c r="BA414" s="3"/>
+      <c r="BB414" s="3"/>
+      <c r="BC414" s="3"/>
+    </row>
+    <row r="415" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -22589,8 +24405,12 @@
       <c r="AW415" s="3"/>
       <c r="AX415" s="3"/>
       <c r="AY415" s="3"/>
-    </row>
-    <row r="416" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ415" s="3"/>
+      <c r="BA415" s="3"/>
+      <c r="BB415" s="3"/>
+      <c r="BC415" s="3"/>
+    </row>
+    <row r="416" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -22640,8 +24460,12 @@
       <c r="AW416" s="3"/>
       <c r="AX416" s="3"/>
       <c r="AY416" s="3"/>
-    </row>
-    <row r="417" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ416" s="3"/>
+      <c r="BA416" s="3"/>
+      <c r="BB416" s="3"/>
+      <c r="BC416" s="3"/>
+    </row>
+    <row r="417" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -22691,8 +24515,12 @@
       <c r="AW417" s="3"/>
       <c r="AX417" s="3"/>
       <c r="AY417" s="3"/>
-    </row>
-    <row r="418" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ417" s="3"/>
+      <c r="BA417" s="3"/>
+      <c r="BB417" s="3"/>
+      <c r="BC417" s="3"/>
+    </row>
+    <row r="418" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -22742,8 +24570,12 @@
       <c r="AW418" s="3"/>
       <c r="AX418" s="3"/>
       <c r="AY418" s="3"/>
-    </row>
-    <row r="419" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ418" s="3"/>
+      <c r="BA418" s="3"/>
+      <c r="BB418" s="3"/>
+      <c r="BC418" s="3"/>
+    </row>
+    <row r="419" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -22793,8 +24625,12 @@
       <c r="AW419" s="3"/>
       <c r="AX419" s="3"/>
       <c r="AY419" s="3"/>
-    </row>
-    <row r="420" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ419" s="3"/>
+      <c r="BA419" s="3"/>
+      <c r="BB419" s="3"/>
+      <c r="BC419" s="3"/>
+    </row>
+    <row r="420" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -22844,8 +24680,12 @@
       <c r="AW420" s="3"/>
       <c r="AX420" s="3"/>
       <c r="AY420" s="3"/>
-    </row>
-    <row r="421" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ420" s="3"/>
+      <c r="BA420" s="3"/>
+      <c r="BB420" s="3"/>
+      <c r="BC420" s="3"/>
+    </row>
+    <row r="421" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -22895,8 +24735,12 @@
       <c r="AW421" s="3"/>
       <c r="AX421" s="3"/>
       <c r="AY421" s="3"/>
-    </row>
-    <row r="422" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ421" s="3"/>
+      <c r="BA421" s="3"/>
+      <c r="BB421" s="3"/>
+      <c r="BC421" s="3"/>
+    </row>
+    <row r="422" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -22946,8 +24790,12 @@
       <c r="AW422" s="3"/>
       <c r="AX422" s="3"/>
       <c r="AY422" s="3"/>
-    </row>
-    <row r="423" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ422" s="3"/>
+      <c r="BA422" s="3"/>
+      <c r="BB422" s="3"/>
+      <c r="BC422" s="3"/>
+    </row>
+    <row r="423" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -22997,8 +24845,12 @@
       <c r="AW423" s="3"/>
       <c r="AX423" s="3"/>
       <c r="AY423" s="3"/>
-    </row>
-    <row r="424" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ423" s="3"/>
+      <c r="BA423" s="3"/>
+      <c r="BB423" s="3"/>
+      <c r="BC423" s="3"/>
+    </row>
+    <row r="424" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -23048,8 +24900,12 @@
       <c r="AW424" s="3"/>
       <c r="AX424" s="3"/>
       <c r="AY424" s="3"/>
-    </row>
-    <row r="425" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ424" s="3"/>
+      <c r="BA424" s="3"/>
+      <c r="BB424" s="3"/>
+      <c r="BC424" s="3"/>
+    </row>
+    <row r="425" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -23099,8 +24955,12 @@
       <c r="AW425" s="3"/>
       <c r="AX425" s="3"/>
       <c r="AY425" s="3"/>
-    </row>
-    <row r="426" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ425" s="3"/>
+      <c r="BA425" s="3"/>
+      <c r="BB425" s="3"/>
+      <c r="BC425" s="3"/>
+    </row>
+    <row r="426" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -23150,8 +25010,12 @@
       <c r="AW426" s="3"/>
       <c r="AX426" s="3"/>
       <c r="AY426" s="3"/>
-    </row>
-    <row r="427" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ426" s="3"/>
+      <c r="BA426" s="3"/>
+      <c r="BB426" s="3"/>
+      <c r="BC426" s="3"/>
+    </row>
+    <row r="427" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -23201,8 +25065,12 @@
       <c r="AW427" s="3"/>
       <c r="AX427" s="3"/>
       <c r="AY427" s="3"/>
-    </row>
-    <row r="428" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ427" s="3"/>
+      <c r="BA427" s="3"/>
+      <c r="BB427" s="3"/>
+      <c r="BC427" s="3"/>
+    </row>
+    <row r="428" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -23252,8 +25120,12 @@
       <c r="AW428" s="3"/>
       <c r="AX428" s="3"/>
       <c r="AY428" s="3"/>
-    </row>
-    <row r="429" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ428" s="3"/>
+      <c r="BA428" s="3"/>
+      <c r="BB428" s="3"/>
+      <c r="BC428" s="3"/>
+    </row>
+    <row r="429" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -23303,8 +25175,12 @@
       <c r="AW429" s="3"/>
       <c r="AX429" s="3"/>
       <c r="AY429" s="3"/>
-    </row>
-    <row r="430" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ429" s="3"/>
+      <c r="BA429" s="3"/>
+      <c r="BB429" s="3"/>
+      <c r="BC429" s="3"/>
+    </row>
+    <row r="430" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -23354,8 +25230,12 @@
       <c r="AW430" s="3"/>
       <c r="AX430" s="3"/>
       <c r="AY430" s="3"/>
-    </row>
-    <row r="431" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ430" s="3"/>
+      <c r="BA430" s="3"/>
+      <c r="BB430" s="3"/>
+      <c r="BC430" s="3"/>
+    </row>
+    <row r="431" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -23405,8 +25285,12 @@
       <c r="AW431" s="3"/>
       <c r="AX431" s="3"/>
       <c r="AY431" s="3"/>
-    </row>
-    <row r="432" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ431" s="3"/>
+      <c r="BA431" s="3"/>
+      <c r="BB431" s="3"/>
+      <c r="BC431" s="3"/>
+    </row>
+    <row r="432" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -23456,8 +25340,12 @@
       <c r="AW432" s="3"/>
       <c r="AX432" s="3"/>
       <c r="AY432" s="3"/>
-    </row>
-    <row r="433" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ432" s="3"/>
+      <c r="BA432" s="3"/>
+      <c r="BB432" s="3"/>
+      <c r="BC432" s="3"/>
+    </row>
+    <row r="433" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -23507,8 +25395,12 @@
       <c r="AW433" s="3"/>
       <c r="AX433" s="3"/>
       <c r="AY433" s="3"/>
-    </row>
-    <row r="434" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ433" s="3"/>
+      <c r="BA433" s="3"/>
+      <c r="BB433" s="3"/>
+      <c r="BC433" s="3"/>
+    </row>
+    <row r="434" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -23558,8 +25450,12 @@
       <c r="AW434" s="3"/>
       <c r="AX434" s="3"/>
       <c r="AY434" s="3"/>
-    </row>
-    <row r="435" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ434" s="3"/>
+      <c r="BA434" s="3"/>
+      <c r="BB434" s="3"/>
+      <c r="BC434" s="3"/>
+    </row>
+    <row r="435" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -23609,8 +25505,12 @@
       <c r="AW435" s="3"/>
       <c r="AX435" s="3"/>
       <c r="AY435" s="3"/>
-    </row>
-    <row r="436" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ435" s="3"/>
+      <c r="BA435" s="3"/>
+      <c r="BB435" s="3"/>
+      <c r="BC435" s="3"/>
+    </row>
+    <row r="436" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -23660,8 +25560,12 @@
       <c r="AW436" s="3"/>
       <c r="AX436" s="3"/>
       <c r="AY436" s="3"/>
-    </row>
-    <row r="437" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ436" s="3"/>
+      <c r="BA436" s="3"/>
+      <c r="BB436" s="3"/>
+      <c r="BC436" s="3"/>
+    </row>
+    <row r="437" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -23711,8 +25615,12 @@
       <c r="AW437" s="3"/>
       <c r="AX437" s="3"/>
       <c r="AY437" s="3"/>
-    </row>
-    <row r="438" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ437" s="3"/>
+      <c r="BA437" s="3"/>
+      <c r="BB437" s="3"/>
+      <c r="BC437" s="3"/>
+    </row>
+    <row r="438" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -23762,8 +25670,12 @@
       <c r="AW438" s="3"/>
       <c r="AX438" s="3"/>
       <c r="AY438" s="3"/>
-    </row>
-    <row r="439" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ438" s="3"/>
+      <c r="BA438" s="3"/>
+      <c r="BB438" s="3"/>
+      <c r="BC438" s="3"/>
+    </row>
+    <row r="439" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -23813,8 +25725,12 @@
       <c r="AW439" s="3"/>
       <c r="AX439" s="3"/>
       <c r="AY439" s="3"/>
-    </row>
-    <row r="440" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ439" s="3"/>
+      <c r="BA439" s="3"/>
+      <c r="BB439" s="3"/>
+      <c r="BC439" s="3"/>
+    </row>
+    <row r="440" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -23864,8 +25780,12 @@
       <c r="AW440" s="3"/>
       <c r="AX440" s="3"/>
       <c r="AY440" s="3"/>
-    </row>
-    <row r="441" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ440" s="3"/>
+      <c r="BA440" s="3"/>
+      <c r="BB440" s="3"/>
+      <c r="BC440" s="3"/>
+    </row>
+    <row r="441" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -23915,8 +25835,12 @@
       <c r="AW441" s="3"/>
       <c r="AX441" s="3"/>
       <c r="AY441" s="3"/>
-    </row>
-    <row r="442" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ441" s="3"/>
+      <c r="BA441" s="3"/>
+      <c r="BB441" s="3"/>
+      <c r="BC441" s="3"/>
+    </row>
+    <row r="442" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -23966,8 +25890,12 @@
       <c r="AW442" s="3"/>
       <c r="AX442" s="3"/>
       <c r="AY442" s="3"/>
-    </row>
-    <row r="443" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ442" s="3"/>
+      <c r="BA442" s="3"/>
+      <c r="BB442" s="3"/>
+      <c r="BC442" s="3"/>
+    </row>
+    <row r="443" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -24017,8 +25945,12 @@
       <c r="AW443" s="3"/>
       <c r="AX443" s="3"/>
       <c r="AY443" s="3"/>
-    </row>
-    <row r="444" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ443" s="3"/>
+      <c r="BA443" s="3"/>
+      <c r="BB443" s="3"/>
+      <c r="BC443" s="3"/>
+    </row>
+    <row r="444" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -24068,8 +26000,12 @@
       <c r="AW444" s="3"/>
       <c r="AX444" s="3"/>
       <c r="AY444" s="3"/>
-    </row>
-    <row r="445" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ444" s="3"/>
+      <c r="BA444" s="3"/>
+      <c r="BB444" s="3"/>
+      <c r="BC444" s="3"/>
+    </row>
+    <row r="445" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -24119,8 +26055,12 @@
       <c r="AW445" s="3"/>
       <c r="AX445" s="3"/>
       <c r="AY445" s="3"/>
-    </row>
-    <row r="446" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ445" s="3"/>
+      <c r="BA445" s="3"/>
+      <c r="BB445" s="3"/>
+      <c r="BC445" s="3"/>
+    </row>
+    <row r="446" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -24170,8 +26110,12 @@
       <c r="AW446" s="3"/>
       <c r="AX446" s="3"/>
       <c r="AY446" s="3"/>
-    </row>
-    <row r="447" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ446" s="3"/>
+      <c r="BA446" s="3"/>
+      <c r="BB446" s="3"/>
+      <c r="BC446" s="3"/>
+    </row>
+    <row r="447" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -24221,8 +26165,12 @@
       <c r="AW447" s="3"/>
       <c r="AX447" s="3"/>
       <c r="AY447" s="3"/>
-    </row>
-    <row r="448" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ447" s="3"/>
+      <c r="BA447" s="3"/>
+      <c r="BB447" s="3"/>
+      <c r="BC447" s="3"/>
+    </row>
+    <row r="448" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -24272,8 +26220,12 @@
       <c r="AW448" s="3"/>
       <c r="AX448" s="3"/>
       <c r="AY448" s="3"/>
-    </row>
-    <row r="449" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ448" s="3"/>
+      <c r="BA448" s="3"/>
+      <c r="BB448" s="3"/>
+      <c r="BC448" s="3"/>
+    </row>
+    <row r="449" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -24323,8 +26275,12 @@
       <c r="AW449" s="3"/>
       <c r="AX449" s="3"/>
       <c r="AY449" s="3"/>
-    </row>
-    <row r="450" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ449" s="3"/>
+      <c r="BA449" s="3"/>
+      <c r="BB449" s="3"/>
+      <c r="BC449" s="3"/>
+    </row>
+    <row r="450" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -24374,8 +26330,12 @@
       <c r="AW450" s="3"/>
       <c r="AX450" s="3"/>
       <c r="AY450" s="3"/>
-    </row>
-    <row r="451" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ450" s="3"/>
+      <c r="BA450" s="3"/>
+      <c r="BB450" s="3"/>
+      <c r="BC450" s="3"/>
+    </row>
+    <row r="451" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -24425,8 +26385,12 @@
       <c r="AW451" s="3"/>
       <c r="AX451" s="3"/>
       <c r="AY451" s="3"/>
-    </row>
-    <row r="452" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ451" s="3"/>
+      <c r="BA451" s="3"/>
+      <c r="BB451" s="3"/>
+      <c r="BC451" s="3"/>
+    </row>
+    <row r="452" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -24476,8 +26440,12 @@
       <c r="AW452" s="3"/>
       <c r="AX452" s="3"/>
       <c r="AY452" s="3"/>
-    </row>
-    <row r="453" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ452" s="3"/>
+      <c r="BA452" s="3"/>
+      <c r="BB452" s="3"/>
+      <c r="BC452" s="3"/>
+    </row>
+    <row r="453" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -24527,8 +26495,12 @@
       <c r="AW453" s="3"/>
       <c r="AX453" s="3"/>
       <c r="AY453" s="3"/>
-    </row>
-    <row r="454" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ453" s="3"/>
+      <c r="BA453" s="3"/>
+      <c r="BB453" s="3"/>
+      <c r="BC453" s="3"/>
+    </row>
+    <row r="454" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -24578,8 +26550,12 @@
       <c r="AW454" s="3"/>
       <c r="AX454" s="3"/>
       <c r="AY454" s="3"/>
-    </row>
-    <row r="455" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ454" s="3"/>
+      <c r="BA454" s="3"/>
+      <c r="BB454" s="3"/>
+      <c r="BC454" s="3"/>
+    </row>
+    <row r="455" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -24629,8 +26605,12 @@
       <c r="AW455" s="3"/>
       <c r="AX455" s="3"/>
       <c r="AY455" s="3"/>
-    </row>
-    <row r="456" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ455" s="3"/>
+      <c r="BA455" s="3"/>
+      <c r="BB455" s="3"/>
+      <c r="BC455" s="3"/>
+    </row>
+    <row r="456" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -24680,8 +26660,12 @@
       <c r="AW456" s="3"/>
       <c r="AX456" s="3"/>
       <c r="AY456" s="3"/>
-    </row>
-    <row r="457" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ456" s="3"/>
+      <c r="BA456" s="3"/>
+      <c r="BB456" s="3"/>
+      <c r="BC456" s="3"/>
+    </row>
+    <row r="457" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -24731,8 +26715,12 @@
       <c r="AW457" s="3"/>
       <c r="AX457" s="3"/>
       <c r="AY457" s="3"/>
-    </row>
-    <row r="458" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ457" s="3"/>
+      <c r="BA457" s="3"/>
+      <c r="BB457" s="3"/>
+      <c r="BC457" s="3"/>
+    </row>
+    <row r="458" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -24782,8 +26770,12 @@
       <c r="AW458" s="3"/>
       <c r="AX458" s="3"/>
       <c r="AY458" s="3"/>
-    </row>
-    <row r="459" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ458" s="3"/>
+      <c r="BA458" s="3"/>
+      <c r="BB458" s="3"/>
+      <c r="BC458" s="3"/>
+    </row>
+    <row r="459" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -24833,8 +26825,12 @@
       <c r="AW459" s="3"/>
       <c r="AX459" s="3"/>
       <c r="AY459" s="3"/>
-    </row>
-    <row r="460" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ459" s="3"/>
+      <c r="BA459" s="3"/>
+      <c r="BB459" s="3"/>
+      <c r="BC459" s="3"/>
+    </row>
+    <row r="460" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -24884,8 +26880,12 @@
       <c r="AW460" s="3"/>
       <c r="AX460" s="3"/>
       <c r="AY460" s="3"/>
-    </row>
-    <row r="461" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ460" s="3"/>
+      <c r="BA460" s="3"/>
+      <c r="BB460" s="3"/>
+      <c r="BC460" s="3"/>
+    </row>
+    <row r="461" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -24935,8 +26935,12 @@
       <c r="AW461" s="3"/>
       <c r="AX461" s="3"/>
       <c r="AY461" s="3"/>
-    </row>
-    <row r="462" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ461" s="3"/>
+      <c r="BA461" s="3"/>
+      <c r="BB461" s="3"/>
+      <c r="BC461" s="3"/>
+    </row>
+    <row r="462" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -24986,8 +26990,12 @@
       <c r="AW462" s="3"/>
       <c r="AX462" s="3"/>
       <c r="AY462" s="3"/>
-    </row>
-    <row r="463" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ462" s="3"/>
+      <c r="BA462" s="3"/>
+      <c r="BB462" s="3"/>
+      <c r="BC462" s="3"/>
+    </row>
+    <row r="463" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -25037,8 +27045,12 @@
       <c r="AW463" s="3"/>
       <c r="AX463" s="3"/>
       <c r="AY463" s="3"/>
-    </row>
-    <row r="464" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ463" s="3"/>
+      <c r="BA463" s="3"/>
+      <c r="BB463" s="3"/>
+      <c r="BC463" s="3"/>
+    </row>
+    <row r="464" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -25088,8 +27100,12 @@
       <c r="AW464" s="3"/>
       <c r="AX464" s="3"/>
       <c r="AY464" s="3"/>
-    </row>
-    <row r="465" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ464" s="3"/>
+      <c r="BA464" s="3"/>
+      <c r="BB464" s="3"/>
+      <c r="BC464" s="3"/>
+    </row>
+    <row r="465" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -25139,8 +27155,12 @@
       <c r="AW465" s="3"/>
       <c r="AX465" s="3"/>
       <c r="AY465" s="3"/>
-    </row>
-    <row r="466" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ465" s="3"/>
+      <c r="BA465" s="3"/>
+      <c r="BB465" s="3"/>
+      <c r="BC465" s="3"/>
+    </row>
+    <row r="466" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -25190,8 +27210,12 @@
       <c r="AW466" s="3"/>
       <c r="AX466" s="3"/>
       <c r="AY466" s="3"/>
-    </row>
-    <row r="467" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ466" s="3"/>
+      <c r="BA466" s="3"/>
+      <c r="BB466" s="3"/>
+      <c r="BC466" s="3"/>
+    </row>
+    <row r="467" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -25241,8 +27265,12 @@
       <c r="AW467" s="3"/>
       <c r="AX467" s="3"/>
       <c r="AY467" s="3"/>
-    </row>
-    <row r="468" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ467" s="3"/>
+      <c r="BA467" s="3"/>
+      <c r="BB467" s="3"/>
+      <c r="BC467" s="3"/>
+    </row>
+    <row r="468" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -25292,8 +27320,12 @@
       <c r="AW468" s="3"/>
       <c r="AX468" s="3"/>
       <c r="AY468" s="3"/>
-    </row>
-    <row r="469" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ468" s="3"/>
+      <c r="BA468" s="3"/>
+      <c r="BB468" s="3"/>
+      <c r="BC468" s="3"/>
+    </row>
+    <row r="469" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -25343,8 +27375,12 @@
       <c r="AW469" s="3"/>
       <c r="AX469" s="3"/>
       <c r="AY469" s="3"/>
-    </row>
-    <row r="470" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ469" s="3"/>
+      <c r="BA469" s="3"/>
+      <c r="BB469" s="3"/>
+      <c r="BC469" s="3"/>
+    </row>
+    <row r="470" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -25394,8 +27430,12 @@
       <c r="AW470" s="3"/>
       <c r="AX470" s="3"/>
       <c r="AY470" s="3"/>
-    </row>
-    <row r="471" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ470" s="3"/>
+      <c r="BA470" s="3"/>
+      <c r="BB470" s="3"/>
+      <c r="BC470" s="3"/>
+    </row>
+    <row r="471" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -25445,8 +27485,12 @@
       <c r="AW471" s="3"/>
       <c r="AX471" s="3"/>
       <c r="AY471" s="3"/>
-    </row>
-    <row r="472" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ471" s="3"/>
+      <c r="BA471" s="3"/>
+      <c r="BB471" s="3"/>
+      <c r="BC471" s="3"/>
+    </row>
+    <row r="472" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -25496,8 +27540,12 @@
       <c r="AW472" s="3"/>
       <c r="AX472" s="3"/>
       <c r="AY472" s="3"/>
-    </row>
-    <row r="473" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ472" s="3"/>
+      <c r="BA472" s="3"/>
+      <c r="BB472" s="3"/>
+      <c r="BC472" s="3"/>
+    </row>
+    <row r="473" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -25547,8 +27595,12 @@
       <c r="AW473" s="3"/>
       <c r="AX473" s="3"/>
       <c r="AY473" s="3"/>
-    </row>
-    <row r="474" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ473" s="3"/>
+      <c r="BA473" s="3"/>
+      <c r="BB473" s="3"/>
+      <c r="BC473" s="3"/>
+    </row>
+    <row r="474" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -25598,8 +27650,12 @@
       <c r="AW474" s="3"/>
       <c r="AX474" s="3"/>
       <c r="AY474" s="3"/>
-    </row>
-    <row r="475" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ474" s="3"/>
+      <c r="BA474" s="3"/>
+      <c r="BB474" s="3"/>
+      <c r="BC474" s="3"/>
+    </row>
+    <row r="475" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -25649,8 +27705,12 @@
       <c r="AW475" s="3"/>
       <c r="AX475" s="3"/>
       <c r="AY475" s="3"/>
-    </row>
-    <row r="476" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ475" s="3"/>
+      <c r="BA475" s="3"/>
+      <c r="BB475" s="3"/>
+      <c r="BC475" s="3"/>
+    </row>
+    <row r="476" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -25700,8 +27760,12 @@
       <c r="AW476" s="3"/>
       <c r="AX476" s="3"/>
       <c r="AY476" s="3"/>
-    </row>
-    <row r="477" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ476" s="3"/>
+      <c r="BA476" s="3"/>
+      <c r="BB476" s="3"/>
+      <c r="BC476" s="3"/>
+    </row>
+    <row r="477" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -25751,8 +27815,12 @@
       <c r="AW477" s="3"/>
       <c r="AX477" s="3"/>
       <c r="AY477" s="3"/>
-    </row>
-    <row r="478" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ477" s="3"/>
+      <c r="BA477" s="3"/>
+      <c r="BB477" s="3"/>
+      <c r="BC477" s="3"/>
+    </row>
+    <row r="478" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -25802,8 +27870,12 @@
       <c r="AW478" s="3"/>
       <c r="AX478" s="3"/>
       <c r="AY478" s="3"/>
-    </row>
-    <row r="479" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ478" s="3"/>
+      <c r="BA478" s="3"/>
+      <c r="BB478" s="3"/>
+      <c r="BC478" s="3"/>
+    </row>
+    <row r="479" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -25853,8 +27925,12 @@
       <c r="AW479" s="3"/>
       <c r="AX479" s="3"/>
       <c r="AY479" s="3"/>
-    </row>
-    <row r="480" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ479" s="3"/>
+      <c r="BA479" s="3"/>
+      <c r="BB479" s="3"/>
+      <c r="BC479" s="3"/>
+    </row>
+    <row r="480" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -25904,8 +27980,12 @@
       <c r="AW480" s="3"/>
       <c r="AX480" s="3"/>
       <c r="AY480" s="3"/>
-    </row>
-    <row r="481" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ480" s="3"/>
+      <c r="BA480" s="3"/>
+      <c r="BB480" s="3"/>
+      <c r="BC480" s="3"/>
+    </row>
+    <row r="481" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -25955,8 +28035,12 @@
       <c r="AW481" s="3"/>
       <c r="AX481" s="3"/>
       <c r="AY481" s="3"/>
-    </row>
-    <row r="482" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ481" s="3"/>
+      <c r="BA481" s="3"/>
+      <c r="BB481" s="3"/>
+      <c r="BC481" s="3"/>
+    </row>
+    <row r="482" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -26006,8 +28090,12 @@
       <c r="AW482" s="3"/>
       <c r="AX482" s="3"/>
       <c r="AY482" s="3"/>
-    </row>
-    <row r="483" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ482" s="3"/>
+      <c r="BA482" s="3"/>
+      <c r="BB482" s="3"/>
+      <c r="BC482" s="3"/>
+    </row>
+    <row r="483" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -26057,8 +28145,12 @@
       <c r="AW483" s="3"/>
       <c r="AX483" s="3"/>
       <c r="AY483" s="3"/>
-    </row>
-    <row r="484" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ483" s="3"/>
+      <c r="BA483" s="3"/>
+      <c r="BB483" s="3"/>
+      <c r="BC483" s="3"/>
+    </row>
+    <row r="484" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -26108,8 +28200,12 @@
       <c r="AW484" s="3"/>
       <c r="AX484" s="3"/>
       <c r="AY484" s="3"/>
-    </row>
-    <row r="485" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ484" s="3"/>
+      <c r="BA484" s="3"/>
+      <c r="BB484" s="3"/>
+      <c r="BC484" s="3"/>
+    </row>
+    <row r="485" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -26159,8 +28255,12 @@
       <c r="AW485" s="3"/>
       <c r="AX485" s="3"/>
       <c r="AY485" s="3"/>
-    </row>
-    <row r="486" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ485" s="3"/>
+      <c r="BA485" s="3"/>
+      <c r="BB485" s="3"/>
+      <c r="BC485" s="3"/>
+    </row>
+    <row r="486" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -26210,8 +28310,12 @@
       <c r="AW486" s="3"/>
       <c r="AX486" s="3"/>
       <c r="AY486" s="3"/>
-    </row>
-    <row r="487" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ486" s="3"/>
+      <c r="BA486" s="3"/>
+      <c r="BB486" s="3"/>
+      <c r="BC486" s="3"/>
+    </row>
+    <row r="487" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -26261,8 +28365,12 @@
       <c r="AW487" s="3"/>
       <c r="AX487" s="3"/>
       <c r="AY487" s="3"/>
-    </row>
-    <row r="488" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ487" s="3"/>
+      <c r="BA487" s="3"/>
+      <c r="BB487" s="3"/>
+      <c r="BC487" s="3"/>
+    </row>
+    <row r="488" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -26312,8 +28420,12 @@
       <c r="AW488" s="3"/>
       <c r="AX488" s="3"/>
       <c r="AY488" s="3"/>
-    </row>
-    <row r="489" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ488" s="3"/>
+      <c r="BA488" s="3"/>
+      <c r="BB488" s="3"/>
+      <c r="BC488" s="3"/>
+    </row>
+    <row r="489" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -26363,8 +28475,12 @@
       <c r="AW489" s="3"/>
       <c r="AX489" s="3"/>
       <c r="AY489" s="3"/>
-    </row>
-    <row r="490" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ489" s="3"/>
+      <c r="BA489" s="3"/>
+      <c r="BB489" s="3"/>
+      <c r="BC489" s="3"/>
+    </row>
+    <row r="490" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -26414,8 +28530,12 @@
       <c r="AW490" s="3"/>
       <c r="AX490" s="3"/>
       <c r="AY490" s="3"/>
-    </row>
-    <row r="491" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ490" s="3"/>
+      <c r="BA490" s="3"/>
+      <c r="BB490" s="3"/>
+      <c r="BC490" s="3"/>
+    </row>
+    <row r="491" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -26465,8 +28585,12 @@
       <c r="AW491" s="3"/>
       <c r="AX491" s="3"/>
       <c r="AY491" s="3"/>
-    </row>
-    <row r="492" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ491" s="3"/>
+      <c r="BA491" s="3"/>
+      <c r="BB491" s="3"/>
+      <c r="BC491" s="3"/>
+    </row>
+    <row r="492" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -26516,8 +28640,12 @@
       <c r="AW492" s="3"/>
       <c r="AX492" s="3"/>
       <c r="AY492" s="3"/>
-    </row>
-    <row r="493" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ492" s="3"/>
+      <c r="BA492" s="3"/>
+      <c r="BB492" s="3"/>
+      <c r="BC492" s="3"/>
+    </row>
+    <row r="493" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -26567,8 +28695,12 @@
       <c r="AW493" s="3"/>
       <c r="AX493" s="3"/>
       <c r="AY493" s="3"/>
-    </row>
-    <row r="494" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ493" s="3"/>
+      <c r="BA493" s="3"/>
+      <c r="BB493" s="3"/>
+      <c r="BC493" s="3"/>
+    </row>
+    <row r="494" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -26618,8 +28750,12 @@
       <c r="AW494" s="3"/>
       <c r="AX494" s="3"/>
       <c r="AY494" s="3"/>
-    </row>
-    <row r="495" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ494" s="3"/>
+      <c r="BA494" s="3"/>
+      <c r="BB494" s="3"/>
+      <c r="BC494" s="3"/>
+    </row>
+    <row r="495" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -26669,8 +28805,12 @@
       <c r="AW495" s="3"/>
       <c r="AX495" s="3"/>
       <c r="AY495" s="3"/>
-    </row>
-    <row r="496" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ495" s="3"/>
+      <c r="BA495" s="3"/>
+      <c r="BB495" s="3"/>
+      <c r="BC495" s="3"/>
+    </row>
+    <row r="496" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -26720,8 +28860,12 @@
       <c r="AW496" s="3"/>
       <c r="AX496" s="3"/>
       <c r="AY496" s="3"/>
-    </row>
-    <row r="497" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ496" s="3"/>
+      <c r="BA496" s="3"/>
+      <c r="BB496" s="3"/>
+      <c r="BC496" s="3"/>
+    </row>
+    <row r="497" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -26771,8 +28915,12 @@
       <c r="AW497" s="3"/>
       <c r="AX497" s="3"/>
       <c r="AY497" s="3"/>
-    </row>
-    <row r="498" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ497" s="3"/>
+      <c r="BA497" s="3"/>
+      <c r="BB497" s="3"/>
+      <c r="BC497" s="3"/>
+    </row>
+    <row r="498" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -26822,8 +28970,12 @@
       <c r="AW498" s="3"/>
       <c r="AX498" s="3"/>
       <c r="AY498" s="3"/>
-    </row>
-    <row r="499" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ498" s="3"/>
+      <c r="BA498" s="3"/>
+      <c r="BB498" s="3"/>
+      <c r="BC498" s="3"/>
+    </row>
+    <row r="499" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -26873,8 +29025,12 @@
       <c r="AW499" s="3"/>
       <c r="AX499" s="3"/>
       <c r="AY499" s="3"/>
-    </row>
-    <row r="500" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ499" s="3"/>
+      <c r="BA499" s="3"/>
+      <c r="BB499" s="3"/>
+      <c r="BC499" s="3"/>
+    </row>
+    <row r="500" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -26924,8 +29080,12 @@
       <c r="AW500" s="3"/>
       <c r="AX500" s="3"/>
       <c r="AY500" s="3"/>
-    </row>
-    <row r="501" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ500" s="3"/>
+      <c r="BA500" s="3"/>
+      <c r="BB500" s="3"/>
+      <c r="BC500" s="3"/>
+    </row>
+    <row r="501" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -26975,8 +29135,12 @@
       <c r="AW501" s="3"/>
       <c r="AX501" s="3"/>
       <c r="AY501" s="3"/>
-    </row>
-    <row r="502" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ501" s="3"/>
+      <c r="BA501" s="3"/>
+      <c r="BB501" s="3"/>
+      <c r="BC501" s="3"/>
+    </row>
+    <row r="502" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -27026,8 +29190,12 @@
       <c r="AW502" s="3"/>
       <c r="AX502" s="3"/>
       <c r="AY502" s="3"/>
-    </row>
-    <row r="503" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ502" s="3"/>
+      <c r="BA502" s="3"/>
+      <c r="BB502" s="3"/>
+      <c r="BC502" s="3"/>
+    </row>
+    <row r="503" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -27077,8 +29245,12 @@
       <c r="AW503" s="3"/>
       <c r="AX503" s="3"/>
       <c r="AY503" s="3"/>
-    </row>
-    <row r="504" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ503" s="3"/>
+      <c r="BA503" s="3"/>
+      <c r="BB503" s="3"/>
+      <c r="BC503" s="3"/>
+    </row>
+    <row r="504" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -27128,8 +29300,12 @@
       <c r="AW504" s="3"/>
       <c r="AX504" s="3"/>
       <c r="AY504" s="3"/>
-    </row>
-    <row r="505" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ504" s="3"/>
+      <c r="BA504" s="3"/>
+      <c r="BB504" s="3"/>
+      <c r="BC504" s="3"/>
+    </row>
+    <row r="505" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -27179,8 +29355,12 @@
       <c r="AW505" s="3"/>
       <c r="AX505" s="3"/>
       <c r="AY505" s="3"/>
-    </row>
-    <row r="506" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ505" s="3"/>
+      <c r="BA505" s="3"/>
+      <c r="BB505" s="3"/>
+      <c r="BC505" s="3"/>
+    </row>
+    <row r="506" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -27230,8 +29410,12 @@
       <c r="AW506" s="3"/>
       <c r="AX506" s="3"/>
       <c r="AY506" s="3"/>
-    </row>
-    <row r="507" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AZ506" s="3"/>
+      <c r="BA506" s="3"/>
+      <c r="BB506" s="3"/>
+      <c r="BC506" s="3"/>
+    </row>
+    <row r="507" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -27281,11 +29465,16 @@
       <c r="AW507" s="3"/>
       <c r="AX507" s="3"/>
       <c r="AY507" s="3"/>
+      <c r="AZ507" s="3"/>
+      <c r="BA507" s="3"/>
+      <c r="BB507" s="3"/>
+      <c r="BC507" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{64F87301-59A7-405B-BCC3-1163F7526217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>